--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6A5BC986-D4DD-4171-B97B-2250894AF61A}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642F6BB3-3A8B-4A55-8C4C-ABE4D7C9D38B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="1478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1481">
   <si>
     <t>Imprint</t>
   </si>
@@ -4470,6 +4470,15 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/journal/14322323</t>
+  </si>
+  <si>
+    <t>1746-1391</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=tejs</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yisr</t>
   </si>
 </sst>
 </file>
@@ -4618,8 +4627,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H423" totalsRowShown="0">
-  <autoFilter ref="A1:H423" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
+  <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{272E03D2-B903-4A54-AFAB-BF685A99CC73}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{A3F8EBD0-FD47-4838-8534-D50BA3A66E27}" name="ISSN Electronic"/>
@@ -4931,10 +4940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
-  <dimension ref="A1:H423"/>
+  <dimension ref="A1:H425"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H429" sqref="H429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15286,6 +15295,58 @@
       </c>
       <c r="H423" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B424" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C424" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D424" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E424" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F424" t="s">
+        <v>11</v>
+      </c>
+      <c r="G424" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H424" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B425" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C425" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D425" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E425" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F425" t="s">
+        <v>11</v>
+      </c>
+      <c r="G425" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H425" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{642F6BB3-3A8B-4A55-8C4C-ABE4D7C9D38B}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A770BAFF-0DAE-40E9-83F6-2F89D9E081A9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId1"/>
+    <sheet name="Nr2" sheetId="2" r:id="rId1"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3180" uniqueCount="1481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="1914">
   <si>
     <t>Imprint</t>
   </si>
@@ -4479,13 +4480,1312 @@
   </si>
   <si>
     <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yisr</t>
+  </si>
+  <si>
+    <t>korr issn</t>
+  </si>
+  <si>
+    <t>2513-9878</t>
+  </si>
+  <si>
+    <t>2162-8777</t>
+  </si>
+  <si>
+    <t>ECS Journal of Solid State Science and Technology</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/2162-8777</t>
+  </si>
+  <si>
+    <t>1945-7111</t>
+  </si>
+  <si>
+    <t>Journal of the Electrochemical Society</t>
+  </si>
+  <si>
+    <t>https://iopscience.iop.org/journal/1945-7111</t>
+  </si>
+  <si>
+    <t>PLOS</t>
+  </si>
+  <si>
+    <t>2767-3200</t>
+  </si>
+  <si>
+    <t>PLOS Climate</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/climate/</t>
+  </si>
+  <si>
+    <t>lagt till eissn</t>
+  </si>
+  <si>
+    <t>2767-3219</t>
+  </si>
+  <si>
+    <t>PLOS Water</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/water/</t>
+  </si>
+  <si>
+    <t>2767-3170</t>
+  </si>
+  <si>
+    <t>PLOS Digital Health</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/digitalhealth/</t>
+  </si>
+  <si>
+    <t>2767-3197</t>
+  </si>
+  <si>
+    <t>PLOS Sustainability and Transformation</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/sustainabilitytransformation/</t>
+  </si>
+  <si>
+    <t>2837-8156</t>
+  </si>
+  <si>
+    <t>PLOS Mental Health</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/mentalhealth/</t>
+  </si>
+  <si>
+    <t>ny i listan</t>
+  </si>
+  <si>
+    <t>2837-8830</t>
+  </si>
+  <si>
+    <t>PLOS Complex Systems</t>
+  </si>
+  <si>
+    <t>https://journals.plos.org/complexsystems/</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>1572-8390</t>
+  </si>
+  <si>
+    <t>1122-1151</t>
+  </si>
+  <si>
+    <t>Axiomathes</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10516</t>
+  </si>
+  <si>
+    <t>1466-1268</t>
+  </si>
+  <si>
+    <t>1355-8145</t>
+  </si>
+  <si>
+    <t>Cell Stress and Chaperones</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12192</t>
+  </si>
+  <si>
+    <t>1661-4917</t>
+  </si>
+  <si>
+    <t>0004-069X</t>
+  </si>
+  <si>
+    <t>Archivum Immunologiae et Therapiae Experimentalis</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/5</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/42860</t>
+  </si>
+  <si>
+    <t>2523-3564</t>
+  </si>
+  <si>
+    <t>2523-3556</t>
+  </si>
+  <si>
+    <t>Journal of Big Data Analytics in Transportation</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/42421</t>
+  </si>
+  <si>
+    <t>1573-6989</t>
+  </si>
+  <si>
+    <t>1387-6996</t>
+  </si>
+  <si>
+    <t>Journal of Bioeconomics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10818</t>
+  </si>
+  <si>
+    <t>1873-9601</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12079</t>
+  </si>
+  <si>
+    <t>1873-4626</t>
+  </si>
+  <si>
+    <t>1091-255X</t>
+  </si>
+  <si>
+    <t>Journal of Gastrointestinal Surgery</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11605</t>
+  </si>
+  <si>
+    <t>1532-6551</t>
+  </si>
+  <si>
+    <t>1071-3581</t>
+  </si>
+  <si>
+    <t>Journal of Nuclear Cardiology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12350</t>
+  </si>
+  <si>
+    <t>2662-298X</t>
+  </si>
+  <si>
+    <t>2662-2998</t>
+  </si>
+  <si>
+    <t>Journal of Spatial Econometrics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/43071</t>
+  </si>
+  <si>
+    <t>0942-2056</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/167</t>
+  </si>
+  <si>
+    <t>1878-7479</t>
+  </si>
+  <si>
+    <t>1933-7213</t>
+  </si>
+  <si>
+    <t>Neurotherapeutics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/13311</t>
+  </si>
+  <si>
+    <t>2199-4706</t>
+  </si>
+  <si>
+    <t>Technology and Economics of Smart Grids and Sustainable Energy</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40866</t>
+  </si>
+  <si>
+    <t>The ISME Journal</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/ismej/</t>
+  </si>
+  <si>
+    <t>1760-4788</t>
+  </si>
+  <si>
+    <t>1279-7707</t>
+  </si>
+  <si>
+    <t>The journal of nutrition, health &amp; aging</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12603</t>
+  </si>
+  <si>
+    <t>0364-2313</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/268</t>
+  </si>
+  <si>
+    <t>1438-2199</t>
+  </si>
+  <si>
+    <t>0939-4451</t>
+  </si>
+  <si>
+    <t>Amino Acids</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/726</t>
+  </si>
+  <si>
+    <t>1720-8319</t>
+  </si>
+  <si>
+    <t>Aging Clinical and Experimental Research</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40520</t>
+  </si>
+  <si>
+    <t>1432-0614</t>
+  </si>
+  <si>
+    <t>0175-7598</t>
+  </si>
+  <si>
+    <t>Applied Microbiology and Biotechnology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/253</t>
+  </si>
+  <si>
+    <t>1573-7462</t>
+  </si>
+  <si>
+    <t>0269-2821</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence Review</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10462</t>
+  </si>
+  <si>
+    <t>2365-5135</t>
+  </si>
+  <si>
+    <t>2365-5127</t>
+  </si>
+  <si>
+    <t>Automotive and Engine Technology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/41104</t>
+  </si>
+  <si>
+    <t>1573-515X</t>
+  </si>
+  <si>
+    <t>0168-2563</t>
+  </si>
+  <si>
+    <t>Biogeochemistry</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10533</t>
+  </si>
+  <si>
+    <t>1432-0851</t>
+  </si>
+  <si>
+    <t>0340-7004</t>
+  </si>
+  <si>
+    <t>Cancer Immunology, Immunotherapy</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/262</t>
+  </si>
+  <si>
+    <t>1573-6822</t>
+  </si>
+  <si>
+    <t>0742-2091</t>
+  </si>
+  <si>
+    <t>Cell Biology and Toxicology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10565</t>
+  </si>
+  <si>
+    <t>1420-9071</t>
+  </si>
+  <si>
+    <t>1420-682X</t>
+  </si>
+  <si>
+    <t>Cellular and Molecular Life Sciences</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/18</t>
+  </si>
+  <si>
+    <t>1573-6830</t>
+  </si>
+  <si>
+    <t>0272-4340</t>
+  </si>
+  <si>
+    <t>Cellular and Molecular Neurobiology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10571</t>
+  </si>
+  <si>
+    <t>1591-9528</t>
+  </si>
+  <si>
+    <t>1591-8890</t>
+  </si>
+  <si>
+    <t>Clinical and Experimental Medicine</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10238</t>
+  </si>
+  <si>
+    <t>1432-1262</t>
+  </si>
+  <si>
+    <t>0179-1958</t>
+  </si>
+  <si>
+    <t>International Journal of Colorectal Disease</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/384</t>
+  </si>
+  <si>
+    <t>1432-1335</t>
+  </si>
+  <si>
+    <t>0171-5216</t>
+  </si>
+  <si>
+    <t>Journal of Cancer Research and Clinical Oncology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/432</t>
+  </si>
+  <si>
+    <t>1573-0409</t>
+  </si>
+  <si>
+    <t>0921-0296</t>
+  </si>
+  <si>
+    <t>Journal of Intelligent &amp; Robotic Systems</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10846</t>
+  </si>
+  <si>
+    <t>1572-9761</t>
+  </si>
+  <si>
+    <t>0921-2973</t>
+  </si>
+  <si>
+    <t>Landscape Ecology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10980</t>
+  </si>
+  <si>
+    <t>1432-184X</t>
+  </si>
+  <si>
+    <t>0095-3628</t>
+  </si>
+  <si>
+    <t>Microbial Ecology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/248</t>
+  </si>
+  <si>
+    <t>1573-773X</t>
+  </si>
+  <si>
+    <t>1370-4621</t>
+  </si>
+  <si>
+    <t>Neural Processing Letters</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11063</t>
+  </si>
+  <si>
+    <t>1471-5546</t>
+  </si>
+  <si>
+    <t>1353-3452</t>
+  </si>
+  <si>
+    <t>Science and Engineering Ethics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11948</t>
+  </si>
+  <si>
+    <t>1434-9957</t>
+  </si>
+  <si>
+    <t>1359-4338</t>
+  </si>
+  <si>
+    <t>Virtual Reality</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10055</t>
+  </si>
+  <si>
+    <t>1573-7659</t>
+  </si>
+  <si>
+    <t>1386-4564</t>
+  </si>
+  <si>
+    <t>Discover Computing</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10791</t>
+  </si>
+  <si>
+    <t>Flip till OA och namnändring</t>
+  </si>
+  <si>
+    <t>1573-0875</t>
+  </si>
+  <si>
+    <t>0169-6149</t>
+  </si>
+  <si>
+    <t>Discover Life</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11084</t>
+  </si>
+  <si>
+    <t>1573-0794</t>
+  </si>
+  <si>
+    <t>0167-9295</t>
+  </si>
+  <si>
+    <t>Discover Space</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11038</t>
+  </si>
+  <si>
+    <t>1481-8043</t>
+  </si>
+  <si>
+    <t>1481-8035</t>
+  </si>
+  <si>
+    <t>Canadian Journal of Emergency Medicine</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/43678</t>
+  </si>
+  <si>
+    <t>2585-7290</t>
+  </si>
+  <si>
+    <t>1336-9075</t>
+  </si>
+  <si>
+    <t>Chemical Papers</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11696</t>
+  </si>
+  <si>
+    <t>1735-8043</t>
+  </si>
+  <si>
+    <t>1735-6814</t>
+  </si>
+  <si>
+    <t>International Journal of Plant Production</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/42106</t>
+  </si>
+  <si>
+    <t>2199-6784</t>
+  </si>
+  <si>
+    <t>Journal of the Economic Science Association</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40881</t>
+  </si>
+  <si>
+    <t>1875-8355</t>
+  </si>
+  <si>
+    <t>1572-3887</t>
+  </si>
+  <si>
+    <t>The Protein Journal</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10930</t>
+  </si>
+  <si>
+    <t>1179-190X</t>
+  </si>
+  <si>
+    <t>1173-8804</t>
+  </si>
+  <si>
+    <t>BioDrugs</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40259</t>
+  </si>
+  <si>
+    <t>Lagt till eissn</t>
+  </si>
+  <si>
+    <t>1179-1918</t>
+  </si>
+  <si>
+    <t>1173-2563</t>
+  </si>
+  <si>
+    <t>Clinical Drug Investigation</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40261</t>
+  </si>
+  <si>
+    <t>1179-1926</t>
+  </si>
+  <si>
+    <t>0312-5963</t>
+  </si>
+  <si>
+    <t>Clinical Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40262</t>
+  </si>
+  <si>
+    <t>1179-1934</t>
+  </si>
+  <si>
+    <t>1172-7047</t>
+  </si>
+  <si>
+    <t>CNS Drugs</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40263</t>
+  </si>
+  <si>
+    <t>1179-1942</t>
+  </si>
+  <si>
+    <t>0114-5916</t>
+  </si>
+  <si>
+    <t>Drug Safety</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40264</t>
+  </si>
+  <si>
+    <t>1179-1950</t>
+  </si>
+  <si>
+    <t>0012-6667</t>
+  </si>
+  <si>
+    <t>Drugs</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40265</t>
+  </si>
+  <si>
+    <t>1179-1969</t>
+  </si>
+  <si>
+    <t>1170-229X</t>
+  </si>
+  <si>
+    <t>Drugs &amp; Aging</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40266</t>
+  </si>
+  <si>
+    <t>1179-1977</t>
+  </si>
+  <si>
+    <t>1172-0360</t>
+  </si>
+  <si>
+    <t>Drugs &amp; Therapy Perspectives</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40267</t>
+  </si>
+  <si>
+    <t>2107-0180</t>
+  </si>
+  <si>
+    <t>0378-7966</t>
+  </si>
+  <si>
+    <t>European Journal of Drug Metabolism and Pharmacokinetics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/13318</t>
+  </si>
+  <si>
+    <t>1179-2000</t>
+  </si>
+  <si>
+    <t>1177-1062</t>
+  </si>
+  <si>
+    <t>Molecular Diagnosis &amp; Therapy</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40291</t>
+  </si>
+  <si>
+    <t>1179-2019</t>
+  </si>
+  <si>
+    <t>1174-5878</t>
+  </si>
+  <si>
+    <t>Pediatric Drugs</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40272</t>
+  </si>
+  <si>
+    <t>1179-1993</t>
+  </si>
+  <si>
+    <t>1178-2595</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Medicine</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40290</t>
+  </si>
+  <si>
+    <t>1179-2027</t>
+  </si>
+  <si>
+    <t>1170-7690</t>
+  </si>
+  <si>
+    <t>PharmacoEconomics</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40273</t>
+  </si>
+  <si>
+    <t>1776-260X</t>
+  </si>
+  <si>
+    <t>1776-2596</t>
+  </si>
+  <si>
+    <t>Targeted Oncology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11523</t>
+  </si>
+  <si>
+    <t>1178-1661</t>
+  </si>
+  <si>
+    <t>1178-1653</t>
+  </si>
+  <si>
+    <t>The Patient - Patient-Centered Outcomes Research</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40271</t>
+  </si>
+  <si>
+    <t>1179-187X</t>
+  </si>
+  <si>
+    <t>1175-3277</t>
+  </si>
+  <si>
+    <t>American Journal of Cardiovascular Drugs</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40256</t>
+  </si>
+  <si>
+    <t>1179-1888</t>
+  </si>
+  <si>
+    <t>1175-0561</t>
+  </si>
+  <si>
+    <t>American Journal of Clinical Dermatology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40257</t>
+  </si>
+  <si>
+    <t>1179-1896</t>
+  </si>
+  <si>
+    <t>1175-5652</t>
+  </si>
+  <si>
+    <t>Applied Health Economics and Health Policy</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40258</t>
+  </si>
+  <si>
+    <t>2731-6866</t>
+  </si>
+  <si>
+    <t>2731-6858</t>
+  </si>
+  <si>
+    <t>Die Anaesthesiologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/101</t>
+  </si>
+  <si>
+    <t>Namn- och issn-ändring</t>
+  </si>
+  <si>
+    <t>2731-698X</t>
+  </si>
+  <si>
+    <t>2731-6971</t>
+  </si>
+  <si>
+    <t>Die Chirurgie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/104</t>
+  </si>
+  <si>
+    <t>2731-7455</t>
+  </si>
+  <si>
+    <t>2731-7447</t>
+  </si>
+  <si>
+    <t>Die Diabetologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11428</t>
+  </si>
+  <si>
+    <t>2731-7439</t>
+  </si>
+  <si>
+    <t>2731-7420</t>
+  </si>
+  <si>
+    <t>Die Gastroenterologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11377</t>
+  </si>
+  <si>
+    <t>2731-7110</t>
+  </si>
+  <si>
+    <t>731-7102</t>
+  </si>
+  <si>
+    <t>Die Gynäkologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/129</t>
+  </si>
+  <si>
+    <t>2731-7013</t>
+  </si>
+  <si>
+    <t>2731-7005</t>
+  </si>
+  <si>
+    <t>Die Dermatologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/105</t>
+  </si>
+  <si>
+    <t>2731-7099</t>
+  </si>
+  <si>
+    <t>2731-7080</t>
+  </si>
+  <si>
+    <t>Die Innere Medizin</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/108</t>
+  </si>
+  <si>
+    <t>2731-7137</t>
+  </si>
+  <si>
+    <t>2731-7129</t>
+  </si>
+  <si>
+    <t>Die Kardiologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12181</t>
+  </si>
+  <si>
+    <t>2731-7498</t>
+  </si>
+  <si>
+    <t>2731-748X</t>
+  </si>
+  <si>
+    <t>Die MKG-Chirurgie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12285</t>
+  </si>
+  <si>
+    <t>2731-7471</t>
+  </si>
+  <si>
+    <t>2731-7463</t>
+  </si>
+  <si>
+    <t>Die Nephrologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11560</t>
+  </si>
+  <si>
+    <t>2731-717X</t>
+  </si>
+  <si>
+    <t>2731-7161</t>
+  </si>
+  <si>
+    <t>Die Psychotherapie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/278</t>
+  </si>
+  <si>
+    <t>2731-7234</t>
+  </si>
+  <si>
+    <t>2731-7226</t>
+  </si>
+  <si>
+    <t>Die Onkologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/761</t>
+  </si>
+  <si>
+    <t>2731-7218</t>
+  </si>
+  <si>
+    <t>2731-720X</t>
+  </si>
+  <si>
+    <t>Die Ophthalmologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/347</t>
+  </si>
+  <si>
+    <t>2731-7153</t>
+  </si>
+  <si>
+    <t>2731-7145</t>
+  </si>
+  <si>
+    <t>Die Orthopädie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/132</t>
+  </si>
+  <si>
+    <t>2731-7196</t>
+  </si>
+  <si>
+    <t>2731-7188</t>
+  </si>
+  <si>
+    <t>Die Pathologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/292</t>
+  </si>
+  <si>
+    <t>2731-7412</t>
+  </si>
+  <si>
+    <t>2731-7404</t>
+  </si>
+  <si>
+    <t>Zeitschrift für Pneumologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10405</t>
+  </si>
+  <si>
+    <t>2731-7056</t>
+  </si>
+  <si>
+    <t>2731-7048</t>
+  </si>
+  <si>
+    <t>Die Radiologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/117</t>
+  </si>
+  <si>
+    <t>2731-703X</t>
+  </si>
+  <si>
+    <t>2731-7021</t>
+  </si>
+  <si>
+    <t>Die Unfallchirurgie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/113</t>
+  </si>
+  <si>
+    <t>2731-7072</t>
+  </si>
+  <si>
+    <t>2731-7064</t>
+  </si>
+  <si>
+    <t>Die Urologie</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/120</t>
+  </si>
+  <si>
+    <t>2731-6513</t>
+  </si>
+  <si>
+    <t>Graphene and 2D Materials</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/41127</t>
+  </si>
+  <si>
+    <t>2731-8400</t>
+  </si>
+  <si>
+    <t>2731-8397</t>
+  </si>
+  <si>
+    <t>High Temperature Corrosion of Materials</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11085</t>
+  </si>
+  <si>
+    <t>2731-5398</t>
+  </si>
+  <si>
+    <t>2731-538X</t>
+  </si>
+  <si>
+    <t>Machine Intelligence Research</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11633</t>
+  </si>
+  <si>
+    <t>2731-8109</t>
+  </si>
+  <si>
+    <t>2731-8095</t>
+  </si>
+  <si>
+    <t>Iranian Journal of Science</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/40995</t>
+  </si>
+  <si>
+    <t>2731-5541</t>
+  </si>
+  <si>
+    <t>2731-5533</t>
+  </si>
+  <si>
+    <t>Journal of Prevention</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10935</t>
+  </si>
+  <si>
+    <t>2948-1627</t>
+  </si>
+  <si>
+    <t>Sustainability Nexus Forum</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/550</t>
+  </si>
+  <si>
+    <t>1588-2632</t>
+  </si>
+  <si>
+    <t>Acta Mathematica Hungarica</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10474</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CC BY </t>
+  </si>
+  <si>
+    <t>1439-7617</t>
+  </si>
+  <si>
+    <t>Acta Mathematica Sinica, English Series</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10114</t>
+  </si>
+  <si>
+    <t>1572-9885</t>
+  </si>
+  <si>
+    <t>European Journal of Population</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10680</t>
+  </si>
+  <si>
+    <t>1833-928X</t>
+  </si>
+  <si>
+    <t>Australasian Plant Disease Notes</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/13314</t>
+  </si>
+  <si>
+    <t>2948-1538</t>
+  </si>
+  <si>
+    <t>Global Philosophy</t>
+  </si>
+  <si>
+    <t>2662-8473</t>
+  </si>
+  <si>
+    <t>Current Food Science and Technology Reports</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/43555</t>
+  </si>
+  <si>
+    <t>2948-1368</t>
+  </si>
+  <si>
+    <t>Data Science for Transportation</t>
+  </si>
+  <si>
+    <t>Palgrave</t>
+  </si>
+  <si>
+    <t>1939-4632</t>
+  </si>
+  <si>
+    <t>0094-5056</t>
+  </si>
+  <si>
+    <t>Eastern Economic Journal</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41302</t>
+  </si>
+  <si>
+    <t>1476-5446</t>
+  </si>
+  <si>
+    <t>1462-0049</t>
+  </si>
+  <si>
+    <t>Evidence-Based Dentistry</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/ebd/</t>
+  </si>
+  <si>
+    <t>1740-3863</t>
+  </si>
+  <si>
+    <t>Higher Education Policy</t>
+  </si>
+  <si>
+    <t>https://www.palgrave.com/gp/journal/41307</t>
+  </si>
+  <si>
+    <t>1976-3832</t>
+  </si>
+  <si>
+    <t>1229-9138</t>
+  </si>
+  <si>
+    <t>International Journal of Automotive Technology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/12239</t>
+  </si>
+  <si>
+    <t>1613-2246</t>
+  </si>
+  <si>
+    <t>0021-5155</t>
+  </si>
+  <si>
+    <t>Japanese Journal of Ophthalmology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/10384</t>
+  </si>
+  <si>
+    <t>1435-5604</t>
+  </si>
+  <si>
+    <t>0914-8779</t>
+  </si>
+  <si>
+    <t>Journal of Bone and Mineral Metabolism</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/774</t>
+  </si>
+  <si>
+    <t>1976-3794</t>
+  </si>
+  <si>
+    <t>1225-8873</t>
+  </si>
+  <si>
+    <t>Journal of Microbiology</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/12275</t>
+  </si>
+  <si>
+    <t>1975-7220</t>
+  </si>
+  <si>
+    <t>0256-1115</t>
+  </si>
+  <si>
+    <t>Korean Journal of Chemical Engineering</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/11814</t>
+  </si>
+  <si>
+    <t>2092-7673</t>
+  </si>
+  <si>
+    <t>1598-5032</t>
+  </si>
+  <si>
+    <t>Macromolecular Research</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/13233</t>
+  </si>
+  <si>
+    <t>2731-8087</t>
+  </si>
+  <si>
+    <t>Smart Grids and Sustainable Energy</t>
+  </si>
+  <si>
+    <t>1439-9229</t>
+  </si>
+  <si>
+    <t>Zeitschrift für Allgemeinmedizin</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/44266</t>
+  </si>
+  <si>
+    <t>3004-8702</t>
+  </si>
+  <si>
+    <t>ZI Zahnärztliche Implantologie</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44293</t>
+  </si>
+  <si>
+    <t>1651-226X</t>
+  </si>
+  <si>
+    <t>0284-186X</t>
+  </si>
+  <si>
+    <t>Acta Oncologica</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ionc</t>
+  </si>
+  <si>
+    <t>Cultura y Educacion</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rcye</t>
+  </si>
+  <si>
+    <t>Infancia y Aprendizaje</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=riya</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4500,6 +5800,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4509,7 +5815,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -4528,21 +5834,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="33">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4644,9 +6241,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4684,7 +6281,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4790,7 +6387,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4932,18 +6529,3107 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
+  <dimension ref="A1:H119"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G123" sqref="G123"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>741</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>741</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>741</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>741</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>741</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>741</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>741</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>741</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>741</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>741</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>741</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>741</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>741</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>741</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>741</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>741</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>741</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>598</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H429" sqref="H429"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15351,25 +20037,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B393">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B399">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:B402 B405:B406">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A770BAFF-0DAE-40E9-83F6-2F89D9E081A9}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DFD30F-2CEF-494D-8F05-A752220FA853}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr2" sheetId="2" r:id="rId1"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId1"/>
     <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="1914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="1928">
   <si>
     <t>Imprint</t>
   </si>
@@ -5779,6 +5779,48 @@
   </si>
   <si>
     <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=riya</t>
+  </si>
+  <si>
+    <t>MJS Publishing</t>
+  </si>
+  <si>
+    <t>1502-3850</t>
+  </si>
+  <si>
+    <t>Acta Odontologica Scandinavica</t>
+  </si>
+  <si>
+    <t>https://medicaljournalssweden.se/actaodontologica</t>
+  </si>
+  <si>
+    <t>https://medicaljournalssweden.se/actaoncologica</t>
+  </si>
+  <si>
+    <t>2641-5275</t>
+  </si>
+  <si>
+    <t>Biomaterial Investigations in Dentistry</t>
+  </si>
+  <si>
+    <t>https://medicaljournalssweden.se/biid</t>
+  </si>
+  <si>
+    <t>2000-6764</t>
+  </si>
+  <si>
+    <t>Journal of Plastic Surgery and Hand Surgery</t>
+  </si>
+  <si>
+    <t>https://medicaljournalssweden.se/JPHS</t>
+  </si>
+  <si>
+    <t>2168-1813</t>
+  </si>
+  <si>
+    <t>Scandinavian Journal of Urology</t>
+  </si>
+  <si>
+    <t>https://medicaljournalssweden.se/SJU</t>
   </si>
 </sst>
 </file>
@@ -6537,10 +6579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G123" sqref="G123"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9567,58 +9609,173 @@
         <v>30</v>
       </c>
     </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="25" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="23" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="21" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="19" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="17" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="15" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="13" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="11" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="7" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="5" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="3" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -20037,25 +20194,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="32" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392">
-    <cfRule type="duplicateValues" dxfId="31" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B393">
-    <cfRule type="duplicateValues" dxfId="30" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="29" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B399">
-    <cfRule type="duplicateValues" dxfId="27" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:B402 B405:B406">
-    <cfRule type="duplicateValues" dxfId="26" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43DFD30F-2CEF-494D-8F05-A752220FA853}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2260C207-CA3E-4351-9A09-CCBD16B5DB62}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId1"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId2"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId1"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId2"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4141" uniqueCount="1928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="2362">
   <si>
     <t>Imprint</t>
   </si>
@@ -5821,13 +5822,1315 @@
   </si>
   <si>
     <t>https://medicaljournalssweden.se/SJU</t>
+  </si>
+  <si>
+    <t>ändring</t>
+  </si>
+  <si>
+    <t>Elsevier</t>
+  </si>
+  <si>
+    <t>1872-2032</t>
+  </si>
+  <si>
+    <t>Acta Ecologica Sinica</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18722032</t>
+  </si>
+  <si>
+    <t>1323-8930</t>
+  </si>
+  <si>
+    <t>Allergology International</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/13238930</t>
+  </si>
+  <si>
+    <t>2352-4065</t>
+  </si>
+  <si>
+    <t>Animal Gene</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23524065</t>
+  </si>
+  <si>
+    <t>2319-4170</t>
+  </si>
+  <si>
+    <t>Biomedical Journal</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23194170</t>
+  </si>
+  <si>
+    <t>2352-5738</t>
+  </si>
+  <si>
+    <t>Biotribology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23525738</t>
+  </si>
+  <si>
+    <t>1522-8401</t>
+  </si>
+  <si>
+    <t>Clinical Pediatric Emergency Medicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15228401</t>
+  </si>
+  <si>
+    <t>2666-0547</t>
+  </si>
+  <si>
+    <t>Clinical Spectroscopy</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26660547</t>
+  </si>
+  <si>
+    <t>2666-2469</t>
+  </si>
+  <si>
+    <t>Current Research in Chemical Biology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26662469</t>
+  </si>
+  <si>
+    <t>0717-3458</t>
+  </si>
+  <si>
+    <t>Electronic Journal of Biotechnology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/07173458</t>
+  </si>
+  <si>
+    <t>2667-0119</t>
+  </si>
+  <si>
+    <t>Fish and Shellfish Immunology Reports</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26670119</t>
+  </si>
+  <si>
+    <t>1674-9871</t>
+  </si>
+  <si>
+    <t>Geoscience Frontiers</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/16749871</t>
+  </si>
+  <si>
+    <t>2211-4238</t>
+  </si>
+  <si>
+    <t>Journal Européen des Urgences et de Réanimation</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22114238</t>
+  </si>
+  <si>
+    <t>2590-0552</t>
+  </si>
+  <si>
+    <t>Journal of Computational Physics: X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25900552</t>
+  </si>
+  <si>
+    <t>1878-6529</t>
+  </si>
+  <si>
+    <t>La Revue de Médecine Légale</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/18786529</t>
+  </si>
+  <si>
+    <t>Cell Press</t>
+  </si>
+  <si>
+    <t>2372-7705</t>
+  </si>
+  <si>
+    <t>Molecular Therapy: Oncolytics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23727705</t>
+  </si>
+  <si>
+    <t>2666-1020</t>
+  </si>
+  <si>
+    <t>Organs-on-a-Chip</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26661020</t>
+  </si>
+  <si>
+    <t>1166-7087</t>
+  </si>
+  <si>
+    <t>Progrès en Urologie</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/11667087</t>
+  </si>
+  <si>
+    <t>1002-0071</t>
+  </si>
+  <si>
+    <t>Progress in Natural Science: Materials International</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10020071</t>
+  </si>
+  <si>
+    <t>2287-8882</t>
+  </si>
+  <si>
+    <t>Prostate International</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22878882</t>
+  </si>
+  <si>
+    <t>2666-2779</t>
+  </si>
+  <si>
+    <t>Results in Geochemistry</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26662779</t>
+  </si>
+  <si>
+    <t>2666-8289</t>
+  </si>
+  <si>
+    <t>Results in Geophysical Sciences</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26668289</t>
+  </si>
+  <si>
+    <t>0375-0906</t>
+  </si>
+  <si>
+    <t>Revista de Gastroenterología de México</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03750906</t>
+  </si>
+  <si>
+    <t>2255-534X</t>
+  </si>
+  <si>
+    <t>Revista de Gastroenterología de México (English Edition)</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/2255534X</t>
+  </si>
+  <si>
+    <t>1698-031X</t>
+  </si>
+  <si>
+    <t>Revista Internacional de Andrología</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1698031X</t>
+  </si>
+  <si>
+    <t>0398-7620</t>
+  </si>
+  <si>
+    <t>Revue d'Epidémiologie et de Santé Publique</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03987620</t>
+  </si>
+  <si>
+    <t>0304-3479</t>
+  </si>
+  <si>
+    <t>Russian Literature</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03043479</t>
+  </si>
+  <si>
+    <t>2093-7911</t>
+  </si>
+  <si>
+    <t>Safety and Health at Work</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/20937911</t>
+  </si>
+  <si>
+    <t>2772-8099</t>
+  </si>
+  <si>
+    <t>Total Environment Research Themes</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/27728099</t>
+  </si>
+  <si>
+    <t>2666-2604</t>
+  </si>
+  <si>
+    <t>Upstream Oil and Gas Technology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/26662604</t>
+  </si>
+  <si>
+    <t>1080-6032</t>
+  </si>
+  <si>
+    <t>Wilderness &amp; Environmental Medicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10806032</t>
+  </si>
+  <si>
+    <t>1003-5257</t>
+  </si>
+  <si>
+    <t>World Journal of Acupuncture - Moxibustion</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10035257</t>
+  </si>
+  <si>
+    <t>0939-3889</t>
+  </si>
+  <si>
+    <t>Zeitschrift für Medizinische Physik</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09393889</t>
+  </si>
+  <si>
+    <t>1049-9644</t>
+  </si>
+  <si>
+    <t>Biological Control</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10499644</t>
+  </si>
+  <si>
+    <t>1574-9541</t>
+  </si>
+  <si>
+    <t>Ecological Informatics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15749541</t>
+  </si>
+  <si>
+    <t>1769-7212</t>
+  </si>
+  <si>
+    <t>European Journal of Medical Genetics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/17697212</t>
+  </si>
+  <si>
+    <t>0378-3820</t>
+  </si>
+  <si>
+    <t>Fuel Processing Technology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03783820</t>
+  </si>
+  <si>
+    <t>0171-2985</t>
+  </si>
+  <si>
+    <t>Immunobiology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01712985</t>
+  </si>
+  <si>
+    <t>0163-4453</t>
+  </si>
+  <si>
+    <t>Journal of Infection</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01634453</t>
+  </si>
+  <si>
+    <t>2213-333X</t>
+  </si>
+  <si>
+    <t>Journal of Vascular Surgery: Venous and Lymphatic Disorders</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/2213333X</t>
+  </si>
+  <si>
+    <t>1570-8268</t>
+  </si>
+  <si>
+    <t>Journal of Web Semantics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15708268</t>
+  </si>
+  <si>
+    <t>0168-0102</t>
+  </si>
+  <si>
+    <t>Neuroscience Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/01680102</t>
+  </si>
+  <si>
+    <t>1572-1000</t>
+  </si>
+  <si>
+    <t>Photodiagnosis and Photodynamic Therapy</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15721000</t>
+  </si>
+  <si>
+    <t>2950-2535</t>
+  </si>
+  <si>
+    <t>AJO International</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502535</t>
+  </si>
+  <si>
+    <t>2950-3949</t>
+  </si>
+  <si>
+    <t>Archives of Legal Medicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503949</t>
+  </si>
+  <si>
+    <t>2162-0989</t>
+  </si>
+  <si>
+    <t>Asia-Pacific Journal of Ophthalmology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/21620989</t>
+  </si>
+  <si>
+    <t>0385-8146</t>
+  </si>
+  <si>
+    <t>Auris Nasus Larynx</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/03858146</t>
+  </si>
+  <si>
+    <t>2950-3280</t>
+  </si>
+  <si>
+    <t>Blood Neoplasia</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503280</t>
+  </si>
+  <si>
+    <t>2950-3272</t>
+  </si>
+  <si>
+    <t>Blood Vessels, Thrombosis &amp; Hemostasis</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503272</t>
+  </si>
+  <si>
+    <t>2950-2756</t>
+  </si>
+  <si>
+    <t>Cardiovascular Revascularization Medicine: Interesting Cases</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502756</t>
+  </si>
+  <si>
+    <t>2950-4090</t>
+  </si>
+  <si>
+    <t>Climate Smart Agriculture</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504090</t>
+  </si>
+  <si>
+    <t>2950-3116</t>
+  </si>
+  <si>
+    <t>Comparative Immunology Reports</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503116</t>
+  </si>
+  <si>
+    <t>2950-3639</t>
+  </si>
+  <si>
+    <t>Computational and Structural Biotechnology Reports</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503639</t>
+  </si>
+  <si>
+    <t>2950-4635</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computational Materials Today </t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504635</t>
+  </si>
+  <si>
+    <t>1944-3986</t>
+  </si>
+  <si>
+    <t>Desalination and Water Treatment</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/19443986</t>
+  </si>
+  <si>
+    <t>2950-4759</t>
+  </si>
+  <si>
+    <t>Earth History and Biodiversity</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504759</t>
+  </si>
+  <si>
+    <t>2950-5097</t>
+  </si>
+  <si>
+    <t>Ecological Frontiers</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29505097</t>
+  </si>
+  <si>
+    <t>2950-4899</t>
+  </si>
+  <si>
+    <t>EngMedicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504899</t>
+  </si>
+  <si>
+    <t>2950-2985</t>
+  </si>
+  <si>
+    <t>European Transport Studies</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502985</t>
+  </si>
+  <si>
+    <t>2950-4740</t>
+  </si>
+  <si>
+    <t>Global and Earth Surface Processes Change</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504740</t>
+  </si>
+  <si>
+    <t>2950-4678</t>
+  </si>
+  <si>
+    <t>IHJ Cardiovascular Reports</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504678</t>
+  </si>
+  <si>
+    <t>2950-3620</t>
+  </si>
+  <si>
+    <t>Indoor Environments</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503620</t>
+  </si>
+  <si>
+    <t>2092-6782</t>
+  </si>
+  <si>
+    <t>International Journal of Naval Architecture and Ocean Engineering</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/20926782</t>
+  </si>
+  <si>
+    <t>2331-5180</t>
+  </si>
+  <si>
+    <t>International Journal of Particle Therapy</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/23315180</t>
+  </si>
+  <si>
+    <t>2950-2845</t>
+  </si>
+  <si>
+    <t>Journal of Alloys and Compounds Communications</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502845</t>
+  </si>
+  <si>
+    <t>1097-6647</t>
+  </si>
+  <si>
+    <t>Journal of Cardiovascular Magnetic Resonance</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10976647</t>
+  </si>
+  <si>
+    <t>2950-4333</t>
+  </si>
+  <si>
+    <t>Journal of Epidemiology and Population Health</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504333</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1091255X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10713581</t>
+  </si>
+  <si>
+    <t>2950-3701</t>
+  </si>
+  <si>
+    <t>Journal of Sustainable Finance and Accounting</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503701</t>
+  </si>
+  <si>
+    <t>2768-2765</t>
+  </si>
+  <si>
+    <t>Journal of the Pediatric Orthopaedic Society of North America</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/27682765</t>
+  </si>
+  <si>
+    <t>1051-0443</t>
+  </si>
+  <si>
+    <t>Journal of Vascular and Interventional Radiology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10510443</t>
+  </si>
+  <si>
+    <t>2950-2578</t>
+  </si>
+  <si>
+    <t>Materials Today Quantum</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502578</t>
+  </si>
+  <si>
+    <t>2950-3450</t>
+  </si>
+  <si>
+    <t>Measurement: Energy</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503450</t>
+  </si>
+  <si>
+    <t>2950-3299</t>
+  </si>
+  <si>
+    <t>Molecular Therapy: Oncology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503299</t>
+  </si>
+  <si>
+    <t>1016-8478</t>
+  </si>
+  <si>
+    <t>Molecules and Cells</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10168478</t>
+  </si>
+  <si>
+    <t>2950-1601</t>
+  </si>
+  <si>
+    <t>Nexus</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29501601</t>
+  </si>
+  <si>
+    <t>2590-3322</t>
+  </si>
+  <si>
+    <t>One Earth</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25903322</t>
+  </si>
+  <si>
+    <t>2950-4252</t>
+  </si>
+  <si>
+    <t>Progress in Engineering Science</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504252</t>
+  </si>
+  <si>
+    <t>2950-3965</t>
+  </si>
+  <si>
+    <t>Slavic Literatures</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503965</t>
+  </si>
+  <si>
+    <t>2950-2470</t>
+  </si>
+  <si>
+    <t>Surgical Oncology Insight</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502470</t>
+  </si>
+  <si>
+    <t>2950-3574</t>
+  </si>
+  <si>
+    <t>Sustainable Chemistry One World</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503574</t>
+  </si>
+  <si>
+    <t>2950-3868</t>
+  </si>
+  <si>
+    <t>The American Journal of Geriatric Psychiatry: Open Science, Education, and Practice</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503868</t>
+  </si>
+  <si>
+    <t>2950-3930</t>
+  </si>
+  <si>
+    <t>The French Journal of Urology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503930</t>
+  </si>
+  <si>
+    <t>1013-9052</t>
+  </si>
+  <si>
+    <t>The Saudi Dental Journal</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10139052</t>
+  </si>
+  <si>
+    <t>2950-3957</t>
+  </si>
+  <si>
+    <t>Total Environment Advances</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503957</t>
+  </si>
+  <si>
+    <t>Frontiers</t>
+  </si>
+  <si>
+    <t>2296-6846</t>
+  </si>
+  <si>
+    <t>Frontiers for Young Minds</t>
+  </si>
+  <si>
+    <t>https://kids.frontiersin.org</t>
+  </si>
+  <si>
+    <t>2297-2668</t>
+  </si>
+  <si>
+    <t>Frontiers in Digital Humanities</t>
+  </si>
+  <si>
+    <t>http://journal.frontiersin.org/journal/digital-humanities</t>
+  </si>
+  <si>
+    <t>2813-7302</t>
+  </si>
+  <si>
+    <t>Frontiers in Disaster and Emergency Medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/disaster-and-emergency-medicine</t>
+  </si>
+  <si>
+    <t>2813-3935</t>
+  </si>
+  <si>
+    <t>Frontiers in Hematology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/hematology</t>
+  </si>
+  <si>
+    <t>2813-7337</t>
+  </si>
+  <si>
+    <t>Frontiers in High Performance Computing</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/high-performance-computing</t>
+  </si>
+  <si>
+    <t>2813-3862</t>
+  </si>
+  <si>
+    <t>Frontiers in Lab on a Chip Technologies</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/lab-on-a-chip-technologies</t>
+  </si>
+  <si>
+    <t>2813-6934</t>
+  </si>
+  <si>
+    <t>Frontiers in Lupus</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/lupus</t>
+  </si>
+  <si>
+    <t>2813-7396</t>
+  </si>
+  <si>
+    <t>Frontiers in Malaria</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/malaria</t>
+  </si>
+  <si>
+    <t>2813-2459</t>
+  </si>
+  <si>
+    <t>Frontiers in Metals and Alloys</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/metals-and-alloys</t>
+  </si>
+  <si>
+    <t>2813-2602</t>
+  </si>
+  <si>
+    <t>Frontiers in Natural Products</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/natural-products/</t>
+  </si>
+  <si>
+    <t>2813-4311</t>
+  </si>
+  <si>
+    <t>Frontiers in Smart Grids</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/smart-grids</t>
+  </si>
+  <si>
+    <t>2813-2815</t>
+  </si>
+  <si>
+    <t>Frontiers in Sustainable Tourism</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/sustainable-tourism</t>
+  </si>
+  <si>
+    <t>2813-2440</t>
+  </si>
+  <si>
+    <t>Frontiers in Transplantation</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/transplantation</t>
+  </si>
+  <si>
+    <t>2813-8082</t>
+  </si>
+  <si>
+    <t>Frontiers in Acoustics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/acoustics</t>
+  </si>
+  <si>
+    <t>2813-8589</t>
+  </si>
+  <si>
+    <t>Frontiers in Adolescent Medicine</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/adolescent-medicine</t>
+  </si>
+  <si>
+    <t>Frontiers in Advanced Optical Technologies</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/advanced-optical-technologies</t>
+  </si>
+  <si>
+    <t>2813-6055</t>
+  </si>
+  <si>
+    <t>Frontiers in Audiology and Otology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/audiology-and-otology</t>
+  </si>
+  <si>
+    <t>2813-6144</t>
+  </si>
+  <si>
+    <t>Frontiers in Bacteriology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/bacteriology</t>
+  </si>
+  <si>
+    <t>2813-4974</t>
+  </si>
+  <si>
+    <t>Frontiers in Batteries and Electrochemistry</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/batteries-and-electrochemistry</t>
+  </si>
+  <si>
+    <t>2813-7183</t>
+  </si>
+  <si>
+    <t>Frontiers in Biophysics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/biophysics</t>
+  </si>
+  <si>
+    <t>2813-835X</t>
+  </si>
+  <si>
+    <t>Frontiers in Cancer Control and Society</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/cancer-control-and-society</t>
+  </si>
+  <si>
+    <t>2813-611X</t>
+  </si>
+  <si>
+    <t>Frontiers in Ceramics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/ceramics</t>
+  </si>
+  <si>
+    <t>2813-6861</t>
+  </si>
+  <si>
+    <t>Frontiers in Coatings, Dyes and Interface Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/coatings-dyes-and-interface-engineering</t>
+  </si>
+  <si>
+    <t>2813-6187</t>
+  </si>
+  <si>
+    <t>Frontiers in Complex Systems</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/complex-systems</t>
+  </si>
+  <si>
+    <t>2813-8031</t>
+  </si>
+  <si>
+    <t>Frontiers in Detector Science and Technology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/detector-science-and-technology</t>
+  </si>
+  <si>
+    <t>2813-7779</t>
+  </si>
+  <si>
+    <t>Frontiers in Developmental Psychology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/developmental-psychology</t>
+  </si>
+  <si>
+    <t>2813-6799</t>
+  </si>
+  <si>
+    <t>Frontiers in Energy Efficiency</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/energy-efficiency</t>
+  </si>
+  <si>
+    <t>2813-706X</t>
+  </si>
+  <si>
+    <t>Frontiers in Epigenetics and Epigenomics</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/epigenetics-and-epigenomics</t>
+  </si>
+  <si>
+    <t>2813-9097</t>
+  </si>
+  <si>
+    <t>Frontiers in Fish Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/fish-science</t>
+  </si>
+  <si>
+    <t>2813-7124</t>
+  </si>
+  <si>
+    <t>Frontiers in Freshwater Science</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/freshwater-science</t>
+  </si>
+  <si>
+    <t>2813-6047</t>
+  </si>
+  <si>
+    <t>Frontiers in Industrial Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/industrial-engineering</t>
+  </si>
+  <si>
+    <t>2813-7809</t>
+  </si>
+  <si>
+    <t>Frontiers in Industrial Microbiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/industrial-microbiology</t>
+  </si>
+  <si>
+    <t>2813-687X</t>
+  </si>
+  <si>
+    <t>Frontiers in Medical Engineering</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/medical-engineering</t>
+  </si>
+  <si>
+    <t>2813-883X</t>
+  </si>
+  <si>
+    <t>Frontiers in Musculoskeletal Disorders</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/musculoskeletal-disorders</t>
+  </si>
+  <si>
+    <t>2813-8287</t>
+  </si>
+  <si>
+    <t>Frontiers in Ocean Sustainability</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/ocean-sustainability</t>
+  </si>
+  <si>
+    <t>2813-771X</t>
+  </si>
+  <si>
+    <t>Frontiers in Organizational Psychology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/organizational-psychology</t>
+  </si>
+  <si>
+    <t>2813-8228</t>
+  </si>
+  <si>
+    <t>Frontiers in Photobiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/photobiology</t>
+  </si>
+  <si>
+    <t>2813-821X</t>
+  </si>
+  <si>
+    <t>Frontiers in Plant Physiology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/plant-physiology</t>
+  </si>
+  <si>
+    <t>2813-849X</t>
+  </si>
+  <si>
+    <t>Frontiers in Protistology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/protistology</t>
+  </si>
+  <si>
+    <t>2813-7116</t>
+  </si>
+  <si>
+    <t>Frontiers in RNA Research</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/rna-research</t>
+  </si>
+  <si>
+    <t>2813-7876</t>
+  </si>
+  <si>
+    <t>Frontiers in Social Psychology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/social-psychology</t>
+  </si>
+  <si>
+    <t>2813-818X</t>
+  </si>
+  <si>
+    <t>Frontiers in Synthetic Biology</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/synthetic-biology</t>
+  </si>
+  <si>
+    <t>2813-7868</t>
+  </si>
+  <si>
+    <t>Frontiers in Tuberculosis</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/journals/tuberculosis</t>
+  </si>
+  <si>
+    <t> 1661-8564</t>
+  </si>
+  <si>
+    <t>International Journal of Public Health</t>
+  </si>
+  <si>
+    <t>https://www.ssph-journal.org/journals/international-journal-of-public-health</t>
+  </si>
+  <si>
+    <t>2813-2092</t>
+  </si>
+  <si>
+    <t>Journal of Abdominal Wall Surgery</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/journal-of-abdominal-wall-surgery</t>
+  </si>
+  <si>
+    <t>2574-4593</t>
+  </si>
+  <si>
+    <t>Journal of Cutaneous Immunology and Allergy</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/journal-of-cutaneous-immunology-and-allergy</t>
+  </si>
+  <si>
+    <t>1482-1826</t>
+  </si>
+  <si>
+    <t>Journal of Pharmacy &amp; Pharmaceutical Sciences</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/journal-of-pharmacy-pharmaceutical-sciences</t>
+  </si>
+  <si>
+    <t>1532-2807</t>
+  </si>
+  <si>
+    <t>Pathology &amp; Oncology Research</t>
+  </si>
+  <si>
+    <t>https://www.por-journal.com/journals/pathology-and-oncology-research</t>
+  </si>
+  <si>
+    <t>2107-6952</t>
+  </si>
+  <si>
+    <t>Public Health Reviews</t>
+  </si>
+  <si>
+    <t>https://www.ssph-journal.org/journals/public-health-reviews</t>
+  </si>
+  <si>
+    <t>2253-6574</t>
+  </si>
+  <si>
+    <t>Spanish Journal of Soil Science</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/spanish-journal-of-soil-science</t>
+  </si>
+  <si>
+    <t>1432-2277</t>
+  </si>
+  <si>
+    <t>Transplant International</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/transplant-international</t>
+  </si>
+  <si>
+    <t>1734-154X</t>
+  </si>
+  <si>
+    <t>Acta Biochimica Polonica</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/acta-biochimica-polonica</t>
+  </si>
+  <si>
+    <t>1336-2305</t>
+  </si>
+  <si>
+    <t>Acta Virologica</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/acta-virologica</t>
+  </si>
+  <si>
+    <t>2674-0001</t>
+  </si>
+  <si>
+    <t>Advances in Drug and Alcohol Research</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/advances-in-drug-and-alcohol-research</t>
+  </si>
+  <si>
+    <t>2474-0896</t>
+  </si>
+  <si>
+    <t>British Journal of Biomedical Science</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/british-journal-of-biomedical-science</t>
+  </si>
+  <si>
+    <t>2813-2106</t>
+  </si>
+  <si>
+    <t>Dystonia</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/dystonia</t>
+  </si>
+  <si>
+    <t>2634-730X</t>
+  </si>
+  <si>
+    <t>Earth Science Systems and Society</t>
+  </si>
+  <si>
+    <t>https://www.escubed.org/journals/earth-science-systems-and-society</t>
+  </si>
+  <si>
+    <t>2663-5771 </t>
+  </si>
+  <si>
+    <t>European Journal of Cultural Management and Policy</t>
+  </si>
+  <si>
+    <t>https://www.frontierspartnerships.org/journals/european-journal-of-cultural-management-and-policy</t>
+  </si>
+  <si>
+    <t>Experimental Biology and Medicine</t>
+  </si>
+  <si>
+    <t>https://www.ebm-journal.org/journals/experimental-biology-and-medicine</t>
+  </si>
+  <si>
+    <t>Borttagen - diamond</t>
+  </si>
+  <si>
+    <t>2772-5650</t>
+  </si>
+  <si>
+    <t>Italian Review of International and Comparative Law, The</t>
+  </si>
+  <si>
+    <t>https://brill.com/iric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5848,6 +7151,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -5857,7 +7166,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -5902,12 +7211,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -5916,9 +7257,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{AA356DE8-747A-49A3-A2C7-D1548214AA4A}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
   <dxfs count="33">
@@ -6266,6 +7616,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H152" totalsRowShown="0">
+  <autoFilter ref="A1:H152" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{217DB2C4-435C-4D3F-A4D7-07DB2D15D02C}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{B103E2D8-E5E0-4606-BB9C-894B97CD3EF7}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{7BB74B60-8234-4FD6-90BE-2DB0B0FA4A7D}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{04B0CEBC-DDFB-4413-A9CB-71570C04BDB2}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{841110E8-9C0E-42A3-872B-6105F03D15E4}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{A9809B96-2CF1-4F4A-A823-CAF5330F5A53}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{8DDB7E09-2C3A-4631-B679-6AD02FBD7F14}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{7971EB3B-36A4-4D0C-B057-BDD26CE6FF31}" name="ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
+  <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{F3BFC8E9-AADA-4F30-BD81-8C96CD4CDCC3}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{D7986614-4307-4F30-AC9C-D1E6FC03A1AF}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{D5BC7A15-7239-4B83-AB4C-BAFFAF22F6A7}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{9F9ED21F-2B53-4572-A098-0A838653073E}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{1194B981-0A93-41A5-84C5-EDA80A458AF3}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{513C8D2D-ED72-45FA-88A0-77F354F726B7}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{3C8265AF-A0BB-4DC1-AA5F-F4B4A4B6F516}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{EA46CC46-CF94-40AF-AB3A-4F717EEC893F}" name="Kommentar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
   <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
@@ -6578,18 +7962,3673 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
+  <dimension ref="A1:H152"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" t="s">
+        <v>102</v>
+      </c>
+      <c r="D149" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" t="s">
+        <v>104</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" t="s">
+        <v>74</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
     <col min="4" max="4" width="44.85546875" customWidth="1"/>
     <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -9778,10 +14817,13 @@
     <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2260C207-CA3E-4351-9A09-CCBD16B5DB62}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F935DCE8-A643-4F33-8B20-123D43DEE7AB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5209" uniqueCount="2362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="2367">
   <si>
     <t>Imprint</t>
   </si>
@@ -7124,6 +7124,21 @@
   </si>
   <si>
     <t>https://brill.com/iric</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/one-earth</t>
+  </si>
+  <si>
+    <t>Borttagen -med i Elsevier</t>
+  </si>
+  <si>
+    <t>https://www.cell.com/chem-catalysis/home</t>
+  </si>
+  <si>
+    <t>Chem Catalysis</t>
+  </si>
+  <si>
+    <t>2667-1093</t>
   </si>
 </sst>
 </file>
@@ -7271,7 +7286,47 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AA356DE8-747A-49A3-A2C7-D1548214AA4A}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="37">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7616,8 +7671,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H152" totalsRowShown="0">
-  <autoFilter ref="A1:H152" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
+  <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{217DB2C4-435C-4D3F-A4D7-07DB2D15D02C}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{B103E2D8-E5E0-4606-BB9C-894B97CD3EF7}" name="ISSN Electronic"/>
@@ -7963,7 +8018,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
-  <dimension ref="A1:H152"/>
+  <dimension ref="A1:H154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -11603,7 +11658,65 @@
         <v>2358</v>
       </c>
     </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>2363</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="B153">
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B154">
+    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="66" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F935DCE8-A643-4F33-8B20-123D43DEE7AB}"/>
+  <xr:revisionPtr revIDLastSave="71" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F82AB43-6776-4B3D-B8C9-7941CC3F2C46}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId1"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId2"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId3"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId1"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId2"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId3"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5223" uniqueCount="2367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="2407">
   <si>
     <t>Imprint</t>
   </si>
@@ -7139,6 +7140,126 @@
   </si>
   <si>
     <t>2667-1093</t>
+  </si>
+  <si>
+    <t>Ändring</t>
+  </si>
+  <si>
+    <t>BMJ</t>
+  </si>
+  <si>
+    <t>2398-8703</t>
+  </si>
+  <si>
+    <t>BMJ Open Science</t>
+  </si>
+  <si>
+    <t>https://openscience.bmj.com/</t>
+  </si>
+  <si>
+    <t>1468-960X</t>
+  </si>
+  <si>
+    <t>Evidence-Based Mental Health</t>
+  </si>
+  <si>
+    <t>http://ebmh.bmj.com</t>
+  </si>
+  <si>
+    <t>2517-729X</t>
+  </si>
+  <si>
+    <t>General Psychiatry</t>
+  </si>
+  <si>
+    <t>https://gpsych.bmj.com/</t>
+  </si>
+  <si>
+    <t>2399-5351</t>
+  </si>
+  <si>
+    <t>Integrated Healthcare Journal</t>
+  </si>
+  <si>
+    <t>https://ihj.bmj.com/</t>
+  </si>
+  <si>
+    <t>1469-0756</t>
+  </si>
+  <si>
+    <t>Postgraduate Medical Journal</t>
+  </si>
+  <si>
+    <t>http://pmj.bmj.com</t>
+  </si>
+  <si>
+    <t>2516-5410</t>
+  </si>
+  <si>
+    <t>World Journal of Pediatric Surgery</t>
+  </si>
+  <si>
+    <t>https://wjps.bmj.com/</t>
+  </si>
+  <si>
+    <t>2044-5423</t>
+  </si>
+  <si>
+    <t>BMJ Quality &amp; Safety</t>
+  </si>
+  <si>
+    <t>http://qshc.bmj.com</t>
+  </si>
+  <si>
+    <t>Korr ISSN</t>
+  </si>
+  <si>
+    <t>2755-9734</t>
+  </si>
+  <si>
+    <t>BMJ Mental Health</t>
+  </si>
+  <si>
+    <t>https://mentalhealth.bmj.com</t>
+  </si>
+  <si>
+    <t>2753-4294</t>
+  </si>
+  <si>
+    <t>BMJ Public Health</t>
+  </si>
+  <si>
+    <t>https://bmjpublichealth.bmj.com/</t>
+  </si>
+  <si>
+    <t>1743-0593</t>
+  </si>
+  <si>
+    <t>ADC: Education &amp; Practice</t>
+  </si>
+  <si>
+    <t>https://ep.bmj.com/</t>
+  </si>
+  <si>
+    <t>Ändring av licenstyp</t>
+  </si>
+  <si>
+    <t>1468-2052</t>
+  </si>
+  <si>
+    <t>ADC: Fetal &amp; Neonatal</t>
+  </si>
+  <si>
+    <t>https://fn.bmj.com/</t>
+  </si>
+  <si>
+    <t>1475-5785</t>
+  </si>
+  <si>
+    <t>Injury Prevention</t>
+  </si>
+  <si>
+    <t>http://ip.bmj.com</t>
   </si>
 </sst>
 </file>
@@ -7671,6 +7792,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}" name="Table4" displayName="Table4" ref="A1:H13" totalsRowShown="0">
+  <autoFilter ref="A1:H13" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{0B1958AB-DC90-412E-B4F2-0CAE6B82E6E2}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{03B752F3-294F-460E-8B42-8F1EA07E6B10}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{EF1EFCCB-151F-4E14-BF30-AB8EC19CDAEA}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{B87CAF0F-DD26-4169-B678-732FD2C8586B}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{B87EFA9A-ECC7-41D0-8FAA-ED2F11BE53DF}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{BE06F643-8DA0-4225-B7C4-0EF7C74DBF26}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{96A5B918-7421-4CC2-A8DC-C8D599485121}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{EEA2E696-9F4B-4427-8A6E-BD67B5445C34}" name="Ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
   <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
@@ -7687,7 +7825,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
   <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
   <tableColumns count="8">
@@ -7704,7 +7842,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
   <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
@@ -8017,10 +8155,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2369</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2370</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2371</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2372</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2373</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2374</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2377</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2378</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2379</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2380</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2381</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2382</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2383</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2384</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2385</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2386</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>741</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2387</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2389</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2391</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2392</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2393</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2394</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2395</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2396</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2397</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2398</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2399</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>741</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2401</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2403</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>741</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2404</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2406</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2400</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11708,11 +12176,11 @@
   <conditionalFormatting sqref="B153">
     <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B154">
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B154">
-    <cfRule type="duplicateValues" dxfId="34" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
     <cfRule type="duplicateValues" dxfId="33" priority="1"/>
@@ -11724,7 +12192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -14936,7 +15404,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F82AB43-6776-4B3D-B8C9-7941CC3F2C46}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{624EC215-6479-4C94-B04B-20DBD47D3253}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId1"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId2"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId3"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId4"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId1"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId2"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId3"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId4"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5315" uniqueCount="2407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6129" uniqueCount="2708">
   <si>
     <t>Imprint</t>
   </si>
@@ -7260,6 +7261,909 @@
   </si>
   <si>
     <t>http://ip.bmj.com</t>
+  </si>
+  <si>
+    <t>SpringerOpen</t>
+  </si>
+  <si>
+    <t>2523-398X</t>
+  </si>
+  <si>
+    <t>AI Perspectives</t>
+  </si>
+  <si>
+    <t>https://springer.com/42467</t>
+  </si>
+  <si>
+    <t>2731-8389</t>
+  </si>
+  <si>
+    <t>Anesthesiology and Perioperative Science</t>
+  </si>
+  <si>
+    <t>https://springer.com/44254</t>
+  </si>
+  <si>
+    <t>BioMed Central</t>
+  </si>
+  <si>
+    <t>2057-0082</t>
+  </si>
+  <si>
+    <t>Archives of Physiotherapy</t>
+  </si>
+  <si>
+    <t>https://springer.com/40945</t>
+  </si>
+  <si>
+    <t>2054-7064</t>
+  </si>
+  <si>
+    <t>Asthma Research and Practice</t>
+  </si>
+  <si>
+    <t>https://springer.com/40733</t>
+  </si>
+  <si>
+    <t>2055-7124</t>
+  </si>
+  <si>
+    <t>Biomaterials Research</t>
+  </si>
+  <si>
+    <t>https://springer.com/40824</t>
+  </si>
+  <si>
+    <t>2366-6196</t>
+  </si>
+  <si>
+    <t>Cancer Convergence</t>
+  </si>
+  <si>
+    <t>https://springer.com/41236</t>
+  </si>
+  <si>
+    <t>2199-1197</t>
+  </si>
+  <si>
+    <t>Clinical Phytoscience</t>
+  </si>
+  <si>
+    <t>https://springer.com/40816</t>
+  </si>
+  <si>
+    <t>2731-9423</t>
+  </si>
+  <si>
+    <t>Digital Economy and Sustainable Development</t>
+  </si>
+  <si>
+    <t>https://springer.com/44265</t>
+  </si>
+  <si>
+    <t>2054-7099</t>
+  </si>
+  <si>
+    <t>Fertility Research and Practice</t>
+  </si>
+  <si>
+    <t>https://springer.com/40738</t>
+  </si>
+  <si>
+    <t>2198-2791</t>
+  </si>
+  <si>
+    <t>International Journal of Mechanical and Materials Engineering</t>
+  </si>
+  <si>
+    <t>https://springer.com/40712</t>
+  </si>
+  <si>
+    <t>Springer Nature</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/ismecomms</t>
+  </si>
+  <si>
+    <t>1532-429X</t>
+  </si>
+  <si>
+    <t>https://springer.com/12968</t>
+  </si>
+  <si>
+    <t>https://springer.com/40634</t>
+  </si>
+  <si>
+    <t>1757-1146</t>
+  </si>
+  <si>
+    <t>Journal of Foot and Ankle Research</t>
+  </si>
+  <si>
+    <t>https://springer.com/13047</t>
+  </si>
+  <si>
+    <t>1916-0216</t>
+  </si>
+  <si>
+    <t>Journal of Otolaryngology - Head &amp; Neck Surgery</t>
+  </si>
+  <si>
+    <t>https://springer.com/40463</t>
+  </si>
+  <si>
+    <t>https://springer.com/40545</t>
+  </si>
+  <si>
+    <t>2509-8012</t>
+  </si>
+  <si>
+    <t>Materials Theory</t>
+  </si>
+  <si>
+    <t>https://springer.com/41313</t>
+  </si>
+  <si>
+    <t>2731-8710</t>
+  </si>
+  <si>
+    <t>Med-X</t>
+  </si>
+  <si>
+    <t>https://springer.com/44258</t>
+  </si>
+  <si>
+    <t>2731-3263</t>
+  </si>
+  <si>
+    <t>npj Climate Action</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/44168</t>
+  </si>
+  <si>
+    <t>2041-7136</t>
+  </si>
+  <si>
+    <t>Pastoralism</t>
+  </si>
+  <si>
+    <t>https://springer.com/13570</t>
+  </si>
+  <si>
+    <t>2523-3971</t>
+  </si>
+  <si>
+    <t>SN Applied Sciences</t>
+  </si>
+  <si>
+    <t>https://www.springer.com/journal/42452</t>
+  </si>
+  <si>
+    <t>2198-994X</t>
+  </si>
+  <si>
+    <t>Sustainable Energy Research</t>
+  </si>
+  <si>
+    <t>https://springer.com/40807</t>
+  </si>
+  <si>
+    <t>2054-2690</t>
+  </si>
+  <si>
+    <t>Women's Midlife Health</t>
+  </si>
+  <si>
+    <t>https://springer.com/40695</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40520</t>
+  </si>
+  <si>
+    <t>2948-2143</t>
+  </si>
+  <si>
+    <t>AI Perspectives &amp; Advances</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/42467</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/726</t>
+  </si>
+  <si>
+    <t>1435-9456</t>
+  </si>
+  <si>
+    <t>Animal Cognition</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10071</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/253</t>
+  </si>
+  <si>
+    <t>2524-7948</t>
+  </si>
+  <si>
+    <t>Arthroplasty</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/42836</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10462</t>
+  </si>
+  <si>
+    <t>2287-1160</t>
+  </si>
+  <si>
+    <t>Asian Journal of Atmospheric Environment</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44273</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/41104</t>
+  </si>
+  <si>
+    <t>2524-7867</t>
+  </si>
+  <si>
+    <t>Biochar</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/42773</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10533</t>
+  </si>
+  <si>
+    <t>3004-8648</t>
+  </si>
+  <si>
+    <t>Bioscience Nanotechnology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44331</t>
+  </si>
+  <si>
+    <t>2948-2348</t>
+  </si>
+  <si>
+    <t>Biotechnology for Sustainable Materials</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44316</t>
+  </si>
+  <si>
+    <t>2948-2356</t>
+  </si>
+  <si>
+    <t>Biotechnology for the Environment</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44314</t>
+  </si>
+  <si>
+    <t>2288-0011</t>
+  </si>
+  <si>
+    <t>Blood Research</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44313</t>
+  </si>
+  <si>
+    <t>2948-2364</t>
+  </si>
+  <si>
+    <t>Blue Biotechnology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44315</t>
+  </si>
+  <si>
+    <t>3004-8710</t>
+  </si>
+  <si>
+    <t>BMC Environmental Science</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44329</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/262</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10565</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/18</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10571</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10238</t>
+  </si>
+  <si>
+    <t>2948-1597</t>
+  </si>
+  <si>
+    <t>Computational Science and Engineering</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44207</t>
+  </si>
+  <si>
+    <t>Discover</t>
+  </si>
+  <si>
+    <t>2731-9598</t>
+  </si>
+  <si>
+    <t>Discover Agriculture</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44279</t>
+  </si>
+  <si>
+    <t>3004-894X</t>
+  </si>
+  <si>
+    <t>Discover Animals</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44338</t>
+  </si>
+  <si>
+    <t>3004-9261</t>
+  </si>
+  <si>
+    <t>Discover Applied Sciences</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/42452</t>
+  </si>
+  <si>
+    <t>2948-1554</t>
+  </si>
+  <si>
+    <t>Discover Atmosphere</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44292</t>
+  </si>
+  <si>
+    <t>3004-9768</t>
+  </si>
+  <si>
+    <t>Discover Bacteria</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44351</t>
+  </si>
+  <si>
+    <t>3004-8907</t>
+  </si>
+  <si>
+    <t>Discover Biotechnology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44340</t>
+  </si>
+  <si>
+    <t>3004-9520</t>
+  </si>
+  <si>
+    <t>Discover Catalysis</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44344</t>
+  </si>
+  <si>
+    <t>2948-2992</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10791</t>
+  </si>
+  <si>
+    <t>3004-9784</t>
+  </si>
+  <si>
+    <t>Discover Conservation</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44353</t>
+  </si>
+  <si>
+    <t>3004-9776</t>
+  </si>
+  <si>
+    <t>Discover Imaging</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44352</t>
+  </si>
+  <si>
+    <t>2948-2976</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/11084</t>
+  </si>
+  <si>
+    <t>3004-8885</t>
+  </si>
+  <si>
+    <t>Discover Medicine</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44337</t>
+  </si>
+  <si>
+    <t>3004-9369</t>
+  </si>
+  <si>
+    <t>Discover Minerals</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44346</t>
+  </si>
+  <si>
+    <t>3004-9350</t>
+  </si>
+  <si>
+    <t>Discover Molecules</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44345</t>
+  </si>
+  <si>
+    <t>3004-9792</t>
+  </si>
+  <si>
+    <t>Discover Networks</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44354</t>
+  </si>
+  <si>
+    <t>3004-9377</t>
+  </si>
+  <si>
+    <t>Discover Polymers</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44347</t>
+  </si>
+  <si>
+    <t>2948-295X</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/11038</t>
+  </si>
+  <si>
+    <t>3004-8893</t>
+  </si>
+  <si>
+    <t>Discover Toxicology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44339</t>
+  </si>
+  <si>
+    <t>2090-2441</t>
+  </si>
+  <si>
+    <t>Egyptian Journal of Medical Human Genetics</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43042</t>
+  </si>
+  <si>
+    <t>2090-4762</t>
+  </si>
+  <si>
+    <t>Egyptian Journal of Radiology and Nuclear Medicine</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43055</t>
+  </si>
+  <si>
+    <t>1757-4684</t>
+  </si>
+  <si>
+    <t>EMBO Molecular Medicine</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44321</t>
+  </si>
+  <si>
+    <t>EMBO Reports</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44319</t>
+  </si>
+  <si>
+    <t>2314-7210</t>
+  </si>
+  <si>
+    <t>Future Business Journal</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43093</t>
+  </si>
+  <si>
+    <t>2314-7253</t>
+  </si>
+  <si>
+    <t>Future Journal of Pharmaceutical Sciences</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43094</t>
+  </si>
+  <si>
+    <t>2948-1937</t>
+  </si>
+  <si>
+    <t>Health Nanotechnology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44301</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/384</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/432</t>
+  </si>
+  <si>
+    <t>2193-2409</t>
+  </si>
+  <si>
+    <t>Journal of Economic Structures</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40008</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10846</t>
+  </si>
+  <si>
+    <t>2948-2151</t>
+  </si>
+  <si>
+    <t>Journal of Materials Science: Materials in Energy</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44308</t>
+  </si>
+  <si>
+    <t>3004-8958</t>
+  </si>
+  <si>
+    <t>Journal of Materials Science: Materials in Engineering</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40712</t>
+  </si>
+  <si>
+    <t>3004-8966</t>
+  </si>
+  <si>
+    <t>Journal of Materials Science: Materials Theory</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/41313</t>
+  </si>
+  <si>
+    <t>3004-8613</t>
+  </si>
+  <si>
+    <t>Journal of Medical Imaging and Interventional Radiology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44326</t>
+  </si>
+  <si>
+    <t>2589-0409</t>
+  </si>
+  <si>
+    <t>Journal of the Egyptian National Cancer Institute</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43046</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10980</t>
+  </si>
+  <si>
+    <t>The Society of Micro and Nano Systems, co-published with Springer</t>
+  </si>
+  <si>
+    <t>2213-9621</t>
+  </si>
+  <si>
+    <t>Micro and Nano Systems Letters</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40486</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/248</t>
+  </si>
+  <si>
+    <t>2662-8651</t>
+  </si>
+  <si>
+    <t>Molecular Biomedicine</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43556</t>
+  </si>
+  <si>
+    <t>1744-4292</t>
+  </si>
+  <si>
+    <t>Molecular Systems Biology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44320</t>
+  </si>
+  <si>
+    <t>Korea Nano Technology Research Society, co-published with Springer</t>
+  </si>
+  <si>
+    <t>2196-5404</t>
+  </si>
+  <si>
+    <t>Nano Convergence</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40580</t>
+  </si>
+  <si>
+    <t>2150-5551</t>
+  </si>
+  <si>
+    <t>Nano-Micro Letters</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40820</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/11063</t>
+  </si>
+  <si>
+    <t>2524-3489</t>
+  </si>
+  <si>
+    <t>Neurological Research and Practice</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/42466</t>
+  </si>
+  <si>
+    <t>Nature Portfolio</t>
+  </si>
+  <si>
+    <t>3004-8621</t>
+  </si>
+  <si>
+    <t>npj Advanced Manufacturing</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44334</t>
+  </si>
+  <si>
+    <t>3004-863X</t>
+  </si>
+  <si>
+    <t>npj Biological Physics and Mechanics</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44341</t>
+  </si>
+  <si>
+    <t>2948-2836</t>
+  </si>
+  <si>
+    <t>npj Cardiovascular Health</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44325</t>
+  </si>
+  <si>
+    <t>2731-9814</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44168</t>
+  </si>
+  <si>
+    <t>3004-9806</t>
+  </si>
+  <si>
+    <t>npj Gut and Liver</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44355</t>
+  </si>
+  <si>
+    <t>2948-197X</t>
+  </si>
+  <si>
+    <t>npj Imaging</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44303</t>
+  </si>
+  <si>
+    <t>2948-1775</t>
+  </si>
+  <si>
+    <t>npj Materials Sustainability</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44296</t>
+  </si>
+  <si>
+    <t>2948-2828</t>
+  </si>
+  <si>
+    <t>npj Metabolic Health and Disease</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44324</t>
+  </si>
+  <si>
+    <t>2948-216X</t>
+  </si>
+  <si>
+    <t>npj Nanophotonics</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44310</t>
+  </si>
+  <si>
+    <t>2948-2100</t>
+  </si>
+  <si>
+    <t>npj Natural Hazards</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44304</t>
+  </si>
+  <si>
+    <t>2948-2119</t>
+  </si>
+  <si>
+    <t>npj Spintronics</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44306</t>
+  </si>
+  <si>
+    <t>3004-8664</t>
+  </si>
+  <si>
+    <t>npj Sustainable Mobility and Transport</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44333</t>
+  </si>
+  <si>
+    <t>2948-2097</t>
+  </si>
+  <si>
+    <t>npj Ultrafast Science</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44305</t>
+  </si>
+  <si>
+    <t>2948-1767</t>
+  </si>
+  <si>
+    <t>npj Viruses</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44298</t>
+  </si>
+  <si>
+    <t>2948-1716</t>
+  </si>
+  <si>
+    <t>npj Women's Health</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44294</t>
+  </si>
+  <si>
+    <t>2948-1570</t>
+  </si>
+  <si>
+    <t>NPP—Digital Psychiatry and Neuroscience</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44277</t>
+  </si>
+  <si>
+    <t>2662-1991</t>
+  </si>
+  <si>
+    <t>PhotoniX</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43074</t>
+  </si>
+  <si>
+    <t>2948-2178</t>
+  </si>
+  <si>
+    <t>Process Science</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44311</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/11948</t>
+  </si>
+  <si>
+    <t>2731-9237</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/40807</t>
+  </si>
+  <si>
+    <t>2090-911X</t>
+  </si>
+  <si>
+    <t>The Egyptian Heart Journal</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/43044</t>
+  </si>
+  <si>
+    <t>The EMBO Journal</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44318</t>
+  </si>
+  <si>
+    <t>3004-9814</t>
+  </si>
+  <si>
+    <t>Veterinary Oncology</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44356</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/10055</t>
+  </si>
+  <si>
+    <t>3004-9555</t>
+  </si>
+  <si>
+    <t>Mycobacteria</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44350</t>
+  </si>
+  <si>
+    <t>2948-281X</t>
+  </si>
+  <si>
+    <t>npj Biological Timing and Sleep</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/journal/44323</t>
+  </si>
+  <si>
+    <t>Samtliga gäller avtalet Springer Nature Fully open</t>
   </si>
 </sst>
 </file>
@@ -7792,6 +8696,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}" name="Table5" displayName="Table5" ref="A1:H116" totalsRowShown="0">
+  <autoFilter ref="A1:H116" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{27610943-2FB0-4143-B562-CF8CCF5F8DA7}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{CB378C55-60C8-43F3-A933-F82AAE83DB41}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{08EE498A-A80A-4C0A-9CB0-0C742A870D90}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{041ED090-B71C-4027-AB4E-D227915CF8EF}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{09F87E08-599E-461F-A6FC-BC2FA1A26371}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{5FCB0E02-24F0-45ED-84E2-A42707FC1AF0}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{5ADB3BC0-1DCE-45B8-9D92-A9368A52B6BC}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{81B5AD54-0684-4631-A1C5-F48574582480}" name="Ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}" name="Table4" displayName="Table4" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}"/>
   <tableColumns count="8">
@@ -7808,7 +8729,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
   <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
@@ -7825,7 +8746,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
   <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
   <tableColumns count="8">
@@ -7842,7 +8763,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
   <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
@@ -8155,10 +9076,2712 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
+  <dimension ref="A1:K116"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2408</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2409</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2411</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2412</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2413</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2415</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2416</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2417</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2418</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2419</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2420</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2421</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2422</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2423</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2424</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2425</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2426</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2427</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2429</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2430</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2431</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2432</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2433</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2434</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2436</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2437</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B12" t="s">
+        <v>681</v>
+      </c>
+      <c r="D12" t="s">
+        <v>682</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2440</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2441</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2443</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2446</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2447</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2448</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2449</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2450</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2451</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2452</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2453</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2454</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2455</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2456</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2457</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2459</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2460</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2461</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2462</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2463</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2464</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2465</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2407</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2466</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2468</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2469</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2470</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2471</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2472</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2473</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2474</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2475</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2476</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2477</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2478</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2479</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2480</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2481</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2482</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2483</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2484</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2485</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2486</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2487</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2488</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2489</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2490</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2491</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2492</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2493</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2494</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2495</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2496</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2497</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2498</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2499</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2500</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2502</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2503</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2504</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2505</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2506</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2507</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2508</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2509</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2510</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2511</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2512</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2513</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2514</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2515</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2516</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2517</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2518</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2520</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2521</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2522</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2523</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2524</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2525</v>
+      </c>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2526</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2527</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2528</v>
+      </c>
+      <c r="F50" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2529</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2530</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2531</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2532</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2533</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2534</v>
+      </c>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2535</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2537</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2538</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2539</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2540</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2542</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2543</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2544</v>
+      </c>
+      <c r="E56" t="s">
+        <v>2545</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2546</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2547</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2548</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2550</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2551</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2552</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2553</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2554</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2555</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2556</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2557</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2558</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2559</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2564</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2567</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>2519</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2568</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2569</v>
+      </c>
+      <c r="E65" t="s">
+        <v>2570</v>
+      </c>
+      <c r="F65" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2571</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2572</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2573</v>
+      </c>
+      <c r="F66" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2574</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2575</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2576</v>
+      </c>
+      <c r="F67" t="s">
+        <v>20</v>
+      </c>
+      <c r="G67" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2577</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2578</v>
+      </c>
+      <c r="E68" t="s">
+        <v>2579</v>
+      </c>
+      <c r="F68" t="s">
+        <v>20</v>
+      </c>
+      <c r="G68" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2580</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F69" t="s">
+        <v>20</v>
+      </c>
+      <c r="G69" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2582</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2583</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F70" t="s">
+        <v>20</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2585</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2586</v>
+      </c>
+      <c r="E71" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2588</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2589</v>
+      </c>
+      <c r="E72" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F72" t="s">
+        <v>20</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2591</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2592</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2593</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2594</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2595</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2597</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2598</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2600</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F78" t="s">
+        <v>20</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2603</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2604</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F79" t="s">
+        <v>20</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2606</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2607</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2609</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2610</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2611</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>2613</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2614</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2615</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2616</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2617</v>
+      </c>
+      <c r="F84" t="s">
+        <v>20</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2618</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2619</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2620</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2621</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2622</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2623</v>
+      </c>
+      <c r="F86" t="s">
+        <v>20</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>2624</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2625</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2626</v>
+      </c>
+      <c r="E87" t="s">
+        <v>2627</v>
+      </c>
+      <c r="F87" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2628</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2629</v>
+      </c>
+      <c r="E88" t="s">
+        <v>2630</v>
+      </c>
+      <c r="F88" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E89" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2632</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2633</v>
+      </c>
+      <c r="E90" t="s">
+        <v>2634</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2636</v>
+      </c>
+      <c r="D91" t="s">
+        <v>2637</v>
+      </c>
+      <c r="E91" t="s">
+        <v>2638</v>
+      </c>
+      <c r="F91" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2639</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2640</v>
+      </c>
+      <c r="E92" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F92" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2642</v>
+      </c>
+      <c r="D93" t="s">
+        <v>2643</v>
+      </c>
+      <c r="E93" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F93" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2645</v>
+      </c>
+      <c r="D94" t="s">
+        <v>2458</v>
+      </c>
+      <c r="E94" t="s">
+        <v>2646</v>
+      </c>
+      <c r="F94" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2647</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2648</v>
+      </c>
+      <c r="E95" t="s">
+        <v>2649</v>
+      </c>
+      <c r="F95" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2651</v>
+      </c>
+      <c r="E96" t="s">
+        <v>2652</v>
+      </c>
+      <c r="F96" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2653</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2654</v>
+      </c>
+      <c r="E97" t="s">
+        <v>2655</v>
+      </c>
+      <c r="F97" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2656</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2657</v>
+      </c>
+      <c r="E98" t="s">
+        <v>2658</v>
+      </c>
+      <c r="F98" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2659</v>
+      </c>
+      <c r="D99" t="s">
+        <v>2660</v>
+      </c>
+      <c r="E99" t="s">
+        <v>2661</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2662</v>
+      </c>
+      <c r="D100" t="s">
+        <v>2663</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2664</v>
+      </c>
+      <c r="F100" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2665</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2666</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2667</v>
+      </c>
+      <c r="F101" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B102" t="s">
+        <v>2668</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2669</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2670</v>
+      </c>
+      <c r="F102" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B103" t="s">
+        <v>2671</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2672</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2673</v>
+      </c>
+      <c r="F103" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B104" t="s">
+        <v>2674</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2675</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2676</v>
+      </c>
+      <c r="F104" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B105" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2678</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2679</v>
+      </c>
+      <c r="F105" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B106" t="s">
+        <v>2680</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2681</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2682</v>
+      </c>
+      <c r="F106" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B107" t="s">
+        <v>2683</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2684</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2685</v>
+      </c>
+      <c r="F107" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B108" t="s">
+        <v>2686</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2687</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2688</v>
+      </c>
+      <c r="F108" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2689</v>
+      </c>
+      <c r="F109" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B110" t="s">
+        <v>2690</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2467</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2691</v>
+      </c>
+      <c r="F110" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B111" t="s">
+        <v>2692</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2693</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2694</v>
+      </c>
+      <c r="F111" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>2439</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1332</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2695</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F112" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B113" t="s">
+        <v>2697</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2698</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F113" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2700</v>
+      </c>
+      <c r="F114" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>2414</v>
+      </c>
+      <c r="B115" t="s">
+        <v>2701</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2702</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2703</v>
+      </c>
+      <c r="F115" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>2635</v>
+      </c>
+      <c r="B116" t="s">
+        <v>2704</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2705</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2706</v>
+      </c>
+      <c r="F116" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8484,7 +12107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -12192,7 +15815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -15404,7 +19027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="77" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{624EC215-6479-4C94-B04B-20DBD47D3253}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5835444D-462F-4A3D-98BD-ED2131753BA8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId1"/>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId2"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId3"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId4"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId5"/>
+    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId1"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId2"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId3"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId4"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId5"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6129" uniqueCount="2708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="2863">
   <si>
     <t>Imprint</t>
   </si>
@@ -8164,6 +8165,471 @@
   </si>
   <si>
     <t>Samtliga gäller avtalet Springer Nature Fully open</t>
+  </si>
+  <si>
+    <t>2574-254X</t>
+  </si>
+  <si>
+    <t>Child and Adolescent Obesity</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=TCHA</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ycst</t>
+  </si>
+  <si>
+    <t>0011-3131</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=vcur</t>
+  </si>
+  <si>
+    <t>Estudios de Psicologia</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=redp</t>
+  </si>
+  <si>
+    <t>2169-5725</t>
+  </si>
+  <si>
+    <t>2169-5717</t>
+  </si>
+  <si>
+    <t>Hearing, Balance and Communication</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ihbc</t>
+  </si>
+  <si>
+    <t>2375-2696</t>
+  </si>
+  <si>
+    <t>Higher Education Pedagogies</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=RHEP</t>
+  </si>
+  <si>
+    <t>1528-6940</t>
+  </si>
+  <si>
+    <t>1059-9231</t>
+  </si>
+  <si>
+    <t>Journal of Asia-Pacific Business</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=wapb</t>
+  </si>
+  <si>
+    <t>1540-4730</t>
+  </si>
+  <si>
+    <t>8756-8225</t>
+  </si>
+  <si>
+    <t>Journal of College Student Psychotherapy</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=wcsp</t>
+  </si>
+  <si>
+    <t>1540-4811</t>
+  </si>
+  <si>
+    <t>1050-2556</t>
+  </si>
+  <si>
+    <t>Journal of Divorce &amp; Remarriage</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=wjdr</t>
+  </si>
+  <si>
+    <t>1540-4056</t>
+  </si>
+  <si>
+    <t>1053-8720</t>
+  </si>
+  <si>
+    <t>Journal of Gay &amp; Lesbian Social Services</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=wgls</t>
+  </si>
+  <si>
+    <t>2001-6689</t>
+  </si>
+  <si>
+    <t>Journal of Market Access &amp; Health Policy</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ZJMA</t>
+  </si>
+  <si>
+    <t>2572-665X</t>
+  </si>
+  <si>
+    <t>2572-6641</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ympm</t>
+  </si>
+  <si>
+    <t>2572-6676</t>
+  </si>
+  <si>
+    <t>2572-6668</t>
+  </si>
+  <si>
+    <t>Mining Technology</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ymnt</t>
+  </si>
+  <si>
+    <t>Revista de Psicologia Social</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rrps</t>
+  </si>
+  <si>
+    <t>1553-0426</t>
+  </si>
+  <si>
+    <t>0037-7317</t>
+  </si>
+  <si>
+    <t>Smith College Studies in Social Work</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=wscs</t>
+  </si>
+  <si>
+    <t>2379-9978</t>
+  </si>
+  <si>
+    <t>2380-2014</t>
+  </si>
+  <si>
+    <t>Third World Thematics: A TWQ Journal</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rtwt</t>
+  </si>
+  <si>
+    <t>1469-3682</t>
+  </si>
+  <si>
+    <t>0958-1596</t>
+  </si>
+  <si>
+    <t>Critical Public Health</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ccph</t>
+  </si>
+  <si>
+    <t>flip till Open</t>
+  </si>
+  <si>
+    <t>1940-4476</t>
+  </si>
+  <si>
+    <t>RMLE Online</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=UMLE</t>
+  </si>
+  <si>
+    <t>Korrigerar Publishing model</t>
+  </si>
+  <si>
+    <t>1573-658X</t>
+  </si>
+  <si>
+    <t>1053-0789</t>
+  </si>
+  <si>
+    <t>Journal of Social Distress and Homelessness</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ysdh</t>
+  </si>
+  <si>
+    <t>namnkorrigering (från Journal of Social Distress and the Homeless)</t>
+  </si>
+  <si>
+    <t>Routledge</t>
+  </si>
+  <si>
+    <t>2768-3532</t>
+  </si>
+  <si>
+    <t>2768-3524</t>
+  </si>
+  <si>
+    <t>Chinese Literature and Thought Today</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=mcsp</t>
+  </si>
+  <si>
+    <t>2475-8779</t>
+  </si>
+  <si>
+    <t>Connected Science Learning</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ucsl</t>
+  </si>
+  <si>
+    <t>2837-5319</t>
+  </si>
+  <si>
+    <t>2837-5300</t>
+  </si>
+  <si>
+    <t>Family Transitions</t>
+  </si>
+  <si>
+    <t>1938-3525</t>
+  </si>
+  <si>
+    <t>0018-7259</t>
+  </si>
+  <si>
+    <t>Human Organization</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rhum</t>
+  </si>
+  <si>
+    <t>2836-7146</t>
+  </si>
+  <si>
+    <t>2836-7138</t>
+  </si>
+  <si>
+    <t>Journal of College Student Mental Health</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ujcs</t>
+  </si>
+  <si>
+    <t>1943-4898</t>
+  </si>
+  <si>
+    <t>0047-231X</t>
+  </si>
+  <si>
+    <t>Journal of College Science Teaching</t>
+  </si>
+  <si>
+    <t>2994-4376</t>
+  </si>
+  <si>
+    <t>Journal of Dermato-Oncology</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=tjdo</t>
+  </si>
+  <si>
+    <t>2994-4694</t>
+  </si>
+  <si>
+    <t>Journal of Health Equity</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=tjhe</t>
+  </si>
+  <si>
+    <t>2994-7448</t>
+  </si>
+  <si>
+    <t>Journal of Translational Research</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ttrr</t>
+  </si>
+  <si>
+    <t>2994-7677</t>
+  </si>
+  <si>
+    <t>Outbreak Management and Response</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=tomr</t>
+  </si>
+  <si>
+    <t>2994-1628</t>
+  </si>
+  <si>
+    <t>0888-4552</t>
+  </si>
+  <si>
+    <t>Practicing Anthropology</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rpay</t>
+  </si>
+  <si>
+    <t>1943-4812</t>
+  </si>
+  <si>
+    <t>0036-8148</t>
+  </si>
+  <si>
+    <t>Science and Children</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=usch</t>
+  </si>
+  <si>
+    <t>1943-4901</t>
+  </si>
+  <si>
+    <t>0887-2376</t>
+  </si>
+  <si>
+    <t>Science Scope</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ujss</t>
+  </si>
+  <si>
+    <t>2993-303X</t>
+  </si>
+  <si>
+    <t>2993-3021</t>
+  </si>
+  <si>
+    <t>Sexual and Gender Diversity in Social Services</t>
+  </si>
+  <si>
+    <t>2837-682X</t>
+  </si>
+  <si>
+    <t>2837-6811</t>
+  </si>
+  <si>
+    <t>Studies in Clinical Social Work</t>
+  </si>
+  <si>
+    <t>1943-4871</t>
+  </si>
+  <si>
+    <t>0036-8555</t>
+  </si>
+  <si>
+    <t>The Science Teacher</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=utst</t>
+  </si>
+  <si>
+    <t>0001-6357</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=iode</t>
+  </si>
+  <si>
+    <t>1743-6761</t>
+  </si>
+  <si>
+    <t>1743-6753</t>
+  </si>
+  <si>
+    <t>Advances in Applied Ceramics</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yaac</t>
+  </si>
+  <si>
+    <t>2572-6846</t>
+  </si>
+  <si>
+    <t>2572-6838</t>
+  </si>
+  <si>
+    <t>Applied Earth Science</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yaes</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yimr</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ywpj</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ymst</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yirs</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=yprc</t>
+  </si>
+  <si>
+    <t>Psyecology</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=rprb</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ystw</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ysue</t>
+  </si>
+  <si>
+    <t>http://tandfonline.com/action/journalInformation?show=aimsScope&amp;journalCode=ytrb</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/mpe</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/aac</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/ape</t>
+  </si>
+  <si>
+    <t>2976-8640</t>
+  </si>
+  <si>
+    <t>Dialogues on Digital Society</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/dds</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/mtg</t>
+  </si>
+  <si>
+    <t>1545-1534</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/home/wem</t>
+  </si>
+  <si>
+    <t>Rättat issn i Springer Compact</t>
+  </si>
+  <si>
+    <t>Rad 2-49 gäller Taylor &amp; Francis</t>
+  </si>
+  <si>
+    <t>Rad 50-55 gäller SAGE</t>
+  </si>
+  <si>
+    <t>Rad 56-58 gäller Springer Compact</t>
   </si>
 </sst>
 </file>
@@ -9076,11 +9542,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417FD35-C1F2-4856-A758-D00399B63FAA}">
+  <dimension ref="A1:I58"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="55" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2367</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2830</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2831</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2861</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>2862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2839</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2708</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2709</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2710</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2711</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2712</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2713</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2714</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2715</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2716</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2718</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2719</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2720</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2721</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2722</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2723</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2840</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2843</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2724</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2725</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2726</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2728</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2729</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2730</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2732</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2733</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2734</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2736</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2737</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2738</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2740</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2741</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2742</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2842</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2745</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1164</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1165</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2845</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2846</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1059</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2750</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2751</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2847</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2753</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2754</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1199</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1200</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2848</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2757</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2758</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2759</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2849</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2761</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2762</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2763</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2764</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2765</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2766</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2768</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2770</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2771</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2772</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2776</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2777</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2778</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2779</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2780</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2781</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2783</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2784</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2735</v>
+      </c>
+      <c r="F36" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2786</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2787</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2788</v>
+      </c>
+      <c r="F37" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2794</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2795</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2731</v>
+      </c>
+      <c r="F38" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2790</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2791</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2796</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2797</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2798</v>
+      </c>
+      <c r="F40" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2799</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2800</v>
+      </c>
+      <c r="E41" t="s">
+        <v>2801</v>
+      </c>
+      <c r="F41" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2802</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2803</v>
+      </c>
+      <c r="E42" t="s">
+        <v>2804</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2805</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2806</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2807</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2809</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2810</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2811</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2813</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2814</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2815</v>
+      </c>
+      <c r="F45" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2817</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2818</v>
+      </c>
+      <c r="E46" t="s">
+        <v>2819</v>
+      </c>
+      <c r="F46" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2822</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H47" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2824</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2825</v>
+      </c>
+      <c r="E48" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F48" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2827</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2828</v>
+      </c>
+      <c r="E49" t="s">
+        <v>2829</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>737</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>737</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2834</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>737</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2837</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2838</v>
+      </c>
+      <c r="E52" t="s">
+        <v>2852</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>737</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2853</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2854</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>737</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2747</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2748</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>737</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2857</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2541</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F56" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2549</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2566</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" t="s">
+        <v>2859</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H49">
+    <sortCondition ref="H2:H49"/>
+    <sortCondition ref="D2:D49"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11777,7 +13743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -12107,7 +14073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -15815,7 +17781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -19027,7 +20993,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -9546,7 +9546,7 @@
   <dimension ref="A1:I58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5835444D-462F-4A3D-98BD-ED2131753BA8}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29483518-147B-478A-8F5B-E7CEF1C7C447}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId1"/>
-    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId2"/>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId3"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId4"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId5"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId6"/>
+    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId1"/>
+    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId2"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId3"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId4"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId5"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId6"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6582" uniqueCount="2863">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6842" uniqueCount="2973">
   <si>
     <t>Imprint</t>
   </si>
@@ -8630,6 +8631,336 @@
   </si>
   <si>
     <t>Rad 56-58 gäller Springer Compact</t>
+  </si>
+  <si>
+    <t>Copernicus</t>
+  </si>
+  <si>
+    <t>1680-7359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Geosciences </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-geosciences.net/</t>
+  </si>
+  <si>
+    <t>1684-9973</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Radio Science </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-radio-science.net/</t>
+  </si>
+  <si>
+    <t>1992-0636</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advances in Science and Research </t>
+  </si>
+  <si>
+    <t>https://www.advances-in-science-and-research.net/</t>
+  </si>
+  <si>
+    <t>1432-0576</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Annales Geophysicae </t>
+  </si>
+  <si>
+    <t>https://www.annales-geophysicae.net/</t>
+  </si>
+  <si>
+    <t>2363-9822</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archives Animal Breeding </t>
+  </si>
+  <si>
+    <t>https://archives-animal-breeding.net/</t>
+  </si>
+  <si>
+    <t>1680-7324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Chemistry and Physics </t>
+  </si>
+  <si>
+    <t>https://www.atmospheric-chemistry-and-physics.net/</t>
+  </si>
+  <si>
+    <t>1867-8548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atmospheric Measurement Techniques </t>
+  </si>
+  <si>
+    <t>https://www.atmospheric-measurement-techniques.net/</t>
+  </si>
+  <si>
+    <t>1726-4189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biogeosciences </t>
+  </si>
+  <si>
+    <t>https://www.biogeosciences.net/</t>
+  </si>
+  <si>
+    <t>1814-9332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate of the Past </t>
+  </si>
+  <si>
+    <t>https://www.climate-of-the-past.net/</t>
+  </si>
+  <si>
+    <t>2625-8137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEUQUA Special Publications </t>
+  </si>
+  <si>
+    <t>https://www.deuqua-special-publications.net/</t>
+  </si>
+  <si>
+    <t>2199-9090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E&amp;G Quaternary Science Journal </t>
+  </si>
+  <si>
+    <t>https://www.eg-quaternary-science-journal.net/</t>
+  </si>
+  <si>
+    <t>2196-632X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth Surface Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.earth-surface-dynamics.net/</t>
+  </si>
+  <si>
+    <t>2190-4987</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth System Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.earth-system-dynamics.net/</t>
+  </si>
+  <si>
+    <t>1866-3516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth System Science Data </t>
+  </si>
+  <si>
+    <t>https://www.earth-system-science-data.net/</t>
+  </si>
+  <si>
+    <t>1617-4011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Journal of Mineralogy </t>
+  </si>
+  <si>
+    <t>https://www.european-journal-of-mineralogy.net/</t>
+  </si>
+  <si>
+    <t>2628-3719</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geochronology </t>
+  </si>
+  <si>
+    <t>https://www.geochronology.net/</t>
+  </si>
+  <si>
+    <t>2569-7110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscience Communication </t>
+  </si>
+  <si>
+    <t>https://www.geoscience-communication.net/</t>
+  </si>
+  <si>
+    <t>2193-0864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscientific Instrumentation, Methods and Data Systems </t>
+  </si>
+  <si>
+    <t>https://www.geoscientific-instrumentation-methods-and-data-systems.net/</t>
+  </si>
+  <si>
+    <t>1991-9603</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geoscientific Model Development </t>
+  </si>
+  <si>
+    <t>https://www.geoscientific-model-development.net/</t>
+  </si>
+  <si>
+    <t>1607-7938</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydrology and Earth System Sciences </t>
+  </si>
+  <si>
+    <t>https://www.hydrology-and-earth-system-sciences.net/</t>
+  </si>
+  <si>
+    <t>2206-3552</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Bone and Joint Infection </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-bone-and-joint-infection.net/</t>
+  </si>
+  <si>
+    <t>2041-4978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Micropalaeontology </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-micropalaeontology.net/</t>
+  </si>
+  <si>
+    <t>2194-878X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Sensors and Sensor Systems </t>
+  </si>
+  <si>
+    <t>https://www.journal-of-sensors-and-sensor-systems.net/</t>
+  </si>
+  <si>
+    <t>2699-0016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnetic Resonance </t>
+  </si>
+  <si>
+    <t>https://www.magnetic-resonance-ampere.net/</t>
+  </si>
+  <si>
+    <t>2191-916X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mechanical Sciences </t>
+  </si>
+  <si>
+    <t>https://www.mechanical-sciences.net/</t>
+  </si>
+  <si>
+    <t>1684-9981</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natural Hazards and Earth System Sciences </t>
+  </si>
+  <si>
+    <t>https://www.natural-hazards-and-earth-system-sciences.net/</t>
+  </si>
+  <si>
+    <t>1607-7946</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonlinear Processes in Geophysics </t>
+  </si>
+  <si>
+    <t>https://www.nonlinear-processes-in-geophysics.net/</t>
+  </si>
+  <si>
+    <t>1812-0792</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean Science </t>
+  </si>
+  <si>
+    <t>https://www.ocean-science.net/</t>
+  </si>
+  <si>
+    <t>2363-4715</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primate Biology </t>
+  </si>
+  <si>
+    <t>https://www.primate-biology.net/</t>
+  </si>
+  <si>
+    <t>2199-899X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proceedings of the International Association of Hydrological Sciences </t>
+  </si>
+  <si>
+    <t>https://www.proceedings-iahs.net/</t>
+  </si>
+  <si>
+    <t>2199-398X</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOIL </t>
+  </si>
+  <si>
+    <t>https://www.soil-journal.net/</t>
+  </si>
+  <si>
+    <t>1869-9529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid Earth </t>
+  </si>
+  <si>
+    <t>https://www.solid-earth.net/</t>
+  </si>
+  <si>
+    <t>2752-0706</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State of the Planet </t>
+  </si>
+  <si>
+    <t>https://www.state-of-the-planet.net/</t>
+  </si>
+  <si>
+    <t>1994-0424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Cryosphere </t>
+  </si>
+  <si>
+    <t>https://www.the-cryosphere.net/</t>
+  </si>
+  <si>
+    <t>2698-4016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weather and Climate Dynamics </t>
+  </si>
+  <si>
+    <t>https://www.weather-climate-dynamics.net/</t>
+  </si>
+  <si>
+    <t>2366-7451</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wind Energy Sciences </t>
+  </si>
+  <si>
+    <t>https://www.wind-energy-science.net/</t>
+  </si>
+  <si>
+    <t>Nya avtalet Copernicus</t>
   </si>
 </sst>
 </file>
@@ -8777,7 +9108,25 @@
     <cellStyle name="Normal 2" xfId="2" xr:uid="{AA356DE8-747A-49A3-A2C7-D1548214AA4A}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
-  <dxfs count="37">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9162,6 +9511,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H37" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H37" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{A7BDA42C-D920-4027-A9BB-D4620C083B74}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{74195E0D-9C98-490F-87DE-6F8A293B05ED}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{1A3137CD-923D-4FEC-B0DB-E3CC4671F9C3}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{1B1DEB1C-D394-49D0-B7C0-E3ABECAED142}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{14E9D437-7A37-47CC-998E-72F883995727}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{9C951F5A-B2D4-467E-9ED0-D212BCC2ED80}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{66E5189D-585C-4520-9954-FBD5EC8280C2}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{92154FCA-5507-4AD6-A79A-DE5D9108A394}" name="Ändring"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}" name="Table5" displayName="Table5" ref="A1:H116" totalsRowShown="0">
   <autoFilter ref="A1:H116" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}"/>
   <tableColumns count="8">
@@ -9178,7 +9544,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}" name="Table4" displayName="Table4" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}"/>
   <tableColumns count="8">
@@ -9195,7 +9561,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
   <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
@@ -9212,7 +9578,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
   <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
   <tableColumns count="8">
@@ -9229,7 +9595,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
   <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
@@ -9542,10 +9908,891 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323C715-D199-47DF-ABDA-8E0504AA40AC}">
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>2367</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2864</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2865</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2866</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2867</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2868</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2869</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2870</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2871</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2872</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2873</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2874</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2876</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2877</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2879</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2880</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2882</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2883</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2885</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2886</v>
+      </c>
+      <c r="E9" t="s">
+        <v>2887</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2888</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2889</v>
+      </c>
+      <c r="E10" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2891</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2892</v>
+      </c>
+      <c r="E11" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2894</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2895</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2897</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2898</v>
+      </c>
+      <c r="E13" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2900</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2901</v>
+      </c>
+      <c r="E14" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2903</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2904</v>
+      </c>
+      <c r="E15" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2906</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2907</v>
+      </c>
+      <c r="E16" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2909</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2910</v>
+      </c>
+      <c r="E17" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2912</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2913</v>
+      </c>
+      <c r="E18" t="s">
+        <v>2914</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2915</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2916</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2917</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2918</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E20" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2921</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2922</v>
+      </c>
+      <c r="E21" t="s">
+        <v>2923</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2924</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2925</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2926</v>
+      </c>
+      <c r="F22" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2927</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2928</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2929</v>
+      </c>
+      <c r="F23" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2930</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2931</v>
+      </c>
+      <c r="E24" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2933</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2934</v>
+      </c>
+      <c r="E25" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2936</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2937</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2938</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2939</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2940</v>
+      </c>
+      <c r="E27" t="s">
+        <v>2941</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2942</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2943</v>
+      </c>
+      <c r="E28" t="s">
+        <v>2944</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2945</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2946</v>
+      </c>
+      <c r="E29" t="s">
+        <v>2947</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2949</v>
+      </c>
+      <c r="E30" t="s">
+        <v>2950</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2952</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2953</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2955</v>
+      </c>
+      <c r="E32" t="s">
+        <v>2956</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2958</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2959</v>
+      </c>
+      <c r="F33" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2961</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2962</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2964</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2965</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2967</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2968</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2863</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2970</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2971</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>2972</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417FD35-C1F2-4856-A758-D00399B63FAA}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -11041,7 +12288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
@@ -13743,7 +14990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -14073,7 +15320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -17763,16 +19010,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B153">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -17781,7 +19028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -20935,56 +22182,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -20993,7 +22240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>
@@ -31406,25 +32653,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392">
-    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B393">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B399">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:B402 B405:B406">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29483518-147B-478A-8F5B-E7CEF1C7C447}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C05D6E4-23D4-4657-BB4E-29913C1BC36A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6842" uniqueCount="2973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7164" uniqueCount="3092">
   <si>
     <t>Imprint</t>
   </si>
@@ -8960,7 +8960,364 @@
     <t>https://www.wind-energy-science.net/</t>
   </si>
   <si>
-    <t>Nya avtalet Copernicus</t>
+    <t>Nytt avtal 2024:  Copernicus</t>
+  </si>
+  <si>
+    <t>1566-7367</t>
+  </si>
+  <si>
+    <t>Catalysis Communications</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/15667367</t>
+  </si>
+  <si>
+    <t>2772-9990</t>
+  </si>
+  <si>
+    <t>Political Geography Open Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/27729990</t>
+  </si>
+  <si>
+    <t>2590-0420</t>
+  </si>
+  <si>
+    <t>The Journal of Pediatrics: X</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25900420</t>
+  </si>
+  <si>
+    <t>2949-9453</t>
+  </si>
+  <si>
+    <t>Accounting Theory and Practice</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29499453</t>
+  </si>
+  <si>
+    <t>1029-3132</t>
+  </si>
+  <si>
+    <t>Asia Pacific Management Review</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/10293132</t>
+  </si>
+  <si>
+    <t>1441-2772</t>
+  </si>
+  <si>
+    <t>Critical Care and Resuscitation</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/14412772</t>
+  </si>
+  <si>
+    <t>2949-9461</t>
+  </si>
+  <si>
+    <t>Cell Ecosystem</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29499461</t>
+  </si>
+  <si>
+    <t>2667-100X</t>
+  </si>
+  <si>
+    <t>Journal of Intensive Medicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/2667100X</t>
+  </si>
+  <si>
+    <t>2949-9267</t>
+  </si>
+  <si>
+    <t>Journal of Safety and Sustainability</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29499267</t>
+  </si>
+  <si>
+    <t>1925-2099</t>
+  </si>
+  <si>
+    <t>Transnational Corporations Review</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/19252099</t>
+  </si>
+  <si>
+    <t>2950-5240</t>
+  </si>
+  <si>
+    <t>Development and Sustainability in Economics and Finance</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29505240</t>
+  </si>
+  <si>
+    <t>Ny</t>
+  </si>
+  <si>
+    <t>2950-4872</t>
+  </si>
+  <si>
+    <t>Energy 360</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504872</t>
+  </si>
+  <si>
+    <t>0003-4975</t>
+  </si>
+  <si>
+    <t>The Annals of Thoracic Surgery</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/00034975</t>
+  </si>
+  <si>
+    <t>1110-1164</t>
+  </si>
+  <si>
+    <t>The Egyptian Rheumatologist</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/11101164</t>
+  </si>
+  <si>
+    <t>0974-3227</t>
+  </si>
+  <si>
+    <t>Journal of Hand and Microsurgery</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/09743227</t>
+  </si>
+  <si>
+    <t>2950-6484</t>
+  </si>
+  <si>
+    <t>Applied Catalysis O: Open</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29506484</t>
+  </si>
+  <si>
+    <t>Open Access</t>
+  </si>
+  <si>
+    <t>2950-4864</t>
+  </si>
+  <si>
+    <t>Coordination Chemistry Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504864</t>
+  </si>
+  <si>
+    <t>2950-550X</t>
+  </si>
+  <si>
+    <t>Digital Engineering</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/2950550X</t>
+  </si>
+  <si>
+    <t>1195-1036</t>
+  </si>
+  <si>
+    <t>Geomatica</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/11951036</t>
+  </si>
+  <si>
+    <t>2950-4074</t>
+  </si>
+  <si>
+    <t>Glial Health Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504074</t>
+  </si>
+  <si>
+    <t>2950-5534</t>
+  </si>
+  <si>
+    <t>JCA Advances</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29505534</t>
+  </si>
+  <si>
+    <t>2950-5410</t>
+  </si>
+  <si>
+    <t>The Journal of Pediatrics: Clinical Practice</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29505410</t>
+  </si>
+  <si>
+    <t>2950-4775</t>
+  </si>
+  <si>
+    <t>Sustainable Chemistry for Energy Materials</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504775</t>
+  </si>
+  <si>
+    <t>2468-2276</t>
+  </si>
+  <si>
+    <t>Scientific African</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/24682276</t>
+  </si>
+  <si>
+    <t>2950-2896</t>
+  </si>
+  <si>
+    <t>Soil Advances</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29502896</t>
+  </si>
+  <si>
+    <t>2950-3604</t>
+  </si>
+  <si>
+    <t>Wind Energy and Engineering Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29503604</t>
+  </si>
+  <si>
+    <t>2211-3835</t>
+  </si>
+  <si>
+    <t>Acta Pharmaceutica Sinica B</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/22113835</t>
+  </si>
+  <si>
+    <t>1470-2118</t>
+  </si>
+  <si>
+    <t>Clinical Medicine</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/14702118</t>
+  </si>
+  <si>
+    <t>2950-5909</t>
+  </si>
+  <si>
+    <t>CMI Communications</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29505909</t>
+  </si>
+  <si>
+    <t>1687-4285</t>
+  </si>
+  <si>
+    <t>Egyptian Journal of Aquatic Research</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/16874285</t>
+  </si>
+  <si>
+    <t>2192-4406</t>
+  </si>
+  <si>
+    <t>EURO Journal on Computational Optimization</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/21924406</t>
+  </si>
+  <si>
+    <t>2193-9438</t>
+  </si>
+  <si>
+    <t>EURO Journal on Decision Processes</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/21939438</t>
+  </si>
+  <si>
+    <t>2192-4376</t>
+  </si>
+  <si>
+    <t>EURO Journal on Transportation and Logistics</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/21924376</t>
+  </si>
+  <si>
+    <t>2514-6645</t>
+  </si>
+  <si>
+    <t>Future Healthcare Journal</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/25146645</t>
+  </si>
+  <si>
+    <t>2950-4562</t>
+  </si>
+  <si>
+    <t>Intestinal Failure</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29504562</t>
+  </si>
+  <si>
+    <t>2941-198X</t>
+  </si>
+  <si>
+    <t>Journal of the Air Transport Research Society</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/2941198X</t>
+  </si>
+  <si>
+    <t>2950-1989</t>
+  </si>
+  <si>
+    <t>JAAD Reviews</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29501989</t>
+  </si>
+  <si>
+    <t>1687-157X</t>
+  </si>
+  <si>
+    <t>Journal of Genetic Engineering and Biotechnology</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/1687157X</t>
+  </si>
+  <si>
+    <t>2950-6050</t>
+  </si>
+  <si>
+    <t>JTCVS Structural and Endovascular</t>
+  </si>
+  <si>
+    <t>http://www.sciencedirect.com/science/journal/29506050</t>
   </si>
 </sst>
 </file>
@@ -9109,24 +9466,6 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
   <dxfs count="38">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -9497,6 +9836,24 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -9511,8 +9868,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H37" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:H37" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H83" totalsRowShown="0" headerRowDxfId="37">
+  <autoFilter ref="A1:H83" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A7BDA42C-D920-4027-A9BB-D4620C083B74}" name="Imprint"/>
     <tableColumn id="2" xr3:uid="{74195E0D-9C98-490F-87DE-6F8A293B05ED}" name="ISSN Electronic"/>
@@ -9909,10 +10266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323C715-D199-47DF-ABDA-8E0504AA40AC}">
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10778,6 +11135,1110 @@
       </c>
       <c r="H37" t="s">
         <v>2972</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>2973</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="13" t="s">
+        <v>2974</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>2975</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>2976</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13" t="s">
+        <v>2977</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>2978</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>2979</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13" t="s">
+        <v>2980</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>2981</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>2982</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13" t="s">
+        <v>2983</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>2984</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>2985</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13" t="s">
+        <v>2986</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>2987</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>2988</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13" t="s">
+        <v>2989</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>2990</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>2991</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13" t="s">
+        <v>2992</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>2993</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>2994</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13" t="s">
+        <v>2995</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>2996</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>2997</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13" t="s">
+        <v>2998</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>2999</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>3000</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13" t="s">
+        <v>3001</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>3002</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>3003</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13" t="s">
+        <v>3004</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>3005</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>3007</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13" t="s">
+        <v>3008</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>3009</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>3010</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13" t="s">
+        <v>3011</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>3012</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>3013</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13" t="s">
+        <v>3014</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>3015</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>3016</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13" t="s">
+        <v>3017</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>3018</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>3019</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13" t="s">
+        <v>3020</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>3021</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G57" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>3023</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13" t="s">
+        <v>3024</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>3025</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G58" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>3026</v>
+      </c>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13" t="s">
+        <v>3027</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>3028</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>3029</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13" t="s">
+        <v>3030</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>3031</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G60" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>3032</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>3033</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>3034</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G61" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>3035</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>3036</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>3037</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>3038</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13" t="s">
+        <v>3039</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>3040</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>3041</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13" t="s">
+        <v>3042</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>3043</v>
+      </c>
+      <c r="F64" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G64" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>3044</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>3046</v>
+      </c>
+      <c r="F65" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>3047</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>3049</v>
+      </c>
+      <c r="F66" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G66" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>3050</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>3052</v>
+      </c>
+      <c r="F67" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G67" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>3053</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>3055</v>
+      </c>
+      <c r="F68" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G68" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F69" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G69" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>3056</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>3058</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G70" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>3059</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>3061</v>
+      </c>
+      <c r="F71" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G71" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B72" s="13" t="s">
+        <v>3062</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>3064</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F73" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G73" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>3065</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>3067</v>
+      </c>
+      <c r="F74" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G74" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>3068</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>3070</v>
+      </c>
+      <c r="F75" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G75" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>3071</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>3073</v>
+      </c>
+      <c r="F76" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G76" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>3074</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>3076</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>3077</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>3079</v>
+      </c>
+      <c r="F78" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G78" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>3080</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>3082</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>3083</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>3085</v>
+      </c>
+      <c r="F80" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G80" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>3086</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>3088</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G81" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>3089</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>3091</v>
+      </c>
+      <c r="F82" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G82" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>3006</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G83" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>3006</v>
       </c>
     </row>
   </sheetData>
@@ -19010,16 +20471,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B153">
-    <cfRule type="duplicateValues" dxfId="37" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="duplicateValues" dxfId="36" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="duplicateValues" dxfId="35" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="duplicateValues" dxfId="34" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -22182,56 +23643,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="33" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="32" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="31" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="30" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="29" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="28" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="27" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="26" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="25" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="24" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="23" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="22" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="21" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="20" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="19" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="18" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="17" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="16" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="15" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="14" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="13" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="12" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="11" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="9" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -32653,25 +34114,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="7" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B393">
-    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B399">
-    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:B402 B405:B406">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CBB0D62-EB47-460E-847B-6F67A47AC180}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D39D1A23-028D-4227-B82C-C454CC9F51E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId1"/>
-    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId2"/>
-    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId3"/>
-    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId4"/>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId5"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId6"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId7"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId8"/>
+    <sheet name="Nr9_24juli2024" sheetId="9" r:id="rId1"/>
+    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId2"/>
+    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId3"/>
+    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId4"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId5"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId6"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId7"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId8"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10436" uniqueCount="4705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10486" uniqueCount="4724">
   <si>
     <t>Imprint</t>
   </si>
@@ -14158,6 +14159,63 @@
   </si>
   <si>
     <t>https://www.frontierspartnerships.org/journals/pastoralism-research-policy-and-practice</t>
+  </si>
+  <si>
+    <t>2837-3219</t>
+  </si>
+  <si>
+    <t>Clinical Neuroimaging</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/28373219</t>
+  </si>
+  <si>
+    <t>CC BY, CC BY-NC, CC BY-NC-ND</t>
+  </si>
+  <si>
+    <t>2835-3617</t>
+  </si>
+  <si>
+    <t>Earth Stewardship</t>
+  </si>
+  <si>
+    <t>https://esajournals.onlinelibrary.wiley.com/journal/28353617</t>
+  </si>
+  <si>
+    <t>2693-3101</t>
+  </si>
+  <si>
+    <t>Journal of Critical Infrastructure Policy</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/26933101</t>
+  </si>
+  <si>
+    <t>2767-7451</t>
+  </si>
+  <si>
+    <t>Journal of Elder Policy</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/27677451</t>
+  </si>
+  <si>
+    <t>1536-4801</t>
+  </si>
+  <si>
+    <t>Journal of Pediatric Gastroenterology and Nutrition</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/15364801</t>
+  </si>
+  <si>
+    <t>2993-3439</t>
+  </si>
+  <si>
+    <t>Sculpture, Monuments and Open Space</t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/29933439</t>
   </si>
 </sst>
 </file>
@@ -14306,78 +14364,6 @@
     <cellStyle name="Normal 3" xfId="1" xr:uid="{708F8BDF-8F9C-4006-AB1D-C7D0675D3724}"/>
   </cellStyles>
   <dxfs count="61">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -14956,6 +14942,78 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -14970,24 +15028,41 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE2B4EF4-28B3-4045-A99B-E49352BC6CAA}" name="Table8" displayName="Table8" ref="A1:H7" totalsRowShown="0">
+  <autoFilter ref="A1:H7" xr:uid="{CE2B4EF4-28B3-4045-A99B-E49352BC6CAA}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{D77257AA-D644-4991-90E5-743A4D729014}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{86ADBCAA-19CA-41BB-8CD4-F5D506437B43}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{E59D960C-B70A-4517-9979-0B1055EA3399}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{59C137BD-43FF-4E5A-A999-3F45BA04DD28}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{19108058-358B-4483-A7BB-EBAD5F02EC61}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{5CFD6B17-C3FE-40E6-AC01-2CEAE827456D}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{A3249978-F511-4334-BFB2-C24A1C810756}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{F4EEC456-AC12-491E-8444-25F7907A104A}" name="Ändringar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BC11706E-5DF1-4B2A-A8D7-21E9B7587DA0}" name="Table7" displayName="Table7" ref="A1:H415" totalsRowShown="0">
   <autoFilter ref="A1:H415" xr:uid="{BC11706E-5DF1-4B2A-A8D7-21E9B7587DA0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2BD0A91F-7CC9-4CAF-89CA-A6A82D42EFAF}" name="Imprint" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{52AA1671-4A9C-4360-A27C-D190F6510810}" name="ISSN Electronic" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2BD0A91F-7CC9-4CAF-89CA-A6A82D42EFAF}" name="Imprint" dataDxfId="60"/>
+    <tableColumn id="2" xr3:uid="{52AA1671-4A9C-4360-A27C-D190F6510810}" name="ISSN Electronic" dataDxfId="59"/>
     <tableColumn id="3" xr3:uid="{E2AF52A7-CA0B-459B-B301-5C92EB6C9C0E}" name="ISSN Print"/>
     <tableColumn id="4" xr3:uid="{F6B9C9A9-FBA9-47B8-83D7-6BACC0803ADA}" name="Journal Name"/>
     <tableColumn id="5" xr3:uid="{734B3120-7DCF-4BA1-8D2F-385A8195B5F2}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{884EA719-44F6-48B2-8DE7-B13552DA191F}" name="Publishing model" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{C536AA30-FEF0-49D9-880E-A3037FC41BBB}" name="CC License options" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{884EA719-44F6-48B2-8DE7-B13552DA191F}" name="Publishing model" dataDxfId="58"/>
+    <tableColumn id="7" xr3:uid="{C536AA30-FEF0-49D9-880E-A3037FC41BBB}" name="CC License options" dataDxfId="57"/>
     <tableColumn id="8" xr3:uid="{C89695BA-3209-486D-86B5-DD2C406F2F2E}" name="Ändringar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H83" totalsRowShown="0" headerRowDxfId="60">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H83" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:H83" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{A7BDA42C-D920-4027-A9BB-D4620C083B74}" name="Imprint"/>
@@ -15003,7 +15078,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}" name="Table5" displayName="Table5" ref="A1:H116" totalsRowShown="0">
   <autoFilter ref="A1:H116" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}"/>
   <tableColumns count="8">
@@ -15020,7 +15095,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}" name="Table4" displayName="Table4" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}"/>
   <tableColumns count="8">
@@ -15037,7 +15112,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
   <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
@@ -15054,7 +15129,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
   <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
   <tableColumns count="8">
@@ -15071,7 +15146,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
   <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
   <tableColumns count="8">
@@ -15384,11 +15459,203 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DC804-C375-4109-8D8C-3EB8BA8A7D4E}">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="28.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4705</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4706</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4707</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4709</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4710</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4711</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4712</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4713</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4714</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4715</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4716</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4717</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4718</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4719</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4720</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4708</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4721</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4722</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4723</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBC7FA-6A07-487D-966D-C7FD419939F1}">
   <dimension ref="A1:H415"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26056,61 +26323,61 @@
     <sortCondition ref="H33:H410"/>
   </sortState>
   <conditionalFormatting sqref="B106:B114">
-    <cfRule type="duplicateValues" dxfId="59" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="55" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B185:B186">
-    <cfRule type="duplicateValues" dxfId="58" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="54" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B196:B238">
-    <cfRule type="duplicateValues" dxfId="57" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="53" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B239">
-    <cfRule type="duplicateValues" dxfId="56" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="52" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B240:B241">
-    <cfRule type="duplicateValues" dxfId="55" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="51" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B242:B282">
-    <cfRule type="duplicateValues" dxfId="54" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="50" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B283:B291">
-    <cfRule type="duplicateValues" dxfId="53" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="49" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B293:B304">
-    <cfRule type="duplicateValues" dxfId="52" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="48" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B305:B378">
-    <cfRule type="duplicateValues" dxfId="51" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="47" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B379:B387">
-    <cfRule type="duplicateValues" dxfId="50" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="46" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B388:B410">
-    <cfRule type="duplicateValues" dxfId="49" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="45" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B124:C124">
-    <cfRule type="duplicateValues" dxfId="48" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="44" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B144:C144">
-    <cfRule type="duplicateValues" dxfId="47" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="43" priority="15"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B187:C187">
-    <cfRule type="duplicateValues" dxfId="46" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="42" priority="11"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B292:C292">
-    <cfRule type="duplicateValues" dxfId="45" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="41" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C105">
-    <cfRule type="duplicateValues" dxfId="44" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="40" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C117">
-    <cfRule type="duplicateValues" dxfId="43" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="39" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C154">
-    <cfRule type="duplicateValues" dxfId="42" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="38" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C184">
-    <cfRule type="duplicateValues" dxfId="41" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="37" priority="13"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -26119,7 +26386,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323C715-D199-47DF-ABDA-8E0504AA40AC}">
   <dimension ref="A1:H83"/>
   <sheetViews>
@@ -28104,11 +28371,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417FD35-C1F2-4856-A758-D00399B63FAA}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -29604,7 +29871,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
@@ -32306,7 +32573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -32636,7 +32903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -36326,16 +36593,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B153">
-    <cfRule type="duplicateValues" dxfId="40" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B154">
-    <cfRule type="duplicateValues" dxfId="39" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D153">
-    <cfRule type="duplicateValues" dxfId="38" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D154">
-    <cfRule type="duplicateValues" dxfId="37" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -36344,7 +36611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -39498,56 +39765,56 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="36" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="35" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="34" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="33" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="32" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="30" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="28" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="26" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="24" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="22" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="20" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="18" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="16" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="14" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="12" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -39556,7 +39823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>
@@ -49969,25 +50236,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B391">
-    <cfRule type="duplicateValues" dxfId="10" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B392">
-    <cfRule type="duplicateValues" dxfId="9" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B393">
-    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B395">
-    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B396">
-    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B399">
-    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B400:B402 B405:B406">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="163" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D7EB2F1-69C8-4FAF-82D4-A9BF6E7782D1}"/>
+  <xr:revisionPtr revIDLastSave="172" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DF2F85-D14A-4397-A59D-881B6A225696}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr11_30aug2024" sheetId="10" r:id="rId1"/>
-    <sheet name="Nr9_24juli2024" sheetId="9" r:id="rId2"/>
-    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId3"/>
-    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId4"/>
-    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId5"/>
-    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId6"/>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId7"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId8"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId9"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId10"/>
+    <sheet name="Nr12_8okt2024" sheetId="11" r:id="rId1"/>
+    <sheet name="Nr11_30aug2024" sheetId="10" r:id="rId2"/>
+    <sheet name="Nr9_24juli2024" sheetId="9" r:id="rId3"/>
+    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId4"/>
+    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId5"/>
+    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId6"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId7"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId8"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId9"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId10"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10792" uniqueCount="4854">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10878" uniqueCount="4891">
   <si>
     <t>Imprint</t>
   </si>
@@ -14607,6 +14608,117 @@
   </si>
   <si>
     <t>https://onlinelibrary.wiley.com/journal/17571146</t>
+  </si>
+  <si>
+    <t>2754-7205</t>
+  </si>
+  <si>
+    <t>Cambridge Prisms: Coastal Futures</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/cambridge-prisms-coastal-futures</t>
+  </si>
+  <si>
+    <t>Borttagen - var felaktigt inkluderad i 2024 års lista (kommer dock nästa år)</t>
+  </si>
+  <si>
+    <t>2755-0958</t>
+  </si>
+  <si>
+    <t>Cambridge Prisms: Extinction</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/cambridge-prisms-extinction</t>
+  </si>
+  <si>
+    <t>2755-094X</t>
+  </si>
+  <si>
+    <t>Cambridge Prisms: Plastics</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/cambridge-prisms-plastics</t>
+  </si>
+  <si>
+    <t>2752-6143</t>
+  </si>
+  <si>
+    <t>Cambridge Prisms: Precision Medicine</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/cambridge-prisms-precision-medicine</t>
+  </si>
+  <si>
+    <t>2755-1776</t>
+  </si>
+  <si>
+    <t>Cambridge Prisms: Water</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/cambridge-prisms-water</t>
+  </si>
+  <si>
+    <t>2753-8524</t>
+  </si>
+  <si>
+    <t>Research Directions: Bioelectronics</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/research-directions-bioelectronics</t>
+  </si>
+  <si>
+    <t>2752-9452</t>
+  </si>
+  <si>
+    <t>Research Directions: Biotechnology Design</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/research-directions-biotechnology-design</t>
+  </si>
+  <si>
+    <t>2753-8516</t>
+  </si>
+  <si>
+    <t>Research Directions: Cyber-Physical Systems</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/research-directions-cyber-physical-systems</t>
+  </si>
+  <si>
+    <t>2752-9460</t>
+  </si>
+  <si>
+    <t>Research Directions: One Health</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/research-directions-one-health</t>
+  </si>
+  <si>
+    <t>2752-9444</t>
+  </si>
+  <si>
+    <t>Research Directions: Quantum Technologies</t>
+  </si>
+  <si>
+    <t>https://www.cambridge.org/core/journals/research-directions-quantum-technologies</t>
+  </si>
+  <si>
+    <t>IOS Press</t>
+  </si>
+  <si>
+    <t>1875-8894</t>
+  </si>
+  <si>
+    <t>1874-5393</t>
+  </si>
+  <si>
+    <t>Journal of Pediatric Rehabilitation Medicine</t>
+  </si>
+  <si>
+    <t>http://content.iospress.com/journals/journal-of-pediatric-rehabilitation-medicine-an-inderdisciplinary-approach</t>
+  </si>
+  <si>
+    <t>Byter publiceringsmodell</t>
   </si>
 </sst>
 </file>
@@ -14731,7 +14843,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -14748,7 +14860,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15420,6 +15531,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{818ECA65-891A-4796-8975-C84115FEAC07}" name="Table10" displayName="Table10" ref="A1:H12" totalsRowShown="0">
+  <autoFilter ref="A1:H12" xr:uid="{818ECA65-891A-4796-8975-C84115FEAC07}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{477C26D1-3EDB-482D-9AD7-12F18524C08D}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{7E57711C-4289-47A1-B1A5-0D01100B6273}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{CE0E1BCA-A5DD-4109-A829-4C35BAC00818}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{EAE24DCA-6860-4B7A-A768-23DD616ED275}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{C0E5E087-F812-44F9-962A-DBA9DEFAC16B}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{59EBF387-736D-4EA2-A33D-3DC089AF466A}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{364DCDF9-2911-4AA2-8A3E-64FFC3600206}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{4D4DD041-3B82-4587-97FC-3F0797CF861C}" name="Ändringar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
+  <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{272E03D2-B903-4A54-AFAB-BF685A99CC73}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{A3F8EBD0-FD47-4838-8534-D50BA3A66E27}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{BDC78231-C950-405C-B533-0C8028B67777}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{79BE83BD-A498-4148-BDB1-358884EF76F0}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{D9B050E3-B819-4597-B1FF-7ABD3ACB18C8}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{2611EA9E-7638-4643-BB46-7F96FFB6E615}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{F91A9BC2-D7BB-4087-8D84-14DB80902DE9}" name="CC License options"/>
+    <tableColumn id="8" xr3:uid="{F7F7BC17-7D58-40FF-A098-506023C7E10E}" name="Kommentar"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C1825D77-C83E-444C-87DE-96985B2D5CEA}" name="Table9" displayName="Table9" ref="A4:H46" totalsRowShown="0">
   <autoFilter ref="A4:H46" xr:uid="{C1825D77-C83E-444C-87DE-96985B2D5CEA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H46">
@@ -15439,7 +15584,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{CE2B4EF4-28B3-4045-A99B-E49352BC6CAA}" name="Table8" displayName="Table8" ref="A1:H7" totalsRowShown="0">
   <autoFilter ref="A1:H7" xr:uid="{CE2B4EF4-28B3-4045-A99B-E49352BC6CAA}"/>
   <tableColumns count="8">
@@ -15456,7 +15601,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BC11706E-5DF1-4B2A-A8D7-21E9B7587DA0}" name="Table7" displayName="Table7" ref="A1:H415" totalsRowShown="0">
   <autoFilter ref="A1:H415" xr:uid="{BC11706E-5DF1-4B2A-A8D7-21E9B7587DA0}"/>
   <tableColumns count="8">
@@ -15473,7 +15618,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}" name="Table6" displayName="Table6" ref="A1:H83" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:H83" xr:uid="{AC33AF1B-0170-4030-8BBF-50AAD53D3398}"/>
   <tableColumns count="8">
@@ -15490,7 +15635,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}" name="Table5" displayName="Table5" ref="A1:H116" totalsRowShown="0">
   <autoFilter ref="A1:H116" xr:uid="{46409935-9AB7-4226-9DE9-96FC8F7114BF}"/>
   <tableColumns count="8">
@@ -15507,7 +15652,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}" name="Table4" displayName="Table4" ref="A1:H13" totalsRowShown="0">
   <autoFilter ref="A1:H13" xr:uid="{6BA63721-4A90-4C4E-9C19-E5CE808A40C3}"/>
   <tableColumns count="8">
@@ -15524,7 +15669,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}" name="Table3" displayName="Table3" ref="A1:H154" totalsRowShown="0">
   <autoFilter ref="A1:H154" xr:uid="{2EEB6763-A8F1-4C2F-B334-091D88DB257A}"/>
   <tableColumns count="8">
@@ -15541,7 +15686,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}" name="Table2" displayName="Table2" ref="A1:H124" totalsRowShown="0">
   <autoFilter ref="A1:H124" xr:uid="{08C1665A-9E34-4FEC-87DC-BC2677DF7ADE}"/>
   <tableColumns count="8">
@@ -15553,23 +15698,6 @@
     <tableColumn id="6" xr3:uid="{513C8D2D-ED72-45FA-88A0-77F354F726B7}" name="Publishing model"/>
     <tableColumn id="7" xr3:uid="{3C8265AF-A0BB-4DC1-AA5F-F4B4A4B6F516}" name="CC License options"/>
     <tableColumn id="8" xr3:uid="{EA46CC46-CF94-40AF-AB3A-4F717EEC893F}" name="Kommentar"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}" name="Table1" displayName="Table1" ref="A1:H425" totalsRowShown="0">
-  <autoFilter ref="A1:H425" xr:uid="{A4D62C29-9400-47EC-96FD-883CE94D2ED8}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{272E03D2-B903-4A54-AFAB-BF685A99CC73}" name="Imprint"/>
-    <tableColumn id="2" xr3:uid="{A3F8EBD0-FD47-4838-8534-D50BA3A66E27}" name="ISSN Electronic"/>
-    <tableColumn id="3" xr3:uid="{BDC78231-C950-405C-B533-0C8028B67777}" name="ISSN Print"/>
-    <tableColumn id="4" xr3:uid="{79BE83BD-A498-4148-BDB1-358884EF76F0}" name="Journal Name"/>
-    <tableColumn id="5" xr3:uid="{D9B050E3-B819-4597-B1FF-7ABD3ACB18C8}" name="JournalURL"/>
-    <tableColumn id="6" xr3:uid="{2611EA9E-7638-4643-BB46-7F96FFB6E615}" name="Publishing model"/>
-    <tableColumn id="7" xr3:uid="{F91A9BC2-D7BB-4087-8D84-14DB80902DE9}" name="CC License options"/>
-    <tableColumn id="8" xr3:uid="{F7F7BC17-7D58-40FF-A098-506023C7E10E}" name="Kommentar"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -15871,11 +15999,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C057434-E54E-43F3-BA10-FBF4FFA7D0F4}">
-  <dimension ref="A2:H46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C5241B-7C7B-4CBE-8C16-F1B0098444AC}">
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15890,49 +16018,113 @@
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4724</v>
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4854</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4855</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4856</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4859</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4857</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
+        <v>4861</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>4862</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
+        <v>4863</v>
       </c>
       <c r="F4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>3184</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>4769</v>
+        <v>4864</v>
       </c>
       <c r="D5" t="s">
-        <v>4770</v>
+        <v>4865</v>
       </c>
       <c r="E5" t="s">
-        <v>4771</v>
+        <v>4866</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -15941,113 +16133,113 @@
         <v>12</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>4772</v>
+        <v>4867</v>
       </c>
       <c r="D6" t="s">
-        <v>4773</v>
+        <v>4868</v>
       </c>
       <c r="E6" t="s">
-        <v>4774</v>
+        <v>4869</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>4775</v>
+        <v>4870</v>
       </c>
       <c r="D7" t="s">
-        <v>4776</v>
+        <v>4871</v>
       </c>
       <c r="E7" t="s">
-        <v>4777</v>
+        <v>4872</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
         <v>12</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>4778</v>
+        <v>4873</v>
       </c>
       <c r="D8" t="s">
-        <v>4779</v>
+        <v>4874</v>
       </c>
       <c r="E8" t="s">
-        <v>4780</v>
+        <v>4875</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>4781</v>
+        <v>4876</v>
       </c>
       <c r="D9" t="s">
-        <v>4782</v>
+        <v>4877</v>
       </c>
       <c r="E9" t="s">
-        <v>4783</v>
+        <v>4878</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G9" t="s">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>4784</v>
+        <v>4879</v>
       </c>
       <c r="D10" t="s">
-        <v>4785</v>
+        <v>4880</v>
       </c>
       <c r="E10" t="s">
-        <v>4786</v>
+        <v>4881</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
@@ -16056,844 +16248,56 @@
         <v>12</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>4768</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>4787</v>
+        <v>4882</v>
       </c>
       <c r="D11" t="s">
-        <v>4788</v>
+        <v>4883</v>
       </c>
       <c r="E11" t="s">
-        <v>4789</v>
+        <v>4884</v>
       </c>
       <c r="F11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G11" t="s">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>4857</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>4768</v>
+        <v>4885</v>
       </c>
       <c r="B12" t="s">
-        <v>4790</v>
+        <v>4886</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4887</v>
       </c>
       <c r="D12" t="s">
-        <v>4791</v>
+        <v>4888</v>
       </c>
       <c r="E12" t="s">
-        <v>4792</v>
+        <v>4889</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G12" t="s">
         <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4793</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4794</v>
-      </c>
-      <c r="E13" t="s">
-        <v>4795</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4796</v>
-      </c>
-      <c r="D14" t="s">
-        <v>4797</v>
-      </c>
-      <c r="E14" t="s">
-        <v>4798</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4799</v>
-      </c>
-      <c r="D15" t="s">
-        <v>4800</v>
-      </c>
-      <c r="E15" t="s">
-        <v>4801</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B16" t="s">
-        <v>4802</v>
-      </c>
-      <c r="D16" t="s">
-        <v>4803</v>
-      </c>
-      <c r="E16" t="s">
-        <v>4804</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B17" t="s">
-        <v>4805</v>
-      </c>
-      <c r="D17" t="s">
-        <v>4806</v>
-      </c>
-      <c r="E17" t="s">
-        <v>4807</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>4768</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4808</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4809</v>
-      </c>
-      <c r="E18" t="s">
-        <v>4810</v>
-      </c>
-      <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>4768</v>
-      </c>
-      <c r="D19" t="s">
-        <v>4811</v>
-      </c>
-      <c r="E19" t="s">
-        <v>4812</v>
-      </c>
-      <c r="F19" t="s">
-        <v>20</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>4768</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4813</v>
-      </c>
-      <c r="D20" t="s">
-        <v>4814</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4815</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>4768</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4816</v>
-      </c>
-      <c r="D21" t="s">
-        <v>4817</v>
-      </c>
-      <c r="E21" t="s">
-        <v>4818</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>4768</v>
-      </c>
-      <c r="C22" t="s">
-        <v>4819</v>
-      </c>
-      <c r="D22" t="s">
-        <v>4820</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4821</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B23" t="s">
-        <v>4822</v>
-      </c>
-      <c r="C23" t="s">
-        <v>4823</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4824</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4825</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4826</v>
-      </c>
-      <c r="C24" t="s">
-        <v>4827</v>
-      </c>
-      <c r="D24" t="s">
-        <v>4828</v>
-      </c>
-      <c r="E24" t="s">
-        <v>4829</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B25" t="s">
-        <v>4830</v>
-      </c>
-      <c r="C25" t="s">
-        <v>4831</v>
-      </c>
-      <c r="D25" t="s">
-        <v>4832</v>
-      </c>
-      <c r="E25" t="s">
-        <v>4833</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>4768</v>
-      </c>
-      <c r="B26" t="s">
-        <v>4834</v>
-      </c>
-      <c r="C26" t="s">
-        <v>4835</v>
-      </c>
-      <c r="D26" t="s">
-        <v>4836</v>
-      </c>
-      <c r="E26" t="s">
-        <v>4837</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>4768</v>
-      </c>
-      <c r="C27" t="s">
-        <v>4838</v>
-      </c>
-      <c r="D27" t="s">
-        <v>4839</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4840</v>
-      </c>
-      <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4725</v>
-      </c>
-      <c r="D28" t="s">
-        <v>4726</v>
-      </c>
-      <c r="E28" t="s">
-        <v>4727</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4728</v>
-      </c>
-      <c r="D29" t="s">
-        <v>4729</v>
-      </c>
-      <c r="E29" t="s">
-        <v>4730</v>
-      </c>
-      <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B30" t="s">
-        <v>4731</v>
-      </c>
-      <c r="D30" t="s">
-        <v>4732</v>
-      </c>
-      <c r="E30" t="s">
-        <v>4733</v>
-      </c>
-      <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4734</v>
-      </c>
-      <c r="D31" t="s">
-        <v>4735</v>
-      </c>
-      <c r="E31" t="s">
-        <v>4736</v>
-      </c>
-      <c r="F31" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4737</v>
-      </c>
-      <c r="D32" t="s">
-        <v>4738</v>
-      </c>
-      <c r="E32" t="s">
-        <v>4739</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4740</v>
-      </c>
-      <c r="D33" t="s">
-        <v>4741</v>
-      </c>
-      <c r="E33" t="s">
-        <v>4742</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4743</v>
-      </c>
-      <c r="D34" t="s">
-        <v>4744</v>
-      </c>
-      <c r="E34" t="s">
-        <v>4745</v>
-      </c>
-      <c r="F34" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4746</v>
-      </c>
-      <c r="D35" t="s">
-        <v>4747</v>
-      </c>
-      <c r="E35" t="s">
-        <v>4748</v>
-      </c>
-      <c r="F35" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B36" t="s">
-        <v>4749</v>
-      </c>
-      <c r="D36" t="s">
-        <v>4750</v>
-      </c>
-      <c r="E36" t="s">
-        <v>4751</v>
-      </c>
-      <c r="F36" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4752</v>
-      </c>
-      <c r="D37" t="s">
-        <v>4753</v>
-      </c>
-      <c r="E37" t="s">
-        <v>4754</v>
-      </c>
-      <c r="F37" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B38" t="s">
-        <v>4755</v>
-      </c>
-      <c r="D38" t="s">
-        <v>4756</v>
-      </c>
-      <c r="E38" t="s">
-        <v>4757</v>
-      </c>
-      <c r="F38" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B39" t="s">
-        <v>4758</v>
-      </c>
-      <c r="D39" t="s">
-        <v>4759</v>
-      </c>
-      <c r="E39" t="s">
-        <v>4760</v>
-      </c>
-      <c r="F39" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B40" t="s">
-        <v>4761</v>
-      </c>
-      <c r="D40" t="s">
-        <v>4762</v>
-      </c>
-      <c r="E40" t="s">
-        <v>4763</v>
-      </c>
-      <c r="F40" t="s">
-        <v>3022</v>
-      </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B41" t="s">
-        <v>4764</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4765</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4766</v>
-      </c>
-      <c r="F41" t="s">
-        <v>11</v>
-      </c>
-      <c r="G41" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>4767</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4841</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4842</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4843</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4844</v>
-      </c>
-      <c r="D43" t="s">
-        <v>4845</v>
-      </c>
-      <c r="E43" t="s">
-        <v>4846</v>
-      </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4847</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4848</v>
-      </c>
-      <c r="E44" t="s">
-        <v>4849</v>
-      </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B45" t="s">
-        <v>4850</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4851</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4852</v>
-      </c>
-      <c r="F45" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B46" t="s">
-        <v>2444</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2445</v>
-      </c>
-      <c r="E46" s="14" t="s">
-        <v>4853</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>13</v>
+        <v>4890</v>
       </c>
     </row>
   </sheetData>
@@ -16905,6 +16309,3218 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
+  <dimension ref="A1:H124"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="44.85546875" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D2" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>609</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>458</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1484</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1486</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1487</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1488</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1491</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1492</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1498</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1500</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1501</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1508</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>1512</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1513</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>1516</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1517</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>1520</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1521</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1522</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1526</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1530</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1531</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1532</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1454</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1533</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1539</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1543</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1544</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1545</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1550</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>598</v>
+      </c>
+      <c r="B24" t="s">
+        <v>684</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1555</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1559</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1560</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1561</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1476</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F26" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1565</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1568</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1569</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1572</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1576</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1577</v>
+      </c>
+      <c r="F30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1580</v>
+      </c>
+      <c r="E31" t="s">
+        <v>1581</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1584</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F32" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1588</v>
+      </c>
+      <c r="E33" t="s">
+        <v>1589</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="E34" t="s">
+        <v>1593</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E36" t="s">
+        <v>1601</v>
+      </c>
+      <c r="F36" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1602</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E37" t="s">
+        <v>1605</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E38" t="s">
+        <v>1609</v>
+      </c>
+      <c r="F38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E39" t="s">
+        <v>1613</v>
+      </c>
+      <c r="F39" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>1617</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1618</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E41" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1622</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E42" t="s">
+        <v>1625</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E43" t="s">
+        <v>1629</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1630</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>1633</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1634</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>1637</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E46" t="s">
+        <v>1641</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E47" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F47" t="s">
+        <v>20</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E48" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F48" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E49" t="s">
+        <v>1654</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1657</v>
+      </c>
+      <c r="E50" t="s">
+        <v>1658</v>
+      </c>
+      <c r="F50" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1661</v>
+      </c>
+      <c r="E51" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F51" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E52" t="s">
+        <v>1665</v>
+      </c>
+      <c r="F52" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>1667</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1668</v>
+      </c>
+      <c r="E53" t="s">
+        <v>1669</v>
+      </c>
+      <c r="F53" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1672</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1673</v>
+      </c>
+      <c r="F54" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" t="s">
+        <v>741</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1677</v>
+      </c>
+      <c r="E55" t="s">
+        <v>1678</v>
+      </c>
+      <c r="F55" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" t="s">
+        <v>741</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1681</v>
+      </c>
+      <c r="E56" t="s">
+        <v>1682</v>
+      </c>
+      <c r="F56" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" t="s">
+        <v>741</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1685</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>741</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1689</v>
+      </c>
+      <c r="E58" t="s">
+        <v>1690</v>
+      </c>
+      <c r="F58" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" t="s">
+        <v>741</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E59" t="s">
+        <v>1694</v>
+      </c>
+      <c r="F59" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" t="s">
+        <v>741</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1697</v>
+      </c>
+      <c r="E60" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F60" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" t="s">
+        <v>741</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1701</v>
+      </c>
+      <c r="E61" t="s">
+        <v>1702</v>
+      </c>
+      <c r="F61" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" t="s">
+        <v>741</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1705</v>
+      </c>
+      <c r="E62" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F62" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" t="s">
+        <v>741</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E63" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F63" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" t="s">
+        <v>741</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1713</v>
+      </c>
+      <c r="E64" t="s">
+        <v>1714</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" t="s">
+        <v>741</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1717</v>
+      </c>
+      <c r="E65" t="s">
+        <v>1718</v>
+      </c>
+      <c r="F65" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" t="s">
+        <v>741</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E66" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F66" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>741</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1725</v>
+      </c>
+      <c r="E67" t="s">
+        <v>1726</v>
+      </c>
+      <c r="F67" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>741</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1729</v>
+      </c>
+      <c r="E68" t="s">
+        <v>1730</v>
+      </c>
+      <c r="F68" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>741</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E69" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F69" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>741</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1737</v>
+      </c>
+      <c r="E70" t="s">
+        <v>1738</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>741</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1741</v>
+      </c>
+      <c r="E71" t="s">
+        <v>1742</v>
+      </c>
+      <c r="F71" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>741</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1745</v>
+      </c>
+      <c r="E72" t="s">
+        <v>1746</v>
+      </c>
+      <c r="F72" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1750</v>
+      </c>
+      <c r="E73" t="s">
+        <v>1751</v>
+      </c>
+      <c r="F73" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1754</v>
+      </c>
+      <c r="E74" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F74" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1756</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1757</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1758</v>
+      </c>
+      <c r="E75" t="s">
+        <v>1759</v>
+      </c>
+      <c r="F75" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1760</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1762</v>
+      </c>
+      <c r="E76" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F76" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1764</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1765</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1766</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1767</v>
+      </c>
+      <c r="F77" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1768</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1770</v>
+      </c>
+      <c r="E78" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1772</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1773</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1774</v>
+      </c>
+      <c r="E79" t="s">
+        <v>1775</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1778</v>
+      </c>
+      <c r="E80" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1782</v>
+      </c>
+      <c r="E81" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F81" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1786</v>
+      </c>
+      <c r="E82" t="s">
+        <v>1787</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1790</v>
+      </c>
+      <c r="E83" t="s">
+        <v>1791</v>
+      </c>
+      <c r="F83" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1794</v>
+      </c>
+      <c r="E84" t="s">
+        <v>1795</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1798</v>
+      </c>
+      <c r="E85" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1802</v>
+      </c>
+      <c r="E86" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1806</v>
+      </c>
+      <c r="E87" t="s">
+        <v>1807</v>
+      </c>
+      <c r="F87" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1810</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F88" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1814</v>
+      </c>
+      <c r="E89" t="s">
+        <v>1815</v>
+      </c>
+      <c r="F89" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1818</v>
+      </c>
+      <c r="E90" t="s">
+        <v>1819</v>
+      </c>
+      <c r="F90" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1820</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1821</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1822</v>
+      </c>
+      <c r="F91" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1824</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1825</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F92" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1828</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1829</v>
+      </c>
+      <c r="E93" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F93" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1831</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1832</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1833</v>
+      </c>
+      <c r="E94" t="s">
+        <v>1834</v>
+      </c>
+      <c r="F94" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1835</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1836</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1837</v>
+      </c>
+      <c r="E95" t="s">
+        <v>1838</v>
+      </c>
+      <c r="F95" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1840</v>
+      </c>
+      <c r="E96" t="s">
+        <v>1841</v>
+      </c>
+      <c r="F96" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1843</v>
+      </c>
+      <c r="E97" t="s">
+        <v>1844</v>
+      </c>
+      <c r="F97" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1847</v>
+      </c>
+      <c r="E98" t="s">
+        <v>1848</v>
+      </c>
+      <c r="F98" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1850</v>
+      </c>
+      <c r="E99" t="s">
+        <v>1851</v>
+      </c>
+      <c r="F99" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1852</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E100" t="s">
+        <v>1854</v>
+      </c>
+      <c r="F100" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1856</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F101" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1858</v>
+      </c>
+      <c r="E102" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F102" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1860</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1861</v>
+      </c>
+      <c r="E103" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F103" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1863</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1865</v>
+      </c>
+      <c r="E104" t="s">
+        <v>1866</v>
+      </c>
+      <c r="F104" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>598</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1868</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1869</v>
+      </c>
+      <c r="E105" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F105" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1862</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1872</v>
+      </c>
+      <c r="E106" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F106" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1876</v>
+      </c>
+      <c r="E107" t="s">
+        <v>1877</v>
+      </c>
+      <c r="F107" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="4" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>1880</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>1881</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1884</v>
+      </c>
+      <c r="E109" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F109" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E110" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F110" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1891</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E111" t="s">
+        <v>1893</v>
+      </c>
+      <c r="F111" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1895</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E112" t="s">
+        <v>1897</v>
+      </c>
+      <c r="F112" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1899</v>
+      </c>
+      <c r="E113" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F113" t="s">
+        <v>11</v>
+      </c>
+      <c r="G113" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B114" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1901</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F114" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B115" t="s">
+        <v>1903</v>
+      </c>
+      <c r="D115" t="s">
+        <v>1904</v>
+      </c>
+      <c r="E115" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F115" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B116" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1907</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E116" t="s">
+        <v>1909</v>
+      </c>
+      <c r="F116" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H116" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B117" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1478</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1432</v>
+      </c>
+      <c r="E117" t="s">
+        <v>1479</v>
+      </c>
+      <c r="F117" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B118" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D118" t="s">
+        <v>1910</v>
+      </c>
+      <c r="E118" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F118" t="s">
+        <v>11</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H118" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B119" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D119" t="s">
+        <v>1912</v>
+      </c>
+      <c r="E119" t="s">
+        <v>1913</v>
+      </c>
+      <c r="F119" t="s">
+        <v>11</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B120" t="s">
+        <v>1915</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1916</v>
+      </c>
+      <c r="E120" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F120" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B121" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D121" t="s">
+        <v>1908</v>
+      </c>
+      <c r="E121" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F121" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B122" t="s">
+        <v>1919</v>
+      </c>
+      <c r="D122" t="s">
+        <v>1920</v>
+      </c>
+      <c r="E122" t="s">
+        <v>1921</v>
+      </c>
+      <c r="F122" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B123" t="s">
+        <v>1922</v>
+      </c>
+      <c r="D123" t="s">
+        <v>1923</v>
+      </c>
+      <c r="E123" t="s">
+        <v>1924</v>
+      </c>
+      <c r="F123" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B124" t="s">
+        <v>1925</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1926</v>
+      </c>
+      <c r="E124" t="s">
+        <v>1927</v>
+      </c>
+      <c r="F124" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B44">
+    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B45">
+    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B53">
+    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B108">
+    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D44">
+    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D45">
+    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D108">
+    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E108">
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>
@@ -27345,6 +29961,1040 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C057434-E54E-43F3-BA10-FBF4FFA7D0F4}">
+  <dimension ref="A2:H46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4769</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4770</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4771</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4772</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4773</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4774</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4775</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4776</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4777</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4778</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4779</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4780</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4781</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4782</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4783</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4784</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4785</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4786</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4787</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4788</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4789</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4790</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4791</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4792</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4793</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4794</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4795</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4796</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4797</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4798</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4799</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4800</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4801</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4802</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4803</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4804</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4805</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4806</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4807</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4808</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4809</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4810</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4768</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4811</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4812</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4813</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4814</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4815</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4816</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4817</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4818</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4819</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4820</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4821</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4822</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4823</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4824</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4825</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4826</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4827</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4828</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4829</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4830</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4831</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4832</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4833</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>4768</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4834</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4835</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4836</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4837</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>4768</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4838</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4839</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4840</v>
+      </c>
+      <c r="F27" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4725</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4726</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4727</v>
+      </c>
+      <c r="F28" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4728</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4729</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4730</v>
+      </c>
+      <c r="F29" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B30" t="s">
+        <v>4731</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4732</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4733</v>
+      </c>
+      <c r="F30" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B31" t="s">
+        <v>4734</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4735</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4736</v>
+      </c>
+      <c r="F31" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B32" t="s">
+        <v>4737</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4738</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4739</v>
+      </c>
+      <c r="F32" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4740</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4741</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4742</v>
+      </c>
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4743</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4744</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4745</v>
+      </c>
+      <c r="F34" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B35" t="s">
+        <v>4746</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4747</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4748</v>
+      </c>
+      <c r="F35" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B36" t="s">
+        <v>4749</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4750</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4751</v>
+      </c>
+      <c r="F36" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G36" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B37" t="s">
+        <v>4752</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4753</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4754</v>
+      </c>
+      <c r="F37" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B38" t="s">
+        <v>4755</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4756</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4757</v>
+      </c>
+      <c r="F38" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G38" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B39" t="s">
+        <v>4758</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4759</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4760</v>
+      </c>
+      <c r="F39" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G39" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B40" t="s">
+        <v>4761</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4762</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4763</v>
+      </c>
+      <c r="F40" t="s">
+        <v>3022</v>
+      </c>
+      <c r="G40" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4764</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4765</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4766</v>
+      </c>
+      <c r="F41" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" t="s">
+        <v>4767</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B42" t="s">
+        <v>4841</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4842</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4843</v>
+      </c>
+      <c r="F42" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B43" t="s">
+        <v>4844</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4845</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4846</v>
+      </c>
+      <c r="F43" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B44" t="s">
+        <v>4847</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4848</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4849</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4850</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4851</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4852</v>
+      </c>
+      <c r="F45" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2444</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2445</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4853</v>
+      </c>
+      <c r="F46" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DC804-C375-4109-8D8C-3EB8BA8A7D4E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -27536,7 +31186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBC7FA-6A07-487D-966D-C7FD419939F1}">
   <dimension ref="A1:H415"/>
   <sheetViews>
@@ -38272,7 +41922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323C715-D199-47DF-ABDA-8E0504AA40AC}">
   <dimension ref="A1:H83"/>
   <sheetViews>
@@ -40257,11 +43907,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417FD35-C1F2-4856-A758-D00399B63FAA}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -41757,7 +45407,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
@@ -44459,7 +48109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -44789,7 +48439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
   <dimension ref="A1:H154"/>
   <sheetViews>
@@ -48495,3216 +52145,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
-  <dimension ref="A1:H124"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="44.85546875" customWidth="1"/>
-    <col min="5" max="5" width="26.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>605</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1482</v>
-      </c>
-      <c r="D2" t="s">
-        <v>658</v>
-      </c>
-      <c r="E2" t="s">
-        <v>659</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>609</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>458</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1483</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1484</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1486</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1487</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1488</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1491</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1494</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1495</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1496</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1498</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1499</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1500</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1501</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1502</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>1493</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1504</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1505</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1508</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1509</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1511</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>1512</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1513</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1515</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>1516</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1517</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1518</v>
-      </c>
-      <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1519</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>1520</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1521</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1522</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B14" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" t="s">
-        <v>172</v>
-      </c>
-      <c r="D14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1523</v>
-      </c>
-      <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1524</v>
-      </c>
-      <c r="C15" t="s">
-        <v>1525</v>
-      </c>
-      <c r="D15" t="s">
-        <v>1526</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1528</v>
-      </c>
-      <c r="C16" t="s">
-        <v>1529</v>
-      </c>
-      <c r="D16" t="s">
-        <v>1530</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1531</v>
-      </c>
-      <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1453</v>
-      </c>
-      <c r="C17" t="s">
-        <v>1532</v>
-      </c>
-      <c r="D17" t="s">
-        <v>1454</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1533</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B18" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D18" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1537</v>
-      </c>
-      <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B19" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C19" t="s">
-        <v>1539</v>
-      </c>
-      <c r="D19" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1541</v>
-      </c>
-      <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B20" t="s">
-        <v>1542</v>
-      </c>
-      <c r="C20" t="s">
-        <v>1543</v>
-      </c>
-      <c r="D20" t="s">
-        <v>1544</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1545</v>
-      </c>
-      <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C21" t="s">
-        <v>1546</v>
-      </c>
-      <c r="D21" t="s">
-        <v>1469</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1547</v>
-      </c>
-      <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B22" t="s">
-        <v>1548</v>
-      </c>
-      <c r="C22" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1550</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1551</v>
-      </c>
-      <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B23" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" t="s">
-        <v>1553</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>598</v>
-      </c>
-      <c r="B24" t="s">
-        <v>684</v>
-      </c>
-      <c r="D24" t="s">
-        <v>1555</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1556</v>
-      </c>
-      <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B25" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C25" t="s">
-        <v>1558</v>
-      </c>
-      <c r="D25" t="s">
-        <v>1559</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1560</v>
-      </c>
-      <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B26" t="s">
-        <v>1475</v>
-      </c>
-      <c r="C26" t="s">
-        <v>1561</v>
-      </c>
-      <c r="D26" t="s">
-        <v>1476</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1562</v>
-      </c>
-      <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B27" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C27" t="s">
-        <v>1564</v>
-      </c>
-      <c r="D27" t="s">
-        <v>1565</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1566</v>
-      </c>
-      <c r="F27" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1567</v>
-      </c>
-      <c r="D28" t="s">
-        <v>1568</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1569</v>
-      </c>
-      <c r="F28" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1570</v>
-      </c>
-      <c r="C29" t="s">
-        <v>1571</v>
-      </c>
-      <c r="D29" t="s">
-        <v>1572</v>
-      </c>
-      <c r="E29" t="s">
-        <v>1573</v>
-      </c>
-      <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1574</v>
-      </c>
-      <c r="C30" t="s">
-        <v>1575</v>
-      </c>
-      <c r="D30" t="s">
-        <v>1576</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1577</v>
-      </c>
-      <c r="F30" t="s">
-        <v>20</v>
-      </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1578</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1579</v>
-      </c>
-      <c r="D31" t="s">
-        <v>1580</v>
-      </c>
-      <c r="E31" t="s">
-        <v>1581</v>
-      </c>
-      <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1582</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1583</v>
-      </c>
-      <c r="D32" t="s">
-        <v>1584</v>
-      </c>
-      <c r="E32" t="s">
-        <v>1585</v>
-      </c>
-      <c r="F32" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1586</v>
-      </c>
-      <c r="C33" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D33" t="s">
-        <v>1588</v>
-      </c>
-      <c r="E33" t="s">
-        <v>1589</v>
-      </c>
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1590</v>
-      </c>
-      <c r="C34" t="s">
-        <v>1591</v>
-      </c>
-      <c r="D34" t="s">
-        <v>1592</v>
-      </c>
-      <c r="E34" t="s">
-        <v>1593</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1594</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D35" t="s">
-        <v>1596</v>
-      </c>
-      <c r="E35" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C36" t="s">
-        <v>1599</v>
-      </c>
-      <c r="D36" t="s">
-        <v>1600</v>
-      </c>
-      <c r="E36" t="s">
-        <v>1601</v>
-      </c>
-      <c r="F36" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1603</v>
-      </c>
-      <c r="D37" t="s">
-        <v>1604</v>
-      </c>
-      <c r="E37" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C38" t="s">
-        <v>1607</v>
-      </c>
-      <c r="D38" t="s">
-        <v>1608</v>
-      </c>
-      <c r="E38" t="s">
-        <v>1609</v>
-      </c>
-      <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1610</v>
-      </c>
-      <c r="C39" t="s">
-        <v>1611</v>
-      </c>
-      <c r="D39" t="s">
-        <v>1612</v>
-      </c>
-      <c r="E39" t="s">
-        <v>1613</v>
-      </c>
-      <c r="F39" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1614</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>1615</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>1616</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1618</v>
-      </c>
-      <c r="C41" t="s">
-        <v>1619</v>
-      </c>
-      <c r="D41" t="s">
-        <v>1620</v>
-      </c>
-      <c r="E41" t="s">
-        <v>1621</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1622</v>
-      </c>
-      <c r="C42" t="s">
-        <v>1623</v>
-      </c>
-      <c r="D42" t="s">
-        <v>1624</v>
-      </c>
-      <c r="E42" t="s">
-        <v>1625</v>
-      </c>
-      <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1627</v>
-      </c>
-      <c r="D43" t="s">
-        <v>1628</v>
-      </c>
-      <c r="E43" t="s">
-        <v>1629</v>
-      </c>
-      <c r="F43" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1630</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>1631</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>1632</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>1633</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1634</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>1635</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>1636</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>1637</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C46" t="s">
-        <v>1639</v>
-      </c>
-      <c r="D46" t="s">
-        <v>1640</v>
-      </c>
-      <c r="E46" t="s">
-        <v>1641</v>
-      </c>
-      <c r="F46" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C47" t="s">
-        <v>1644</v>
-      </c>
-      <c r="D47" t="s">
-        <v>1645</v>
-      </c>
-      <c r="E47" t="s">
-        <v>1646</v>
-      </c>
-      <c r="F47" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C48" t="s">
-        <v>1648</v>
-      </c>
-      <c r="D48" t="s">
-        <v>1649</v>
-      </c>
-      <c r="E48" t="s">
-        <v>1650</v>
-      </c>
-      <c r="F48" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" t="s">
-        <v>1642</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C49" t="s">
-        <v>1652</v>
-      </c>
-      <c r="D49" t="s">
-        <v>1653</v>
-      </c>
-      <c r="E49" t="s">
-        <v>1654</v>
-      </c>
-      <c r="F49" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C50" t="s">
-        <v>1656</v>
-      </c>
-      <c r="D50" t="s">
-        <v>1657</v>
-      </c>
-      <c r="E50" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F50" t="s">
-        <v>11</v>
-      </c>
-      <c r="G50" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C51" t="s">
-        <v>1660</v>
-      </c>
-      <c r="D51" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E51" t="s">
-        <v>1662</v>
-      </c>
-      <c r="F51" t="s">
-        <v>11</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>1510</v>
-      </c>
-      <c r="C52" t="s">
-        <v>1663</v>
-      </c>
-      <c r="D52" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E52" t="s">
-        <v>1665</v>
-      </c>
-      <c r="F52" t="s">
-        <v>11</v>
-      </c>
-      <c r="G52" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1666</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>1667</v>
-      </c>
-      <c r="D53" t="s">
-        <v>1668</v>
-      </c>
-      <c r="E53" t="s">
-        <v>1669</v>
-      </c>
-      <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" t="s">
-        <v>1481</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C54" t="s">
-        <v>1671</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1672</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1673</v>
-      </c>
-      <c r="F54" t="s">
-        <v>11</v>
-      </c>
-      <c r="G54" t="s">
-        <v>741</v>
-      </c>
-      <c r="H54" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C55" t="s">
-        <v>1676</v>
-      </c>
-      <c r="D55" t="s">
-        <v>1677</v>
-      </c>
-      <c r="E55" t="s">
-        <v>1678</v>
-      </c>
-      <c r="F55" t="s">
-        <v>11</v>
-      </c>
-      <c r="G55" t="s">
-        <v>741</v>
-      </c>
-      <c r="H55" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C56" t="s">
-        <v>1680</v>
-      </c>
-      <c r="D56" t="s">
-        <v>1681</v>
-      </c>
-      <c r="E56" t="s">
-        <v>1682</v>
-      </c>
-      <c r="F56" t="s">
-        <v>11</v>
-      </c>
-      <c r="G56" t="s">
-        <v>741</v>
-      </c>
-      <c r="H56" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C57" t="s">
-        <v>1684</v>
-      </c>
-      <c r="D57" t="s">
-        <v>1685</v>
-      </c>
-      <c r="E57" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>741</v>
-      </c>
-      <c r="H57" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C58" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D58" t="s">
-        <v>1689</v>
-      </c>
-      <c r="E58" t="s">
-        <v>1690</v>
-      </c>
-      <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s">
-        <v>741</v>
-      </c>
-      <c r="H58" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C59" t="s">
-        <v>1692</v>
-      </c>
-      <c r="D59" t="s">
-        <v>1693</v>
-      </c>
-      <c r="E59" t="s">
-        <v>1694</v>
-      </c>
-      <c r="F59" t="s">
-        <v>11</v>
-      </c>
-      <c r="G59" t="s">
-        <v>741</v>
-      </c>
-      <c r="H59" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C60" t="s">
-        <v>1696</v>
-      </c>
-      <c r="D60" t="s">
-        <v>1697</v>
-      </c>
-      <c r="E60" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F60" t="s">
-        <v>11</v>
-      </c>
-      <c r="G60" t="s">
-        <v>741</v>
-      </c>
-      <c r="H60" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C61" t="s">
-        <v>1700</v>
-      </c>
-      <c r="D61" t="s">
-        <v>1701</v>
-      </c>
-      <c r="E61" t="s">
-        <v>1702</v>
-      </c>
-      <c r="F61" t="s">
-        <v>11</v>
-      </c>
-      <c r="G61" t="s">
-        <v>741</v>
-      </c>
-      <c r="H61" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C62" t="s">
-        <v>1704</v>
-      </c>
-      <c r="D62" t="s">
-        <v>1705</v>
-      </c>
-      <c r="E62" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F62" t="s">
-        <v>11</v>
-      </c>
-      <c r="G62" t="s">
-        <v>741</v>
-      </c>
-      <c r="H62" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C63" t="s">
-        <v>1708</v>
-      </c>
-      <c r="D63" t="s">
-        <v>1709</v>
-      </c>
-      <c r="E63" t="s">
-        <v>1710</v>
-      </c>
-      <c r="F63" t="s">
-        <v>11</v>
-      </c>
-      <c r="G63" t="s">
-        <v>741</v>
-      </c>
-      <c r="H63" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C64" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D64" t="s">
-        <v>1713</v>
-      </c>
-      <c r="E64" t="s">
-        <v>1714</v>
-      </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s">
-        <v>741</v>
-      </c>
-      <c r="H64" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C65" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D65" t="s">
-        <v>1717</v>
-      </c>
-      <c r="E65" t="s">
-        <v>1718</v>
-      </c>
-      <c r="F65" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" t="s">
-        <v>741</v>
-      </c>
-      <c r="H65" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C66" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D66" t="s">
-        <v>1721</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1722</v>
-      </c>
-      <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s">
-        <v>741</v>
-      </c>
-      <c r="H66" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C67" t="s">
-        <v>1724</v>
-      </c>
-      <c r="D67" t="s">
-        <v>1725</v>
-      </c>
-      <c r="E67" t="s">
-        <v>1726</v>
-      </c>
-      <c r="F67" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" t="s">
-        <v>741</v>
-      </c>
-      <c r="H67" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C68" t="s">
-        <v>1728</v>
-      </c>
-      <c r="D68" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E68" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F68" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" t="s">
-        <v>741</v>
-      </c>
-      <c r="H68" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C69" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D69" t="s">
-        <v>1733</v>
-      </c>
-      <c r="E69" t="s">
-        <v>1734</v>
-      </c>
-      <c r="F69" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" t="s">
-        <v>741</v>
-      </c>
-      <c r="H69" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C70" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D70" t="s">
-        <v>1737</v>
-      </c>
-      <c r="E70" t="s">
-        <v>1738</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>741</v>
-      </c>
-      <c r="H70" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B71" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C71" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D71" t="s">
-        <v>1741</v>
-      </c>
-      <c r="E71" t="s">
-        <v>1742</v>
-      </c>
-      <c r="F71" t="s">
-        <v>11</v>
-      </c>
-      <c r="G71" t="s">
-        <v>741</v>
-      </c>
-      <c r="H71" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B72" t="s">
-        <v>1743</v>
-      </c>
-      <c r="C72" t="s">
-        <v>1744</v>
-      </c>
-      <c r="D72" t="s">
-        <v>1745</v>
-      </c>
-      <c r="E72" t="s">
-        <v>1746</v>
-      </c>
-      <c r="F72" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B73" t="s">
-        <v>1748</v>
-      </c>
-      <c r="C73" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D73" t="s">
-        <v>1750</v>
-      </c>
-      <c r="E73" t="s">
-        <v>1751</v>
-      </c>
-      <c r="F73" t="s">
-        <v>11</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B74" t="s">
-        <v>1752</v>
-      </c>
-      <c r="C74" t="s">
-        <v>1753</v>
-      </c>
-      <c r="D74" t="s">
-        <v>1754</v>
-      </c>
-      <c r="E74" t="s">
-        <v>1755</v>
-      </c>
-      <c r="F74" t="s">
-        <v>11</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B75" t="s">
-        <v>1756</v>
-      </c>
-      <c r="C75" t="s">
-        <v>1757</v>
-      </c>
-      <c r="D75" t="s">
-        <v>1758</v>
-      </c>
-      <c r="E75" t="s">
-        <v>1759</v>
-      </c>
-      <c r="F75" t="s">
-        <v>11</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B76" t="s">
-        <v>1760</v>
-      </c>
-      <c r="C76" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D76" t="s">
-        <v>1762</v>
-      </c>
-      <c r="E76" t="s">
-        <v>1763</v>
-      </c>
-      <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B77" t="s">
-        <v>1764</v>
-      </c>
-      <c r="C77" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D77" t="s">
-        <v>1766</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1767</v>
-      </c>
-      <c r="F77" t="s">
-        <v>11</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B78" t="s">
-        <v>1768</v>
-      </c>
-      <c r="C78" t="s">
-        <v>1769</v>
-      </c>
-      <c r="D78" t="s">
-        <v>1770</v>
-      </c>
-      <c r="E78" t="s">
-        <v>1771</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B79" t="s">
-        <v>1772</v>
-      </c>
-      <c r="C79" t="s">
-        <v>1773</v>
-      </c>
-      <c r="D79" t="s">
-        <v>1774</v>
-      </c>
-      <c r="E79" t="s">
-        <v>1775</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B80" t="s">
-        <v>1776</v>
-      </c>
-      <c r="C80" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D80" t="s">
-        <v>1778</v>
-      </c>
-      <c r="E80" t="s">
-        <v>1779</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B81" t="s">
-        <v>1780</v>
-      </c>
-      <c r="C81" t="s">
-        <v>1781</v>
-      </c>
-      <c r="D81" t="s">
-        <v>1782</v>
-      </c>
-      <c r="E81" t="s">
-        <v>1783</v>
-      </c>
-      <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B82" t="s">
-        <v>1784</v>
-      </c>
-      <c r="C82" t="s">
-        <v>1785</v>
-      </c>
-      <c r="D82" t="s">
-        <v>1786</v>
-      </c>
-      <c r="E82" t="s">
-        <v>1787</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B83" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C83" t="s">
-        <v>1789</v>
-      </c>
-      <c r="D83" t="s">
-        <v>1790</v>
-      </c>
-      <c r="E83" t="s">
-        <v>1791</v>
-      </c>
-      <c r="F83" t="s">
-        <v>11</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B84" t="s">
-        <v>1792</v>
-      </c>
-      <c r="C84" t="s">
-        <v>1793</v>
-      </c>
-      <c r="D84" t="s">
-        <v>1794</v>
-      </c>
-      <c r="E84" t="s">
-        <v>1795</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B85" t="s">
-        <v>1796</v>
-      </c>
-      <c r="C85" t="s">
-        <v>1797</v>
-      </c>
-      <c r="D85" t="s">
-        <v>1798</v>
-      </c>
-      <c r="E85" t="s">
-        <v>1799</v>
-      </c>
-      <c r="F85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B86" t="s">
-        <v>1800</v>
-      </c>
-      <c r="C86" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D86" t="s">
-        <v>1802</v>
-      </c>
-      <c r="E86" t="s">
-        <v>1803</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B87" t="s">
-        <v>1804</v>
-      </c>
-      <c r="C87" t="s">
-        <v>1805</v>
-      </c>
-      <c r="D87" t="s">
-        <v>1806</v>
-      </c>
-      <c r="E87" t="s">
-        <v>1807</v>
-      </c>
-      <c r="F87" t="s">
-        <v>11</v>
-      </c>
-      <c r="G87" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B88" t="s">
-        <v>1808</v>
-      </c>
-      <c r="C88" t="s">
-        <v>1809</v>
-      </c>
-      <c r="D88" t="s">
-        <v>1810</v>
-      </c>
-      <c r="E88" t="s">
-        <v>1811</v>
-      </c>
-      <c r="F88" t="s">
-        <v>11</v>
-      </c>
-      <c r="G88" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B89" t="s">
-        <v>1812</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1813</v>
-      </c>
-      <c r="D89" t="s">
-        <v>1814</v>
-      </c>
-      <c r="E89" t="s">
-        <v>1815</v>
-      </c>
-      <c r="F89" t="s">
-        <v>11</v>
-      </c>
-      <c r="G89" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B90" t="s">
-        <v>1816</v>
-      </c>
-      <c r="C90" t="s">
-        <v>1817</v>
-      </c>
-      <c r="D90" t="s">
-        <v>1818</v>
-      </c>
-      <c r="E90" t="s">
-        <v>1819</v>
-      </c>
-      <c r="F90" t="s">
-        <v>11</v>
-      </c>
-      <c r="G90" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B91" t="s">
-        <v>1820</v>
-      </c>
-      <c r="D91" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E91" t="s">
-        <v>1822</v>
-      </c>
-      <c r="F91" t="s">
-        <v>11</v>
-      </c>
-      <c r="G91" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B92" t="s">
-        <v>1823</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1824</v>
-      </c>
-      <c r="D92" t="s">
-        <v>1825</v>
-      </c>
-      <c r="E92" t="s">
-        <v>1826</v>
-      </c>
-      <c r="F92" t="s">
-        <v>11</v>
-      </c>
-      <c r="G92" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B93" t="s">
-        <v>1827</v>
-      </c>
-      <c r="C93" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D93" t="s">
-        <v>1829</v>
-      </c>
-      <c r="E93" t="s">
-        <v>1830</v>
-      </c>
-      <c r="F93" t="s">
-        <v>11</v>
-      </c>
-      <c r="G93" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B94" t="s">
-        <v>1831</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1832</v>
-      </c>
-      <c r="D94" t="s">
-        <v>1833</v>
-      </c>
-      <c r="E94" t="s">
-        <v>1834</v>
-      </c>
-      <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B95" t="s">
-        <v>1835</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1836</v>
-      </c>
-      <c r="D95" t="s">
-        <v>1837</v>
-      </c>
-      <c r="E95" t="s">
-        <v>1838</v>
-      </c>
-      <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B96" t="s">
-        <v>1839</v>
-      </c>
-      <c r="D96" t="s">
-        <v>1840</v>
-      </c>
-      <c r="E96" t="s">
-        <v>1841</v>
-      </c>
-      <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" t="s">
-        <v>1747</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B97" t="s">
-        <v>1842</v>
-      </c>
-      <c r="D97" t="s">
-        <v>1843</v>
-      </c>
-      <c r="E97" t="s">
-        <v>1844</v>
-      </c>
-      <c r="F97" t="s">
-        <v>11</v>
-      </c>
-      <c r="G97" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B98" t="s">
-        <v>1846</v>
-      </c>
-      <c r="D98" t="s">
-        <v>1847</v>
-      </c>
-      <c r="E98" t="s">
-        <v>1848</v>
-      </c>
-      <c r="F98" t="s">
-        <v>11</v>
-      </c>
-      <c r="G98" t="s">
-        <v>1845</v>
-      </c>
-      <c r="H98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B99" t="s">
-        <v>1849</v>
-      </c>
-      <c r="D99" t="s">
-        <v>1850</v>
-      </c>
-      <c r="E99" t="s">
-        <v>1851</v>
-      </c>
-      <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B100" t="s">
-        <v>1852</v>
-      </c>
-      <c r="D100" t="s">
-        <v>1853</v>
-      </c>
-      <c r="E100" t="s">
-        <v>1854</v>
-      </c>
-      <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B101" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D101" t="s">
-        <v>1856</v>
-      </c>
-      <c r="E101" t="s">
-        <v>1514</v>
-      </c>
-      <c r="F101" t="s">
-        <v>11</v>
-      </c>
-      <c r="G101" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B102" t="s">
-        <v>1857</v>
-      </c>
-      <c r="D102" t="s">
-        <v>1858</v>
-      </c>
-      <c r="E102" t="s">
-        <v>1859</v>
-      </c>
-      <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B103" t="s">
-        <v>1860</v>
-      </c>
-      <c r="D103" t="s">
-        <v>1861</v>
-      </c>
-      <c r="E103" t="s">
-        <v>1527</v>
-      </c>
-      <c r="F103" t="s">
-        <v>11</v>
-      </c>
-      <c r="G103" t="s">
-        <v>1390</v>
-      </c>
-      <c r="H103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B104" t="s">
-        <v>1863</v>
-      </c>
-      <c r="C104" t="s">
-        <v>1864</v>
-      </c>
-      <c r="D104" t="s">
-        <v>1865</v>
-      </c>
-      <c r="E104" t="s">
-        <v>1866</v>
-      </c>
-      <c r="F104" t="s">
-        <v>11</v>
-      </c>
-      <c r="G104" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>598</v>
-      </c>
-      <c r="B105" t="s">
-        <v>1867</v>
-      </c>
-      <c r="C105" t="s">
-        <v>1868</v>
-      </c>
-      <c r="D105" t="s">
-        <v>1869</v>
-      </c>
-      <c r="E105" t="s">
-        <v>1870</v>
-      </c>
-      <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>1862</v>
-      </c>
-      <c r="B106" t="s">
-        <v>1871</v>
-      </c>
-      <c r="D106" t="s">
-        <v>1872</v>
-      </c>
-      <c r="E106" t="s">
-        <v>1873</v>
-      </c>
-      <c r="F106" t="s">
-        <v>11</v>
-      </c>
-      <c r="G106" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B107" t="s">
-        <v>1874</v>
-      </c>
-      <c r="C107" t="s">
-        <v>1875</v>
-      </c>
-      <c r="D107" t="s">
-        <v>1876</v>
-      </c>
-      <c r="E107" t="s">
-        <v>1877</v>
-      </c>
-      <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="4" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>1878</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>1879</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>1880</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>1881</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G108" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B109" t="s">
-        <v>1882</v>
-      </c>
-      <c r="C109" t="s">
-        <v>1883</v>
-      </c>
-      <c r="D109" t="s">
-        <v>1884</v>
-      </c>
-      <c r="E109" t="s">
-        <v>1885</v>
-      </c>
-      <c r="F109" t="s">
-        <v>11</v>
-      </c>
-      <c r="G109" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B110" t="s">
-        <v>1886</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1887</v>
-      </c>
-      <c r="D110" t="s">
-        <v>1888</v>
-      </c>
-      <c r="E110" t="s">
-        <v>1889</v>
-      </c>
-      <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B111" t="s">
-        <v>1890</v>
-      </c>
-      <c r="C111" t="s">
-        <v>1891</v>
-      </c>
-      <c r="D111" t="s">
-        <v>1892</v>
-      </c>
-      <c r="E111" t="s">
-        <v>1893</v>
-      </c>
-      <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B112" t="s">
-        <v>1894</v>
-      </c>
-      <c r="C112" t="s">
-        <v>1895</v>
-      </c>
-      <c r="D112" t="s">
-        <v>1896</v>
-      </c>
-      <c r="E112" t="s">
-        <v>1897</v>
-      </c>
-      <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B113" t="s">
-        <v>1898</v>
-      </c>
-      <c r="D113" t="s">
-        <v>1899</v>
-      </c>
-      <c r="E113" t="s">
-        <v>1554</v>
-      </c>
-      <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B114" t="s">
-        <v>1900</v>
-      </c>
-      <c r="D114" t="s">
-        <v>1901</v>
-      </c>
-      <c r="E114" t="s">
-        <v>1902</v>
-      </c>
-      <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B115" t="s">
-        <v>1903</v>
-      </c>
-      <c r="D115" t="s">
-        <v>1904</v>
-      </c>
-      <c r="E115" t="s">
-        <v>1905</v>
-      </c>
-      <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B116" t="s">
-        <v>1906</v>
-      </c>
-      <c r="C116" t="s">
-        <v>1907</v>
-      </c>
-      <c r="D116" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E116" t="s">
-        <v>1909</v>
-      </c>
-      <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H116" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B117" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C117" t="s">
-        <v>1478</v>
-      </c>
-      <c r="D117" t="s">
-        <v>1432</v>
-      </c>
-      <c r="E117" t="s">
-        <v>1479</v>
-      </c>
-      <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H117" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B118" t="s">
-        <v>1033</v>
-      </c>
-      <c r="C118" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D118" t="s">
-        <v>1910</v>
-      </c>
-      <c r="E118" t="s">
-        <v>1911</v>
-      </c>
-      <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H118" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>1216</v>
-      </c>
-      <c r="B119" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C119" t="s">
-        <v>1078</v>
-      </c>
-      <c r="D119" t="s">
-        <v>1912</v>
-      </c>
-      <c r="E119" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F119" t="s">
-        <v>11</v>
-      </c>
-      <c r="G119" t="s">
-        <v>1218</v>
-      </c>
-      <c r="H119" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B120" t="s">
-        <v>1915</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1916</v>
-      </c>
-      <c r="E120" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F120" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B121" t="s">
-        <v>1906</v>
-      </c>
-      <c r="D121" t="s">
-        <v>1908</v>
-      </c>
-      <c r="E121" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B122" t="s">
-        <v>1919</v>
-      </c>
-      <c r="D122" t="s">
-        <v>1920</v>
-      </c>
-      <c r="E122" t="s">
-        <v>1921</v>
-      </c>
-      <c r="F122" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B123" t="s">
-        <v>1922</v>
-      </c>
-      <c r="D123" t="s">
-        <v>1923</v>
-      </c>
-      <c r="E123" t="s">
-        <v>1924</v>
-      </c>
-      <c r="F123" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>1914</v>
-      </c>
-      <c r="B124" t="s">
-        <v>1925</v>
-      </c>
-      <c r="D124" t="s">
-        <v>1926</v>
-      </c>
-      <c r="E124" t="s">
-        <v>1927</v>
-      </c>
-      <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B40">
-    <cfRule type="duplicateValues" dxfId="32" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="31" priority="25"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B44">
-    <cfRule type="duplicateValues" dxfId="30" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="29" priority="19"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B45">
-    <cfRule type="duplicateValues" dxfId="28" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="27" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B53">
-    <cfRule type="duplicateValues" dxfId="26" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="25" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B108">
-    <cfRule type="duplicateValues" dxfId="24" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="23" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D40">
-    <cfRule type="duplicateValues" dxfId="22" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="21" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D44">
-    <cfRule type="duplicateValues" dxfId="20" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="19" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D45">
-    <cfRule type="duplicateValues" dxfId="18" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="17" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D108">
-    <cfRule type="duplicateValues" dxfId="16" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="15" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E40">
-    <cfRule type="duplicateValues" dxfId="14" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="13" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="duplicateValues" dxfId="12" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="11" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="duplicateValues" dxfId="10" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E108">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
+++ b/Bibsam_tidskriftslistor/Uppdateringar/tidskriftslistor_ändringar_2024.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://chalmers-my.sharepoint.com/personal/larher_chalmers_se/Documents/Documents/GitHub/oa-tskr/Bibsam_tidskriftslistor/Uppdateringar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{54DF2F85-D14A-4397-A59D-881B6A225696}"/>
+  <xr:revisionPtr revIDLastSave="178" documentId="8_{71222733-CF17-4749-9157-1F0AD58056D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD197FC-F7DC-4F55-B761-A583E6E685E6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="632" xr2:uid="{2C23C8D5-2A8B-47B7-B687-AE6A27B6507B}"/>
   </bookViews>
   <sheets>
-    <sheet name="Nr12_8okt2024" sheetId="11" r:id="rId1"/>
-    <sheet name="Nr11_30aug2024" sheetId="10" r:id="rId2"/>
-    <sheet name="Nr9_24juli2024" sheetId="9" r:id="rId3"/>
-    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId4"/>
-    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId5"/>
-    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId6"/>
-    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId7"/>
-    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId8"/>
-    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId9"/>
-    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId10"/>
-    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId11"/>
+    <sheet name="Nr14_12nov2024" sheetId="12" r:id="rId1"/>
+    <sheet name="Nr12_8okt2024" sheetId="11" r:id="rId2"/>
+    <sheet name="Nr11_30aug2024" sheetId="10" r:id="rId3"/>
+    <sheet name="Nr9_24juli2024" sheetId="9" r:id="rId4"/>
+    <sheet name="Nr8_22Maj2024" sheetId="8" r:id="rId5"/>
+    <sheet name="Nr7_17Maj2024" sheetId="7" r:id="rId6"/>
+    <sheet name="Nr6_2April2024" sheetId="6" r:id="rId7"/>
+    <sheet name="Nr5_15mars2024" sheetId="5" r:id="rId8"/>
+    <sheet name="Nr4_15feb2024" sheetId="4" r:id="rId9"/>
+    <sheet name="Nr3_22jan2024" sheetId="3" r:id="rId10"/>
+    <sheet name="Nr2_17jan2024" sheetId="2" r:id="rId11"/>
+    <sheet name="Nr1_4jan2024" sheetId="1" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10878" uniqueCount="4891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11049" uniqueCount="4944">
   <si>
     <t>Imprint</t>
   </si>
@@ -14719,6 +14720,165 @@
   </si>
   <si>
     <t>Byter publiceringsmodell</t>
+  </si>
+  <si>
+    <t>3050-6425</t>
+  </si>
+  <si>
+    <t>Brain Mechanisms</t>
+  </si>
+  <si>
+    <t>3050-6581</t>
+  </si>
+  <si>
+    <t>Vascular Diseases</t>
+  </si>
+  <si>
+    <t>3050-4716</t>
+  </si>
+  <si>
+    <t>Materials Chemistry and Physics: Sustainability and Energy</t>
+  </si>
+  <si>
+    <t>2950-3086</t>
+  </si>
+  <si>
+    <t>Marketing Strategy Journal</t>
+  </si>
+  <si>
+    <t>3050-5178</t>
+  </si>
+  <si>
+    <t>Nonlinear Science</t>
+  </si>
+  <si>
+    <t>0002-8177</t>
+  </si>
+  <si>
+    <t>The Journal of the American Dental Association</t>
+  </si>
+  <si>
+    <t>1447-6770</t>
+  </si>
+  <si>
+    <t>Journal of Hospitality and Tourism Management</t>
+  </si>
+  <si>
+    <t>3050-578X</t>
+  </si>
+  <si>
+    <t>Learning in Context</t>
+  </si>
+  <si>
+    <t>0211-139X</t>
+  </si>
+  <si>
+    <t>Revista Española de Geriatría y Gerontología</t>
+  </si>
+  <si>
+    <t>1138-3593</t>
+  </si>
+  <si>
+    <t>Medicina de Familia. SEMERGEN</t>
+  </si>
+  <si>
+    <t>3050-5852</t>
+  </si>
+  <si>
+    <t>AI Thermal Fluids</t>
+  </si>
+  <si>
+    <t>3050-5771</t>
+  </si>
+  <si>
+    <t>European Journal of Radiology Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>3050-483X</t>
+  </si>
+  <si>
+    <t>Geodata and AI</t>
+  </si>
+  <si>
+    <t>3050-4619</t>
+  </si>
+  <si>
+    <t>ESMO Rare Cancers</t>
+  </si>
+  <si>
+    <t>1880-6546</t>
+  </si>
+  <si>
+    <t>The Journal of Physiological Sciences</t>
+  </si>
+  <si>
+    <t>2307-4108</t>
+  </si>
+  <si>
+    <t>Kuwait Journal of Science</t>
+  </si>
+  <si>
+    <t>2260-1341</t>
+  </si>
+  <si>
+    <t>The Journal of Frailty &amp; Aging</t>
+  </si>
+  <si>
+    <t>2274-5807</t>
+  </si>
+  <si>
+    <t>The Journal of Prevention of Alzheimer's Disease</t>
+  </si>
+  <si>
+    <t>3050-5291</t>
+  </si>
+  <si>
+    <t>Transcranial Magnetic Stimulation</t>
+  </si>
+  <si>
+    <t>0891-0618</t>
+  </si>
+  <si>
+    <t>Journal of Chemical Neuroanatomy</t>
+  </si>
+  <si>
+    <t>2542-4513</t>
+  </si>
+  <si>
+    <t>JMV-Journal de Médecine Vasculaire</t>
+  </si>
+  <si>
+    <t>2666-9374</t>
+  </si>
+  <si>
+    <t>Forensic Science International: Animals and Environments</t>
+  </si>
+  <si>
+    <t>2666-3538</t>
+  </si>
+  <si>
+    <t>Forensic Science International: Mind and Law</t>
+  </si>
+  <si>
+    <t>2773-2150</t>
+  </si>
+  <si>
+    <t>Fungal Interactions</t>
+  </si>
+  <si>
+    <t>1672-0229</t>
+  </si>
+  <si>
+    <t>Genomics, Proteomics &amp; Bioinformatics</t>
+  </si>
+  <si>
+    <t>2997-3805</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alzheimer’s &amp; Dementia: Behavior &amp; Socioeconomics of Aging </t>
+  </si>
+  <si>
+    <t>https://onlinelibrary.wiley.com/journal/29973805</t>
   </si>
 </sst>
 </file>
@@ -15999,11 +16159,595 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C5241B-7C7B-4CBE-8C16-F1B0098444AC}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A59D7C6-718E-428E-9371-38B5FA4648AE}">
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4891</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4892</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4893</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4894</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4895</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4896</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4897</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4898</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4899</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4900</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4901</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4902</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4903</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4904</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4905</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4906</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4907</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4908</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4909</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4910</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4911</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4912</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4913</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4914</v>
+      </c>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4915</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4916</v>
+      </c>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2986</v>
+      </c>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4917</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4918</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4919</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4920</v>
+      </c>
+      <c r="F17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4921</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4922</v>
+      </c>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B19" t="s">
+        <v>4923</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4924</v>
+      </c>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4925</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4926</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4927</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4928</v>
+      </c>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4929</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4930</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4931</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4932</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B24" t="s">
+        <v>4933</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4934</v>
+      </c>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4935</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4936</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4937</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4938</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B27" t="s">
+        <v>4939</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4940</v>
+      </c>
+      <c r="F27" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>4941</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4942</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4943</v>
+      </c>
+      <c r="F28" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" t="s">
+        <v>609</v>
+      </c>
+      <c r="H28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
+  <dimension ref="A1:H154"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16011,11 +16755,11 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="63.7109375" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -16041,266 +16785,3664 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>3184</v>
+        <v>1928</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4854</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4855</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4856</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4857</v>
+      <c r="A2" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1930</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>1931</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4858</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4859</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4860</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>4857</v>
+      <c r="A3" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>1933</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>1934</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4861</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4862</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4863</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" t="s">
-        <v>4857</v>
+      <c r="A4" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1936</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6" t="s">
+        <v>1937</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4864</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4865</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4866</v>
-      </c>
-      <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" t="s">
-        <v>4857</v>
+      <c r="A5" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>1939</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6" t="s">
+        <v>1940</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1941</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4867</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4868</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4869</v>
-      </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>4857</v>
+      <c r="A6" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>1942</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>1944</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4870</v>
-      </c>
-      <c r="D7" t="s">
-        <v>4871</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4872</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4857</v>
+      <c r="A7" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>1945</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4873</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4874</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4875</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" t="s">
-        <v>4857</v>
+      <c r="A8" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>1948</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8" t="s">
+        <v>1949</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>1950</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4876</v>
-      </c>
-      <c r="D9" t="s">
-        <v>4877</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4878</v>
-      </c>
-      <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" t="s">
-        <v>4857</v>
+      <c r="A9" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1951</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6" t="s">
+        <v>1952</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>1953</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4879</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4880</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4881</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" t="s">
-        <v>4857</v>
+      <c r="A10" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1954</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6" t="s">
+        <v>1955</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4882</v>
-      </c>
-      <c r="D11" t="s">
-        <v>4883</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4884</v>
-      </c>
-      <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" t="s">
-        <v>4857</v>
+      <c r="A11" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>1957</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8" t="s">
+        <v>1958</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>1959</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>4885</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4886</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4887</v>
-      </c>
-      <c r="D12" t="s">
-        <v>4888</v>
-      </c>
-      <c r="E12" t="s">
-        <v>4889</v>
-      </c>
-      <c r="F12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>4890</v>
+      <c r="A12" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>1960</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>1963</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>1964</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>1965</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>1966</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>1968</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>1969</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>1973</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>1976</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>1978</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>1979</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>1981</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1982</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>1984</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1985</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>1986</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>1987</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>1988</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8" t="s">
+        <v>1989</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1990</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>1991</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>1992</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>1994</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8" t="s">
+        <v>1995</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>1996</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>1997</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>1998</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>1999</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>2000</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8" t="s">
+        <v>2001</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2003</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8" t="s">
+        <v>2004</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>2005</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>2006</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>2007</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>2008</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>2009</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6" t="s">
+        <v>2010</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2011</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>2012</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8" t="s">
+        <v>2013</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>2014</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>2015</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>2016</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>2018</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8" t="s">
+        <v>2019</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>2020</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>2022</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>2023</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8" t="s">
+        <v>2025</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2027</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2028</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2029</v>
+      </c>
+      <c r="F34" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>2030</v>
+      </c>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>2033</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
+        <v>2034</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>2035</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2036</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2037</v>
+      </c>
+      <c r="E37" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>2039</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11" t="s">
+        <v>2040</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11" t="s">
+        <v>2043</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
+        <v>2046</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>2047</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11" t="s">
+        <v>2049</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>2050</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>2052</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>2053</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11" t="s">
+        <v>2055</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>2056</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="6" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2057</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2058</v>
+      </c>
+      <c r="E44" t="s">
+        <v>2059</v>
+      </c>
+      <c r="F44" t="s">
+        <v>20</v>
+      </c>
+      <c r="G44" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11" t="s">
+        <v>2061</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>2062</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11" t="s">
+        <v>2064</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>2065</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2066</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2067</v>
+      </c>
+      <c r="E47" t="s">
+        <v>2068</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>2071</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11" t="s">
+        <v>2073</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>2074</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11" t="s">
+        <v>2076</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>2077</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2078</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2079</v>
+      </c>
+      <c r="E51" t="s">
+        <v>2080</v>
+      </c>
+      <c r="F51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>2083</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2084</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2086</v>
+      </c>
+      <c r="F53" t="s">
+        <v>20</v>
+      </c>
+      <c r="G53" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2087</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E54" t="s">
+        <v>2089</v>
+      </c>
+      <c r="F54" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" t="s">
+        <v>12</v>
+      </c>
+      <c r="H54" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2090</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2092</v>
+      </c>
+      <c r="F55" t="s">
+        <v>20</v>
+      </c>
+      <c r="G55" t="s">
+        <v>12</v>
+      </c>
+      <c r="H55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>2095</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H56" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2096</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E57" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F57" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" t="s">
+        <v>12</v>
+      </c>
+      <c r="H57" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2099</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>2101</v>
+      </c>
+      <c r="F58" t="s">
+        <v>20</v>
+      </c>
+      <c r="G58" t="s">
+        <v>12</v>
+      </c>
+      <c r="H58" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2103</v>
+      </c>
+      <c r="E59" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>12</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E60" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>20</v>
+      </c>
+      <c r="G60" t="s">
+        <v>12</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2108</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E61" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F61" t="s">
+        <v>20</v>
+      </c>
+      <c r="G61" t="s">
+        <v>12</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2111</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E62" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F62" t="s">
+        <v>20</v>
+      </c>
+      <c r="G62" t="s">
+        <v>12</v>
+      </c>
+      <c r="H62" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2114</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E63" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F63" t="s">
+        <v>20</v>
+      </c>
+      <c r="G63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H63" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E64" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>12</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11" t="s">
+        <v>2121</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>2122</v>
+      </c>
+      <c r="F65" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11" t="s">
+        <v>2124</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F66" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H66" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11" t="s">
+        <v>2127</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F67" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H67" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11" t="s">
+        <v>1536</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F68" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H68" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11" t="s">
+        <v>1540</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2131</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2132</v>
+      </c>
+      <c r="E70" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F70" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>12</v>
+      </c>
+      <c r="H70" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11" t="s">
+        <v>2135</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F71" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H71" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="10" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11" t="s">
+        <v>2138</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F72" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F73" t="s">
+        <v>20</v>
+      </c>
+      <c r="G73" t="s">
+        <v>12</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2143</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2144</v>
+      </c>
+      <c r="E74" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="G74" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2147</v>
+      </c>
+      <c r="E75" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F75" t="s">
+        <v>20</v>
+      </c>
+      <c r="G75" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2149</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2150</v>
+      </c>
+      <c r="E76" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F76" t="s">
+        <v>20</v>
+      </c>
+      <c r="G76" t="s">
+        <v>12</v>
+      </c>
+      <c r="H76" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E77" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F77" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E78" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F78" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" t="s">
+        <v>12</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2158</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E79" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F79" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D80" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E80" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F80" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" t="s">
+        <v>12</v>
+      </c>
+      <c r="H80" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E81" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2167</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E82" t="s">
+        <v>2169</v>
+      </c>
+      <c r="F82" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" t="s">
+        <v>12</v>
+      </c>
+      <c r="H82" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2170</v>
+      </c>
+      <c r="D83" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E83" t="s">
+        <v>2172</v>
+      </c>
+      <c r="F83" t="s">
+        <v>20</v>
+      </c>
+      <c r="G83" t="s">
+        <v>12</v>
+      </c>
+      <c r="H83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2173</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E84" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F84" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" t="s">
+        <v>12</v>
+      </c>
+      <c r="H84" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G85" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1929</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2180</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2181</v>
+      </c>
+      <c r="F86" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" t="s">
+        <v>12</v>
+      </c>
+      <c r="H86" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>2183</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="13" t="s">
+        <v>2184</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F87" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G87" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>2186</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F88" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H88" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>2189</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13" t="s">
+        <v>2190</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F89" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H89" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>2192</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13" t="s">
+        <v>2193</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F90" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H90" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2195</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13" t="s">
+        <v>2196</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G91" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H91" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13" t="s">
+        <v>2199</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F92" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G92" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H92" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>2201</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13" t="s">
+        <v>2202</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F93" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G93" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H93" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>2204</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>2205</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F94" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G94" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H94" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>2207</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13" t="s">
+        <v>2208</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F95" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G95" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H95" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>2210</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>2212</v>
+      </c>
+      <c r="F96" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G96" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>2213</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13" t="s">
+        <v>2214</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>2215</v>
+      </c>
+      <c r="F97" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G97" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H97" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>2218</v>
+      </c>
+      <c r="F98" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G98" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H98" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13" t="s">
+        <v>2220</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>2221</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13" t="s">
+        <v>2223</v>
+      </c>
+      <c r="E100" t="s">
+        <v>2224</v>
+      </c>
+      <c r="F100" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G100" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>2225</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
+        <v>2226</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2227</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2229</v>
+      </c>
+      <c r="F102" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G102" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H102" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>2230</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>2232</v>
+      </c>
+      <c r="F103" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G103" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>2233</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>2235</v>
+      </c>
+      <c r="F104" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G104" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>2236</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>2238</v>
+      </c>
+      <c r="F105" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H105" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>2239</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F106" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G106" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>2242</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F107" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G107" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H107" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13" t="s">
+        <v>2246</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F108" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G108" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H108" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B109" s="13" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>2250</v>
+      </c>
+      <c r="F109" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G109" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H109" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F110" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G110" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H110" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="s">
+        <v>2252</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>2253</v>
+      </c>
+      <c r="F111" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G111" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H111" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="13" t="s">
+        <v>2255</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2256</v>
+      </c>
+      <c r="F112" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H112" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>2259</v>
+      </c>
+      <c r="F113" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G113" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H113" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B114" s="13" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C114" s="13"/>
+      <c r="D114" s="13" t="s">
+        <v>2261</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>2262</v>
+      </c>
+      <c r="F114" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G114" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H114" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C115" s="13"/>
+      <c r="D115" s="13" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>2265</v>
+      </c>
+      <c r="F115" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G115" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H115" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>2266</v>
+      </c>
+      <c r="C116" s="13"/>
+      <c r="D116" s="13" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>2268</v>
+      </c>
+      <c r="F116" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G116" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H116" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B117" s="13" t="s">
+        <v>2269</v>
+      </c>
+      <c r="C117" s="13"/>
+      <c r="D117" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>2271</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G117" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H117" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B118" s="13" t="s">
+        <v>2272</v>
+      </c>
+      <c r="C118" s="13"/>
+      <c r="D118" s="13" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>2274</v>
+      </c>
+      <c r="F118" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G118" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H118" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B119" s="13" t="s">
+        <v>2275</v>
+      </c>
+      <c r="C119" s="13"/>
+      <c r="D119" s="13" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G119" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H119" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B120" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="C120" s="13"/>
+      <c r="D120" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F120" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G120" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H120" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B121" s="13" t="s">
+        <v>2281</v>
+      </c>
+      <c r="C121" s="13"/>
+      <c r="D121" s="13" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>2283</v>
+      </c>
+      <c r="F121" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G121" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H121" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="C122" s="13"/>
+      <c r="D122" s="13" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="F122" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G122" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H122" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>2287</v>
+      </c>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>2289</v>
+      </c>
+      <c r="F123" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G123" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H123" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B124" s="13" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13" t="s">
+        <v>2291</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>2292</v>
+      </c>
+      <c r="F124" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G124" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H124" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B125" s="13" t="s">
+        <v>2293</v>
+      </c>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>2295</v>
+      </c>
+      <c r="F125" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G125" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H125" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B126" s="13" t="s">
+        <v>2296</v>
+      </c>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13" t="s">
+        <v>2297</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>2298</v>
+      </c>
+      <c r="F126" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H126" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B127" s="13" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13" t="s">
+        <v>2300</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>2301</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G127" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H127" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B128" s="13" t="s">
+        <v>2302</v>
+      </c>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13" t="s">
+        <v>2303</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>2304</v>
+      </c>
+      <c r="F128" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G128" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H128" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B129" s="13" t="s">
+        <v>2305</v>
+      </c>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13" t="s">
+        <v>2306</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>2307</v>
+      </c>
+      <c r="F129" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G129" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H129" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B130" s="13" t="s">
+        <v>2308</v>
+      </c>
+      <c r="C130" s="13"/>
+      <c r="D130" s="13" t="s">
+        <v>2309</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>2310</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G130" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H130" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B131" s="13" t="s">
+        <v>2311</v>
+      </c>
+      <c r="C131" s="13"/>
+      <c r="D131" s="13" t="s">
+        <v>2312</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>2313</v>
+      </c>
+      <c r="F131" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G131" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H131" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B132" s="13" t="s">
+        <v>2314</v>
+      </c>
+      <c r="C132" s="13"/>
+      <c r="D132" s="13" t="s">
+        <v>2315</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>2316</v>
+      </c>
+      <c r="F132" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H132" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B133" s="13" t="s">
+        <v>2317</v>
+      </c>
+      <c r="C133" s="13"/>
+      <c r="D133" s="13" t="s">
+        <v>2318</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>2319</v>
+      </c>
+      <c r="F133" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G133" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H133" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B134" s="13" t="s">
+        <v>2320</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="13" t="s">
+        <v>2321</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>2322</v>
+      </c>
+      <c r="F134" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G134" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H134" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B135" s="13" t="s">
+        <v>2323</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="13" t="s">
+        <v>2324</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2325</v>
+      </c>
+      <c r="F135" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H135" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B136" s="13" t="s">
+        <v>2326</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="13" t="s">
+        <v>2327</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>2328</v>
+      </c>
+      <c r="F136" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H136" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B137" s="13" t="s">
+        <v>2329</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="13" t="s">
+        <v>2330</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>2331</v>
+      </c>
+      <c r="F137" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H137" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B138" s="13" t="s">
+        <v>2332</v>
+      </c>
+      <c r="C138" s="13"/>
+      <c r="D138" s="13" t="s">
+        <v>2333</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>2334</v>
+      </c>
+      <c r="F138" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G138" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H138" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B139" s="13" t="s">
+        <v>2335</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="13" t="s">
+        <v>2336</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>2337</v>
+      </c>
+      <c r="F139" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H139" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B140" s="13" t="s">
+        <v>2338</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13" t="s">
+        <v>2339</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>2340</v>
+      </c>
+      <c r="F140" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G140" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H140" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B141" s="13" t="s">
+        <v>2341</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="13" t="s">
+        <v>2342</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>2343</v>
+      </c>
+      <c r="F141" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G141" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H141" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B142" s="13" t="s">
+        <v>2344</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="13" t="s">
+        <v>2345</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>2346</v>
+      </c>
+      <c r="F142" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G142" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H142" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B143" s="13" t="s">
+        <v>2347</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="13" t="s">
+        <v>2348</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>2349</v>
+      </c>
+      <c r="F143" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H143" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B144" s="13" t="s">
+        <v>2350</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="13" t="s">
+        <v>2351</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>2352</v>
+      </c>
+      <c r="F144" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H144" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B145" s="13" t="s">
+        <v>2353</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="13" t="s">
+        <v>2354</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>2355</v>
+      </c>
+      <c r="F145" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H145" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="13" t="s">
+        <v>2182</v>
+      </c>
+      <c r="B146" s="13" t="s">
+        <v>714</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13" t="s">
+        <v>2356</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>2357</v>
+      </c>
+      <c r="F146" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H146" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" t="s">
+        <v>48</v>
+      </c>
+      <c r="C147" t="s">
+        <v>49</v>
+      </c>
+      <c r="D147" t="s">
+        <v>50</v>
+      </c>
+      <c r="E147" t="s">
+        <v>51</v>
+      </c>
+      <c r="F147" t="s">
+        <v>20</v>
+      </c>
+      <c r="G147" t="s">
+        <v>12</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>65</v>
+      </c>
+      <c r="C148" t="s">
+        <v>66</v>
+      </c>
+      <c r="D148" t="s">
+        <v>67</v>
+      </c>
+      <c r="E148" t="s">
+        <v>68</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" t="s">
+        <v>12</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>26</v>
+      </c>
+      <c r="B149" t="s">
+        <v>101</v>
+      </c>
+      <c r="C149" t="s">
+        <v>102</v>
+      </c>
+      <c r="D149" t="s">
+        <v>103</v>
+      </c>
+      <c r="E149" t="s">
+        <v>104</v>
+      </c>
+      <c r="F149" t="s">
+        <v>20</v>
+      </c>
+      <c r="G149" t="s">
+        <v>12</v>
+      </c>
+      <c r="H149" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>26</v>
+      </c>
+      <c r="B150" t="s">
+        <v>2359</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2360</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2361</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" t="s">
+        <v>12</v>
+      </c>
+      <c r="H150" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>26</v>
+      </c>
+      <c r="B151" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" t="s">
+        <v>73</v>
+      </c>
+      <c r="E151" t="s">
+        <v>74</v>
+      </c>
+      <c r="F151" t="s">
+        <v>20</v>
+      </c>
+      <c r="G151" t="s">
+        <v>12</v>
+      </c>
+      <c r="H151" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>26</v>
+      </c>
+      <c r="B152" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152" t="s">
+        <v>89</v>
+      </c>
+      <c r="E152" t="s">
+        <v>90</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" t="s">
+        <v>12</v>
+      </c>
+      <c r="H152" t="s">
+        <v>2358</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B153" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D153" t="s">
+        <v>2156</v>
+      </c>
+      <c r="E153" t="s">
+        <v>2362</v>
+      </c>
+      <c r="F153" t="s">
+        <v>11</v>
+      </c>
+      <c r="G153" t="s">
+        <v>12</v>
+      </c>
+      <c r="H153" t="s">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>1972</v>
+      </c>
+      <c r="B154" t="s">
+        <v>2366</v>
+      </c>
+      <c r="D154" t="s">
+        <v>2365</v>
+      </c>
+      <c r="E154" t="s">
+        <v>2364</v>
+      </c>
+      <c r="F154" t="s">
+        <v>11</v>
+      </c>
+      <c r="G154" t="s">
+        <v>12</v>
+      </c>
+      <c r="H154" t="s">
+        <v>2363</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="B153">
+    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B154">
+    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D153">
+    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D154">
+    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -16308,7 +20450,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B750BF2-4B53-400E-A57C-5AA37665EB1E}">
   <dimension ref="A1:H124"/>
   <sheetViews>
@@ -19520,7 +23662,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2D14290-D6DF-4730-A125-A3A6B76F0CD9}">
   <dimension ref="A1:H425"/>
   <sheetViews>
@@ -29961,6 +34103,316 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5C5241B-7C7B-4CBE-8C16-F1B0098444AC}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4854</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4855</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4856</v>
+      </c>
+      <c r="F2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4858</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4859</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4860</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4861</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4862</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4863</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4864</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4865</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4866</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4867</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4868</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4869</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4870</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4871</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4872</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4873</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4874</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4875</v>
+      </c>
+      <c r="F8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4876</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4877</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4878</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4879</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4880</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4881</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4882</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4883</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4884</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>4857</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4885</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4886</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4887</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4888</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4889</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" t="s">
+        <v>4890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C057434-E54E-43F3-BA10-FBF4FFA7D0F4}">
   <dimension ref="A2:H46"/>
   <sheetViews>
@@ -30994,7 +35446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1DC804-C375-4109-8D8C-3EB8BA8A7D4E}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -31186,7 +35638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DBC7FA-6A07-487D-966D-C7FD419939F1}">
   <dimension ref="A1:H415"/>
   <sheetViews>
@@ -41922,7 +46374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9323C715-D199-47DF-ABDA-8E0504AA40AC}">
   <dimension ref="A1:H83"/>
   <sheetViews>
@@ -43907,7 +48359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1417FD35-C1F2-4856-A758-D00399B63FAA}">
   <dimension ref="A1:I58"/>
   <sheetViews>
@@ -45407,7 +49859,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8274C95-878B-4F08-8D02-F90FE77795D2}">
   <dimension ref="A1:K116"/>
   <sheetViews>
@@ -48109,7 +52561,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAE210EB-6D07-4C05-A9C0-1792AA44326D}">
   <dimension ref="A1:H13"/>
   <sheetViews>
@@ -48437,3712 +52889,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50869359-A474-4B57-92E8-B31ACB8E812E}">
-  <dimension ref="A1:H154"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="63.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" customWidth="1"/>
-    <col min="7" max="7" width="19.5703125" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1928</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>1930</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>1931</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>1932</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>1933</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6" t="s">
-        <v>1934</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>1936</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>1938</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>1939</v>
-      </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6" t="s">
-        <v>1940</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>1941</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>1942</v>
-      </c>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>1944</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>1945</v>
-      </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8" t="s">
-        <v>1946</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>1947</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>1948</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8" t="s">
-        <v>1949</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>1950</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>1951</v>
-      </c>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6" t="s">
-        <v>1952</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>1953</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>1954</v>
-      </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6" t="s">
-        <v>1955</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>1956</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>1957</v>
-      </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8" t="s">
-        <v>1958</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>1959</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>1960</v>
-      </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8" t="s">
-        <v>1961</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>1962</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>1963</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8" t="s">
-        <v>1964</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>1965</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>1966</v>
-      </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8" t="s">
-        <v>1967</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>1968</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>1969</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6" t="s">
-        <v>1970</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>1971</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>1973</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6" t="s">
-        <v>1974</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>1975</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>1976</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>1978</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>1979</v>
-      </c>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8" t="s">
-        <v>1980</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>1981</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>1982</v>
-      </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8" t="s">
-        <v>1983</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>1984</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>1985</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6" t="s">
-        <v>1986</v>
-      </c>
-      <c r="E20" s="6" t="s">
-        <v>1987</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>1988</v>
-      </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8" t="s">
-        <v>1989</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>1990</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B22" s="8" t="s">
-        <v>1991</v>
-      </c>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8" t="s">
-        <v>1992</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>1993</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>1994</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8" t="s">
-        <v>1995</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>1996</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>1997</v>
-      </c>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>1998</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>1999</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B25" s="8" t="s">
-        <v>2000</v>
-      </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8" t="s">
-        <v>2001</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>2002</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>2003</v>
-      </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8" t="s">
-        <v>2004</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>2005</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>2006</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>2008</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>2009</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6" t="s">
-        <v>2010</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>2011</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>2012</v>
-      </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8" t="s">
-        <v>2013</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>2014</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>2015</v>
-      </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8" t="s">
-        <v>2016</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>2017</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>2018</v>
-      </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8" t="s">
-        <v>2019</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>2020</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>2021</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8" t="s">
-        <v>2022</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>2023</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B33" s="8" t="s">
-        <v>2024</v>
-      </c>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8" t="s">
-        <v>2025</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>2026</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B34" t="s">
-        <v>2027</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2028</v>
-      </c>
-      <c r="E34" t="s">
-        <v>2029</v>
-      </c>
-      <c r="F34" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>2030</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11" t="s">
-        <v>2031</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>2032</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>2033</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
-        <v>2034</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B37" t="s">
-        <v>2036</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2037</v>
-      </c>
-      <c r="E37" t="s">
-        <v>2038</v>
-      </c>
-      <c r="F37" t="s">
-        <v>20</v>
-      </c>
-      <c r="G37" t="s">
-        <v>12</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>2039</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11" t="s">
-        <v>2040</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>2042</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
-        <v>2043</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>2044</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>2045</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
-        <v>2046</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>2047</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>2048</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
-        <v>2049</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>2050</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>2051</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11" t="s">
-        <v>2052</v>
-      </c>
-      <c r="E42" s="11" t="s">
-        <v>2053</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>2054</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11" t="s">
-        <v>2055</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>2056</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B44" t="s">
-        <v>2057</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2058</v>
-      </c>
-      <c r="E44" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>2060</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11" t="s">
-        <v>2061</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>2062</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>2063</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11" t="s">
-        <v>2064</v>
-      </c>
-      <c r="E46" s="11" t="s">
-        <v>2065</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B47" t="s">
-        <v>2066</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2067</v>
-      </c>
-      <c r="E47" t="s">
-        <v>2068</v>
-      </c>
-      <c r="F47" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" t="s">
-        <v>12</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>2069</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11" t="s">
-        <v>2070</v>
-      </c>
-      <c r="E48" s="11" t="s">
-        <v>2071</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>2072</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11" t="s">
-        <v>2073</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>2074</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>2075</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11" t="s">
-        <v>2076</v>
-      </c>
-      <c r="E50" s="11" t="s">
-        <v>2077</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B51" t="s">
-        <v>2078</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E51" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>12</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>2081</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11" t="s">
-        <v>2082</v>
-      </c>
-      <c r="E52" s="11" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B53" t="s">
-        <v>2084</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2085</v>
-      </c>
-      <c r="E53" t="s">
-        <v>2086</v>
-      </c>
-      <c r="F53" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
-      <c r="H53" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2087</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2088</v>
-      </c>
-      <c r="E54" t="s">
-        <v>2089</v>
-      </c>
-      <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>12</v>
-      </c>
-      <c r="H54" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2090</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2091</v>
-      </c>
-      <c r="E55" t="s">
-        <v>2092</v>
-      </c>
-      <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H55" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>2093</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11" t="s">
-        <v>2094</v>
-      </c>
-      <c r="E56" s="11" t="s">
-        <v>2095</v>
-      </c>
-      <c r="F56" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H56" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2096</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2097</v>
-      </c>
-      <c r="E57" t="s">
-        <v>2098</v>
-      </c>
-      <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
-      <c r="H57" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2099</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>2101</v>
-      </c>
-      <c r="F58" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
-      <c r="H58" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2102</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2103</v>
-      </c>
-      <c r="E59" t="s">
-        <v>2104</v>
-      </c>
-      <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>12</v>
-      </c>
-      <c r="H59" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2105</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2106</v>
-      </c>
-      <c r="E60" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F60" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" t="s">
-        <v>12</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2108</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2109</v>
-      </c>
-      <c r="E61" t="s">
-        <v>2110</v>
-      </c>
-      <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>12</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2111</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2112</v>
-      </c>
-      <c r="E62" t="s">
-        <v>2113</v>
-      </c>
-      <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>12</v>
-      </c>
-      <c r="H62" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2114</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2115</v>
-      </c>
-      <c r="E63" t="s">
-        <v>2116</v>
-      </c>
-      <c r="F63" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" t="s">
-        <v>12</v>
-      </c>
-      <c r="H63" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2117</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2118</v>
-      </c>
-      <c r="E64" t="s">
-        <v>2119</v>
-      </c>
-      <c r="F64" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
-      <c r="H64" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>2120</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11" t="s">
-        <v>2121</v>
-      </c>
-      <c r="E65" s="11" t="s">
-        <v>2122</v>
-      </c>
-      <c r="F65" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H65" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>2123</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11" t="s">
-        <v>2124</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>2125</v>
-      </c>
-      <c r="F66" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H66" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>2126</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11" t="s">
-        <v>2127</v>
-      </c>
-      <c r="E67" s="11" t="s">
-        <v>2128</v>
-      </c>
-      <c r="F67" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G67" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H67" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1535</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11" t="s">
-        <v>1536</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>2129</v>
-      </c>
-      <c r="F68" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H68" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1539</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11" t="s">
-        <v>1540</v>
-      </c>
-      <c r="E69" s="11" t="s">
-        <v>2130</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H69" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2131</v>
-      </c>
-      <c r="D70" t="s">
-        <v>2132</v>
-      </c>
-      <c r="E70" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
-      <c r="H70" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>2134</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11" t="s">
-        <v>2135</v>
-      </c>
-      <c r="E71" s="11" t="s">
-        <v>2136</v>
-      </c>
-      <c r="F71" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H71" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>2137</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11" t="s">
-        <v>2138</v>
-      </c>
-      <c r="E72" s="11" t="s">
-        <v>2139</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D73" t="s">
-        <v>2141</v>
-      </c>
-      <c r="E73" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F73" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" t="s">
-        <v>12</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2143</v>
-      </c>
-      <c r="D74" t="s">
-        <v>2144</v>
-      </c>
-      <c r="E74" t="s">
-        <v>2145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>12</v>
-      </c>
-      <c r="H74" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2146</v>
-      </c>
-      <c r="D75" t="s">
-        <v>2147</v>
-      </c>
-      <c r="E75" t="s">
-        <v>2148</v>
-      </c>
-      <c r="F75" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" t="s">
-        <v>12</v>
-      </c>
-      <c r="H75" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D76" t="s">
-        <v>2150</v>
-      </c>
-      <c r="E76" t="s">
-        <v>2151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
-      <c r="H76" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2152</v>
-      </c>
-      <c r="D77" t="s">
-        <v>2153</v>
-      </c>
-      <c r="E77" t="s">
-        <v>2154</v>
-      </c>
-      <c r="F77" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" t="s">
-        <v>12</v>
-      </c>
-      <c r="H77" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D78" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E78" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F78" t="s">
-        <v>11</v>
-      </c>
-      <c r="G78" t="s">
-        <v>12</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D79" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E79" t="s">
-        <v>2160</v>
-      </c>
-      <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2161</v>
-      </c>
-      <c r="D80" t="s">
-        <v>2162</v>
-      </c>
-      <c r="E80" t="s">
-        <v>2163</v>
-      </c>
-      <c r="F80" t="s">
-        <v>11</v>
-      </c>
-      <c r="G80" t="s">
-        <v>12</v>
-      </c>
-      <c r="H80" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2164</v>
-      </c>
-      <c r="D81" t="s">
-        <v>2165</v>
-      </c>
-      <c r="E81" t="s">
-        <v>2166</v>
-      </c>
-      <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
-      <c r="H81" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2167</v>
-      </c>
-      <c r="D82" t="s">
-        <v>2168</v>
-      </c>
-      <c r="E82" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F82" t="s">
-        <v>11</v>
-      </c>
-      <c r="G82" t="s">
-        <v>12</v>
-      </c>
-      <c r="H82" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B83" t="s">
-        <v>2170</v>
-      </c>
-      <c r="D83" t="s">
-        <v>2171</v>
-      </c>
-      <c r="E83" t="s">
-        <v>2172</v>
-      </c>
-      <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>12</v>
-      </c>
-      <c r="H83" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B84" t="s">
-        <v>2173</v>
-      </c>
-      <c r="D84" t="s">
-        <v>2174</v>
-      </c>
-      <c r="E84" t="s">
-        <v>2175</v>
-      </c>
-      <c r="F84" t="s">
-        <v>11</v>
-      </c>
-      <c r="G84" t="s">
-        <v>12</v>
-      </c>
-      <c r="H84" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B85" t="s">
-        <v>2176</v>
-      </c>
-      <c r="D85" t="s">
-        <v>2177</v>
-      </c>
-      <c r="E85" t="s">
-        <v>2178</v>
-      </c>
-      <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>12</v>
-      </c>
-      <c r="H85" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>1929</v>
-      </c>
-      <c r="B86" t="s">
-        <v>2179</v>
-      </c>
-      <c r="D86" t="s">
-        <v>2180</v>
-      </c>
-      <c r="E86" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F86" t="s">
-        <v>11</v>
-      </c>
-      <c r="G86" t="s">
-        <v>12</v>
-      </c>
-      <c r="H86" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A87" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>2183</v>
-      </c>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13" t="s">
-        <v>2184</v>
-      </c>
-      <c r="E87" s="13" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H87" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>2186</v>
-      </c>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13" t="s">
-        <v>2187</v>
-      </c>
-      <c r="E88" s="13" t="s">
-        <v>2188</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G88" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H88" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>2189</v>
-      </c>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13" t="s">
-        <v>2190</v>
-      </c>
-      <c r="E89" s="13" t="s">
-        <v>2191</v>
-      </c>
-      <c r="F89" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H89" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>2192</v>
-      </c>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13" t="s">
-        <v>2193</v>
-      </c>
-      <c r="E90" s="13" t="s">
-        <v>2194</v>
-      </c>
-      <c r="F90" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G90" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H90" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B91" t="s">
-        <v>2195</v>
-      </c>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13" t="s">
-        <v>2196</v>
-      </c>
-      <c r="E91" s="13" t="s">
-        <v>2197</v>
-      </c>
-      <c r="F91" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H91" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>2198</v>
-      </c>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13" t="s">
-        <v>2199</v>
-      </c>
-      <c r="E92" s="13" t="s">
-        <v>2200</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G92" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H92" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>2201</v>
-      </c>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13" t="s">
-        <v>2202</v>
-      </c>
-      <c r="E93" s="13" t="s">
-        <v>2203</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H93" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A94" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>2204</v>
-      </c>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13" t="s">
-        <v>2205</v>
-      </c>
-      <c r="E94" s="13" t="s">
-        <v>2206</v>
-      </c>
-      <c r="F94" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G94" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H94" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A95" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B95" s="13" t="s">
-        <v>2207</v>
-      </c>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13" t="s">
-        <v>2208</v>
-      </c>
-      <c r="E95" s="13" t="s">
-        <v>2209</v>
-      </c>
-      <c r="F95" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H95" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A96" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B96" s="13" t="s">
-        <v>2210</v>
-      </c>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E96" s="13" t="s">
-        <v>2212</v>
-      </c>
-      <c r="F96" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G96" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H96" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>2213</v>
-      </c>
-      <c r="C97" s="13"/>
-      <c r="D97" s="13" t="s">
-        <v>2214</v>
-      </c>
-      <c r="E97" s="13" t="s">
-        <v>2215</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H97" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A98" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B98" s="13" t="s">
-        <v>2216</v>
-      </c>
-      <c r="C98" s="13"/>
-      <c r="D98" s="13" t="s">
-        <v>2217</v>
-      </c>
-      <c r="E98" s="13" t="s">
-        <v>2218</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G98" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H98" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A99" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B99" s="13" t="s">
-        <v>2219</v>
-      </c>
-      <c r="C99" s="13"/>
-      <c r="D99" s="13" t="s">
-        <v>2220</v>
-      </c>
-      <c r="E99" s="13" t="s">
-        <v>2221</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>1674</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A100" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B100" s="13" t="s">
-        <v>2222</v>
-      </c>
-      <c r="C100" s="13"/>
-      <c r="D100" s="13" t="s">
-        <v>2223</v>
-      </c>
-      <c r="E100" t="s">
-        <v>2224</v>
-      </c>
-      <c r="F100" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G100" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H100" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B101" s="13" t="s">
-        <v>2225</v>
-      </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13" t="s">
-        <v>2226</v>
-      </c>
-      <c r="E101" t="s">
-        <v>2227</v>
-      </c>
-      <c r="F101" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H101" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A102" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B102" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13" t="s">
-        <v>2228</v>
-      </c>
-      <c r="E102" t="s">
-        <v>2229</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G102" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H102" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A103" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B103" s="13" t="s">
-        <v>2230</v>
-      </c>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13" t="s">
-        <v>2231</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>2232</v>
-      </c>
-      <c r="F103" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A104" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B104" s="13" t="s">
-        <v>2233</v>
-      </c>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13" t="s">
-        <v>2234</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>2235</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G104" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B105" s="13" t="s">
-        <v>2236</v>
-      </c>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13" t="s">
-        <v>2237</v>
-      </c>
-      <c r="E105" s="13" t="s">
-        <v>2238</v>
-      </c>
-      <c r="F105" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G105" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H105" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B106" s="13" t="s">
-        <v>2239</v>
-      </c>
-      <c r="C106" s="13"/>
-      <c r="D106" s="13" t="s">
-        <v>2240</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>2241</v>
-      </c>
-      <c r="F106" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G106" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H106" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B107" s="13" t="s">
-        <v>2242</v>
-      </c>
-      <c r="C107" s="13"/>
-      <c r="D107" s="13" t="s">
-        <v>2243</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>2244</v>
-      </c>
-      <c r="F107" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H107" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B108" s="13" t="s">
-        <v>2245</v>
-      </c>
-      <c r="C108" s="13"/>
-      <c r="D108" s="13" t="s">
-        <v>2246</v>
-      </c>
-      <c r="E108" s="13" t="s">
-        <v>2247</v>
-      </c>
-      <c r="F108" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G108" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H108" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B109" s="13" t="s">
-        <v>2248</v>
-      </c>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13" t="s">
-        <v>2249</v>
-      </c>
-      <c r="E109" s="13" t="s">
-        <v>2250</v>
-      </c>
-      <c r="F109" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H109" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A110" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B110" s="13" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>2253</v>
-      </c>
-      <c r="F110" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G110" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H110" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A111" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>2251</v>
-      </c>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13" t="s">
-        <v>2252</v>
-      </c>
-      <c r="E111" s="13" t="s">
-        <v>2253</v>
-      </c>
-      <c r="F111" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H111" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>2254</v>
-      </c>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13" t="s">
-        <v>2255</v>
-      </c>
-      <c r="E112" t="s">
-        <v>2256</v>
-      </c>
-      <c r="F112" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G112" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H112" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>2257</v>
-      </c>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13" t="s">
-        <v>2258</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>2259</v>
-      </c>
-      <c r="F113" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H113" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>2260</v>
-      </c>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13" t="s">
-        <v>2261</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>2262</v>
-      </c>
-      <c r="F114" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G114" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H114" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A115" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>2263</v>
-      </c>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13" t="s">
-        <v>2264</v>
-      </c>
-      <c r="E115" s="13" t="s">
-        <v>2265</v>
-      </c>
-      <c r="F115" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H115" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>2266</v>
-      </c>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13" t="s">
-        <v>2267</v>
-      </c>
-      <c r="E116" s="13" t="s">
-        <v>2268</v>
-      </c>
-      <c r="F116" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G116" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H116" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B117" s="13" t="s">
-        <v>2269</v>
-      </c>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13" t="s">
-        <v>2270</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>2271</v>
-      </c>
-      <c r="F117" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G117" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H117" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B118" s="13" t="s">
-        <v>2272</v>
-      </c>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13" t="s">
-        <v>2273</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>2274</v>
-      </c>
-      <c r="F118" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G118" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H118" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B119" s="13" t="s">
-        <v>2275</v>
-      </c>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13" t="s">
-        <v>2276</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>2277</v>
-      </c>
-      <c r="F119" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H119" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A120" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B120" s="13" t="s">
-        <v>2278</v>
-      </c>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13" t="s">
-        <v>2279</v>
-      </c>
-      <c r="E120" s="13" t="s">
-        <v>2280</v>
-      </c>
-      <c r="F120" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G120" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H120" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B121" s="13" t="s">
-        <v>2281</v>
-      </c>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13" t="s">
-        <v>2282</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>2283</v>
-      </c>
-      <c r="F121" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B122" s="13" t="s">
-        <v>2284</v>
-      </c>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13" t="s">
-        <v>2285</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>2286</v>
-      </c>
-      <c r="F122" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G122" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H122" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A123" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B123" s="13" t="s">
-        <v>2287</v>
-      </c>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13" t="s">
-        <v>2288</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>2289</v>
-      </c>
-      <c r="F123" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G123" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H123" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B124" s="13" t="s">
-        <v>2290</v>
-      </c>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13" t="s">
-        <v>2291</v>
-      </c>
-      <c r="E124" s="13" t="s">
-        <v>2292</v>
-      </c>
-      <c r="F124" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H124" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A125" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B125" s="13" t="s">
-        <v>2293</v>
-      </c>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13" t="s">
-        <v>2294</v>
-      </c>
-      <c r="E125" s="13" t="s">
-        <v>2295</v>
-      </c>
-      <c r="F125" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H125" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A126" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B126" s="13" t="s">
-        <v>2296</v>
-      </c>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13" t="s">
-        <v>2297</v>
-      </c>
-      <c r="E126" s="13" t="s">
-        <v>2298</v>
-      </c>
-      <c r="F126" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G126" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H126" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A127" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B127" s="13" t="s">
-        <v>2299</v>
-      </c>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13" t="s">
-        <v>2300</v>
-      </c>
-      <c r="E127" s="13" t="s">
-        <v>2301</v>
-      </c>
-      <c r="F127" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H127" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A128" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B128" s="13" t="s">
-        <v>2302</v>
-      </c>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13" t="s">
-        <v>2303</v>
-      </c>
-      <c r="E128" s="13" t="s">
-        <v>2304</v>
-      </c>
-      <c r="F128" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H128" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A129" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B129" s="13" t="s">
-        <v>2305</v>
-      </c>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13" t="s">
-        <v>2306</v>
-      </c>
-      <c r="E129" s="13" t="s">
-        <v>2307</v>
-      </c>
-      <c r="F129" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H129" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A130" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B130" s="13" t="s">
-        <v>2308</v>
-      </c>
-      <c r="C130" s="13"/>
-      <c r="D130" s="13" t="s">
-        <v>2309</v>
-      </c>
-      <c r="E130" s="13" t="s">
-        <v>2310</v>
-      </c>
-      <c r="F130" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G130" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H130" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A131" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>2311</v>
-      </c>
-      <c r="C131" s="13"/>
-      <c r="D131" s="13" t="s">
-        <v>2312</v>
-      </c>
-      <c r="E131" s="13" t="s">
-        <v>2313</v>
-      </c>
-      <c r="F131" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H131" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A132" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B132" s="13" t="s">
-        <v>2314</v>
-      </c>
-      <c r="C132" s="13"/>
-      <c r="D132" s="13" t="s">
-        <v>2315</v>
-      </c>
-      <c r="E132" s="13" t="s">
-        <v>2316</v>
-      </c>
-      <c r="F132" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G132" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H132" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B133" s="13" t="s">
-        <v>2317</v>
-      </c>
-      <c r="C133" s="13"/>
-      <c r="D133" s="13" t="s">
-        <v>2318</v>
-      </c>
-      <c r="E133" s="13" t="s">
-        <v>2319</v>
-      </c>
-      <c r="F133" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H133" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A134" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B134" s="13" t="s">
-        <v>2320</v>
-      </c>
-      <c r="C134" s="13"/>
-      <c r="D134" s="13" t="s">
-        <v>2321</v>
-      </c>
-      <c r="E134" s="13" t="s">
-        <v>2322</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G134" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H134" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A135" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B135" s="13" t="s">
-        <v>2323</v>
-      </c>
-      <c r="C135" s="13"/>
-      <c r="D135" s="13" t="s">
-        <v>2324</v>
-      </c>
-      <c r="E135" t="s">
-        <v>2325</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H135" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A136" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B136" s="13" t="s">
-        <v>2326</v>
-      </c>
-      <c r="C136" s="13"/>
-      <c r="D136" s="13" t="s">
-        <v>2327</v>
-      </c>
-      <c r="E136" s="13" t="s">
-        <v>2328</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G136" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H136" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A137" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B137" s="13" t="s">
-        <v>2329</v>
-      </c>
-      <c r="C137" s="13"/>
-      <c r="D137" s="13" t="s">
-        <v>2330</v>
-      </c>
-      <c r="E137" s="13" t="s">
-        <v>2331</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G137" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H137" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A138" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B138" s="13" t="s">
-        <v>2332</v>
-      </c>
-      <c r="C138" s="13"/>
-      <c r="D138" s="13" t="s">
-        <v>2333</v>
-      </c>
-      <c r="E138" s="13" t="s">
-        <v>2334</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H138" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A139" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B139" s="13" t="s">
-        <v>2335</v>
-      </c>
-      <c r="C139" s="13"/>
-      <c r="D139" s="13" t="s">
-        <v>2336</v>
-      </c>
-      <c r="E139" s="13" t="s">
-        <v>2337</v>
-      </c>
-      <c r="F139" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G139" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H139" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B140" s="13" t="s">
-        <v>2338</v>
-      </c>
-      <c r="C140" s="13"/>
-      <c r="D140" s="13" t="s">
-        <v>2339</v>
-      </c>
-      <c r="E140" s="13" t="s">
-        <v>2340</v>
-      </c>
-      <c r="F140" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H140" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A141" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B141" s="13" t="s">
-        <v>2341</v>
-      </c>
-      <c r="C141" s="13"/>
-      <c r="D141" s="13" t="s">
-        <v>2342</v>
-      </c>
-      <c r="E141" s="13" t="s">
-        <v>2343</v>
-      </c>
-      <c r="F141" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G141" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H141" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A142" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B142" s="13" t="s">
-        <v>2344</v>
-      </c>
-      <c r="C142" s="13"/>
-      <c r="D142" s="13" t="s">
-        <v>2345</v>
-      </c>
-      <c r="E142" s="13" t="s">
-        <v>2346</v>
-      </c>
-      <c r="F142" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H142" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A143" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B143" s="13" t="s">
-        <v>2347</v>
-      </c>
-      <c r="C143" s="13"/>
-      <c r="D143" s="13" t="s">
-        <v>2348</v>
-      </c>
-      <c r="E143" s="13" t="s">
-        <v>2349</v>
-      </c>
-      <c r="F143" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H143" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A144" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B144" s="13" t="s">
-        <v>2350</v>
-      </c>
-      <c r="C144" s="13"/>
-      <c r="D144" s="13" t="s">
-        <v>2351</v>
-      </c>
-      <c r="E144" s="13" t="s">
-        <v>2352</v>
-      </c>
-      <c r="F144" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H144" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A145" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B145" s="13" t="s">
-        <v>2353</v>
-      </c>
-      <c r="C145" s="13"/>
-      <c r="D145" s="13" t="s">
-        <v>2354</v>
-      </c>
-      <c r="E145" s="13" t="s">
-        <v>2355</v>
-      </c>
-      <c r="F145" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H145" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A146" s="13" t="s">
-        <v>2182</v>
-      </c>
-      <c r="B146" s="13" t="s">
-        <v>714</v>
-      </c>
-      <c r="C146" s="13"/>
-      <c r="D146" s="13" t="s">
-        <v>2356</v>
-      </c>
-      <c r="E146" s="13" t="s">
-        <v>2357</v>
-      </c>
-      <c r="F146" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="H146" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>26</v>
-      </c>
-      <c r="B147" t="s">
-        <v>48</v>
-      </c>
-      <c r="C147" t="s">
-        <v>49</v>
-      </c>
-      <c r="D147" t="s">
-        <v>50</v>
-      </c>
-      <c r="E147" t="s">
-        <v>51</v>
-      </c>
-      <c r="F147" t="s">
-        <v>20</v>
-      </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
-      <c r="H147" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>26</v>
-      </c>
-      <c r="B148" t="s">
-        <v>65</v>
-      </c>
-      <c r="C148" t="s">
-        <v>66</v>
-      </c>
-      <c r="D148" t="s">
-        <v>67</v>
-      </c>
-      <c r="E148" t="s">
-        <v>68</v>
-      </c>
-      <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>12</v>
-      </c>
-      <c r="H148" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>26</v>
-      </c>
-      <c r="B149" t="s">
-        <v>101</v>
-      </c>
-      <c r="C149" t="s">
-        <v>102</v>
-      </c>
-      <c r="D149" t="s">
-        <v>103</v>
-      </c>
-      <c r="E149" t="s">
-        <v>104</v>
-      </c>
-      <c r="F149" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
-      <c r="H149" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>26</v>
-      </c>
-      <c r="B150" t="s">
-        <v>2359</v>
-      </c>
-      <c r="D150" t="s">
-        <v>2360</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2361</v>
-      </c>
-      <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>12</v>
-      </c>
-      <c r="H150" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>26</v>
-      </c>
-      <c r="B151" t="s">
-        <v>72</v>
-      </c>
-      <c r="D151" t="s">
-        <v>73</v>
-      </c>
-      <c r="E151" t="s">
-        <v>74</v>
-      </c>
-      <c r="F151" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
-      <c r="H151" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>26</v>
-      </c>
-      <c r="B152" t="s">
-        <v>88</v>
-      </c>
-      <c r="D152" t="s">
-        <v>89</v>
-      </c>
-      <c r="E152" t="s">
-        <v>90</v>
-      </c>
-      <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>12</v>
-      </c>
-      <c r="H152" t="s">
-        <v>2358</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B153" t="s">
-        <v>2155</v>
-      </c>
-      <c r="D153" t="s">
-        <v>2156</v>
-      </c>
-      <c r="E153" t="s">
-        <v>2362</v>
-      </c>
-      <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
-      <c r="H153" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>1972</v>
-      </c>
-      <c r="B154" t="s">
-        <v>2366</v>
-      </c>
-      <c r="D154" t="s">
-        <v>2365</v>
-      </c>
-      <c r="E154" t="s">
-        <v>2364</v>
-      </c>
-      <c r="F154" t="s">
-        <v>11</v>
-      </c>
-      <c r="G154" t="s">
-        <v>12</v>
-      </c>
-      <c r="H154" t="s">
-        <v>2363</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B153">
-    <cfRule type="duplicateValues" dxfId="36" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B154">
-    <cfRule type="duplicateValues" dxfId="35" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D153">
-    <cfRule type="duplicateValues" dxfId="34" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D154">
-    <cfRule type="duplicateValues" dxfId="33" priority="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>